--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -474,1012 +474,1056 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t>A_AGE_00-02</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Baden-Württemberg</t>
+          <t>2 Jahre und jünger</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Baden-Wuerttemberg</t>
+          <t>2 years and younger</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t>A_AGE_03-05</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Bayern</t>
+          <t>3 bis unter 5 Jahre</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Bavaria</t>
+          <t>3 to under 5 years</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t>A_AGE_03-11</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>3 bis unter 11 Jahre</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>3 to under 11 years</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t>A_AGE_11-18</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Brandenburg</t>
+          <t>11 bis unter 18 Jahre</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Brandenburg</t>
+          <t>11 to under 18 years</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t>A_AGE_12-18</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>12 bis unter 18 Jahre</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>12 to under 18 years</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t>A_AGE_15-999</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>15 Jahre und älter</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>15 years and older</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t>A_AGE_20-65</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Hessen</t>
+          <t>20 bis unter 65 Jahre</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Hesse</t>
+          <t>20 to under 65 years</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t>A_AGE_60-65</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern</t>
+          <t>60 bis unter 65 Jahre</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Mecklenburg Western Pomerania</t>
+          <t>60 to under 65 years</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t>A_AIRPOLL_NH3</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AIRPOLL</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Niedersachsen</t>
+          <t>NH₃</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Lower Saxony</t>
+          <t>NH₃</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t>A_AIRPOLL_NMVOC</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AIRPOLL</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>NMVOC</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>North Rhine-Westphalia</t>
+          <t>NMVOC</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t>A_AIRPOLL_NOX</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AIRPOLL</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz</t>
+          <t>NOₓ</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Rhineland Palatinate</t>
+          <t>NOₓ</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t>A_AIRPOLL_SO2</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AIRPOLL</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Saarland</t>
+          <t>SO₂</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Saarland</t>
+          <t>SO₂</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t>A_AREA_EU</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Saxony</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t>A_AREA_EU27</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Saxony-Anhalt</t>
+          <t>EU-27</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t>A_AREA_EU28</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein</t>
+          <t>EU-28</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t>A_AREA_EURZ</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Thüringen</t>
+          <t>Eurozone</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Thuringia</t>
+          <t>Eurozone</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_AREA_GMN</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_CRIM_BURGLERY</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Wohnungseinbruchsdiebstahl</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Domestic burglary</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_CRIM_FRAUD</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Betrug</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Fraud</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_CRIM_HARM</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Gefährliche und schwere Körperverletzung</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Dangerous and serious bodily injury</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>A_AGE_12-18</t>
+          <t>A_CRIM_OTHER</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>12 bis unter 18 Jahre</t>
+          <t>Sonstige Straftaten</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>12 to under 18 years</t>
+          <t>Other offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>A_AGE_15-999</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>15 Jahre und älter</t>
+          <t>Brandenburg</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>15 years and older</t>
+          <t>Brandenburg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>A_AGE_00-02</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>2 Jahre und jünger</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>2 years and younger</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>A_AGE_11-18</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>11 bis unter 18 Jahre</t>
+          <t>Baden-Württemberg</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>11 to under 18 years</t>
+          <t>Baden-Wuerttemberg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>A_AGE_20-65</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>20 bis unter 65 Jahre</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>20 to under 65 years</t>
+          <t>Bavaria</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>A_AGE_03-11</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>3 bis unter 11 Jahre</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>3 to under 11 years</t>
+          <t>Bremen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>A_AGE_03-05</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>3 bis unter 5 Jahre</t>
+          <t>Hessen</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>3 to under 5 years</t>
+          <t>Hesse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>A_AGE_60-65</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>60 bis unter 65 Jahre</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>60 to under 65 years</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>A_AIRPOLL_SO2</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>K_AIRPOLL</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>SO₂</t>
+          <t>Mecklenburg-Vorpommern</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>SO₂</t>
+          <t>Mecklenburg Western Pomerania</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>A_AIRPOLL_NOX</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>K_AIRPOLL</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>Niedersachsen</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>NOₓ</t>
+          <t>Lower Saxony</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>A_AIRPOLL_NH3</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>K_AIRPOLL</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>NH₃</t>
+          <t>North Rhine-Westphalia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>A_AIRPOLL_NMVOC</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>K_AIRPOLL</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>Rheinland-Pfalz</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>NMVOC</t>
+          <t>Rhineland Palatinate</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>A_PM2.5</t>
+          <t>A_LAENDER_SH</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Schleswig-Holstein</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Schleswig-Holstein</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EU</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>Saarland</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>Saarland</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EU27</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>Saxony</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EU28</t>
+          <t>A_LAENDER_ST</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>Sachsen-Anhalt</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>Saxony-Anhalt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_GMN</t>
+          <t>A_LAENDER_TH</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t>Thüringen</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Thuringia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EURZ</t>
+          <t>A_PM2.5</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Eurozone</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Eurozone</t>
+          <t>PM2.5</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_SEA_B</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Ostsee</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Baltic sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_SEA_N</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Nordsee</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Greater North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_B</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Ostsee</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Baltic sea</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_N</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Nordsee</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Greater North Sea</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_OTHER</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Sonstige Straftaten</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Other offences</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_HARM</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Gefährliche und schwere Körperverletzung</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Dangerous and serious bodily injury</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_FRAUD</t>
+          <t>A_URBAN_NONRURAL</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Betrug</t>
+          <t>Nicht-ländliche Gebiete</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Fraud</t>
+          <t>Non-rural areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_BURGLERY</t>
+          <t>A_URBAN_RURAL</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Wohnungseinbruchsdiebstahl</t>
+          <t>Ländliche Gebiete</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Domestic burglary</t>
+          <t>Rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Eropäische Union</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>European Union</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -936,51 +936,51 @@
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t>A_EU</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Brandenburg</t>
+          <t>Eropäische Union</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Brandenburg</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t>A_GERMANY</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -990,19 +990,19 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Baden-Württemberg</t>
+          <t>Brandenburg</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Baden-Wuerttemberg</t>
+          <t>Brandenburg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Bayern</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Bavaria</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Baden-Württemberg</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Baden-Wuerttemberg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1056,19 +1056,19 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Hessen</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Hesse</t>
+          <t>Bavaria</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Bremen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1100,19 +1100,19 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern</t>
+          <t>Hessen</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Mecklenburg Western Pomerania</t>
+          <t>Hesse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Niedersachsen</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Lower Saxony</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1144,19 +1144,19 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>Mecklenburg-Vorpommern</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>North Rhine-Westphalia</t>
+          <t>Mecklenburg Western Pomerania</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1166,19 +1166,19 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz</t>
+          <t>Niedersachsen</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Rhineland Palatinate</t>
+          <t>Lower Saxony</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1188,19 +1188,19 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein</t>
+          <t>North Rhine-Westphalia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1210,19 +1210,19 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Saarland</t>
+          <t>Rheinland-Pfalz</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Saarland</t>
+          <t>Rhineland Palatinate</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t>A_LAENDER_SH</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1232,19 +1232,19 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Schleswig-Holstein</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Saxony</t>
+          <t>Schleswig-Holstein</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1254,19 +1254,19 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt</t>
+          <t>Saarland</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Saxony-Anhalt</t>
+          <t>Saarland</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1276,254 +1276,342 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Thüringen</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Thuringia</t>
+          <t>Saxony</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>A_PM2.5</t>
+          <t>A_LAENDER_ST</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Sachsen-Anhalt</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Saxony-Anhalt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_B</t>
+          <t>A_LAENDER_TH</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Ostsee</t>
+          <t>Thüringen</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Baltic sea</t>
+          <t>Thuringia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_N</t>
+          <t>A_PM2.5</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Nordsee</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Greater North Sea</t>
+          <t>PM2.5</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SEA_B</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Ostsee</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Baltic sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SEA_N</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Nordsee</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Greater North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Moving five-year average shown for each middle year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Calculated annual values</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_SERIES_BMEL</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Daten des BMEL</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>A_GERMANY</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>A_EU</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Eropäische Union</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Männlich</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_U</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_NONRURAL</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Nicht-ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Non-rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_RURAL</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Rural areas</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -445,7 +445,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="25.046875"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
-    <col customWidth="true" min="3" max="3" width="30.90625"/>
+    <col customWidth="true" min="3" max="3" width="53.46484375"/>
     <col customWidth="true" min="4" max="4" width="36.765625"/>
   </cols>
   <sheetData>
@@ -1615,6 +1615,9268 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_TOTAL</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Insgesamt</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_OVERWEIGHT</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Übergewicht ohne Adipositas</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Overweight without obese</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_OBESE</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Adipositas</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Obese</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_18-20</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>18 bis unter 20 Jahre</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>18 to under 20 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_20-25</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>20 bis unter 25 Jahre</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>20 to under 25 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_25-30</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>25 bis unter 30 Jahre</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>25 to under 30 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_30-35</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>30 bis unter 35 Jahre</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>30 to under 35 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_35-40</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>35 bis unter 40 Jahre</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>35 to under 40 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_40-45</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>40 bis unter 45 Jahre</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>40 to under 45 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_45-50</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>45 bis unter 50 Jahre</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>45 to under 50 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_50-55</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>50 bis unter 55 Jahre</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>50 to under 55 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_55-60</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>55 bis unter 60 Jahre</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>55 to under 60 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_60-56</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>60 bis unter 56 Jahre</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>60 to under 56 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_65-70</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>65 bis unter 70 Jahre</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>65 to under 70 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_70-75</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>70 bis unter 75 Jahre</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>70 to under 75 years</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>A_AGE_75-999</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE </t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>75 Jahre und älter</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>75 years and older</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_PANDEMIC</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>Pandemieprävention und -reaktion</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>Pandemic prevention and response</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_COVID</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Eindämmung der COVID-19-Pandemie</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_TERTIARY</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Tertiärer Abschluss</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>With tertiary qualification</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_001</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>Stuttgart, Stadt</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>Stuttgart, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_002</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Böblingen</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>Böblingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_003</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Esslingen</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>Esslingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_004</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Göppingen</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>Göppingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_005</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>Ludwigsburg</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>Ludwigsburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_006</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>Rems-Murr-Kreis</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>Rems-Murr-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_007</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>Heilbronn, Stadt</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>Heilbronn, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_008</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_009</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>Hohenlohekreis</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>Hohenlohekreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_010</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_011</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>Main-Tauber-Kreis</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>Main-Tauber-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_012</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_013</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>Ostalbkreis</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>Ostalbkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_014</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>Baden-Baden, Stadt</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>Baden-Baden, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_015</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>Karlsruhe, Stadt</t>
+        </is>
+      </c>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>Karlsruhe, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_016</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_017</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>Rastatt</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>Rastatt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_018</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>Heidelberg, Stadt</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
+        <is>
+          <t>Heidelberg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_019</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>Mannheim, Stadt</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t>Mannheim, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_020</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>Neckar-Odenwald-Kreis</t>
+        </is>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>Neckar-Odenwald-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_021</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Neckar-Kreis</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Neckar-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_022</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Pforzheim, Stadt</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t>Pforzheim, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_023</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>Calw</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t>Calw</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_024</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>Enzkreis</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>Enzkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_025</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>Freudenstadt</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>Freudenstadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_026</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>Freiburg im Breisgau, Stadt</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>Freiburg im Breisgau, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_027</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>Breisgau-Hochschwarzwald</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>Breisgau-Hochschwarzwald</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_028</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>Emmendingen</t>
+        </is>
+      </c>
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t>Emmendingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_029</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>Ortenaukreis</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>Ortenaukreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_030</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>Rottweil</t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t>Rottweil</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_031</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>Schwarzwald-Baar-Kreis</t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t>Schwarzwald-Baar-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_032</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>Tuttlingen</t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t>Tuttlingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_033</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>Konstanz</t>
+        </is>
+      </c>
+      <c r="D105" s="4" t="inlineStr">
+        <is>
+          <t>Konstanz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_034</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t>Lörrach</t>
+        </is>
+      </c>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t>Lörrach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_035</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C107" s="4" t="inlineStr">
+        <is>
+          <t>Waldshut</t>
+        </is>
+      </c>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>Waldshut</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_036</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="inlineStr">
+        <is>
+          <t>Reutlingen</t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t>Reutlingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_037</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>Tübingen</t>
+        </is>
+      </c>
+      <c r="D109" s="4" t="inlineStr">
+        <is>
+          <t>Tübingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_038</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>Zollernalbkreis</t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t>Zollernalbkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_039</t>
+        </is>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>Ulm, Stadt</t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t>Ulm, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_040</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>Alb-Donau-Kreis</t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t>Alb-Donau-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_041</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>Biberach</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t>Biberach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_042</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>Bodenseekreis</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>Bodenseekreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_043</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>Ravensburg</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>Ravensburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_044</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>Sigmaringen</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>Sigmaringen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_045</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>Ingolstadt, Stadt</t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t>Ingolstadt, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_046</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>München, Stadt</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>München, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_047</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>Rosenheim, Stadt</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>Rosenheim, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_048</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>Altötting</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>Altötting</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_049</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>Berchtesgadener Land</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t>Berchtesgadener Land</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_050</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>Bad Tölz-Wolfratshausen</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>Bad Tölz-Wolfratshausen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_051</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>Dachau</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>Dachau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_052</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>Ebersberg</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>Ebersberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_053</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>Eichstätt</t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t>Eichstätt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_054</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>Erding</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t>Erding</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_055</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>Freising</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>Freising</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_056</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>Fürstenfeldbruck</t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t>Fürstenfeldbruck</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_057</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>Garmisch-Partenkirchen</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>Garmisch-Partenkirchen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_058</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>Landsberg am Lech</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>Landsberg am Lech</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_059</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>Miesbach</t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t>Miesbach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_060</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>Mühldorf am Inn</t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t>Mühldorf am Inn</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_061</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>München</t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t>München</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_062</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>Neuburg-Schrobenhausen</t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t>Neuburg-Schrobenhausen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_063</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>Pfaffenhofen an der Ilm</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>Pfaffenhofen an der Ilm</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_064</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>Rosenheim</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>Rosenheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_065</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>Starnberg</t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>Starnberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_066</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>Traunstein</t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>Traunstein</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_067</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>Weilheim-Schongau</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t>Weilheim-Schongau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_068</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>Landshut, Stadt</t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t>Landshut, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_069</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>Passau, Stadt</t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t>Passau, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_070</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>Straubing, Stadt</t>
+        </is>
+      </c>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t>Straubing, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_071</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>Deggendorf</t>
+        </is>
+      </c>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t>Deggendorf</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_072</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>Freyung-Grafenau</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>Freyung-Grafenau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_073</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>Kelheim</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t>Kelheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_074</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>Landshut</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>Landshut</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_075</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>Passau</t>
+        </is>
+      </c>
+      <c r="D147" s="4" t="inlineStr">
+        <is>
+          <t>Passau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_076</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>Regen</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>Regen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_077</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>Rottal-Inn</t>
+        </is>
+      </c>
+      <c r="D149" s="4" t="inlineStr">
+        <is>
+          <t>Rottal-Inn</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_078</t>
+        </is>
+      </c>
+      <c r="B150" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C150" s="4" t="inlineStr">
+        <is>
+          <t>Straubing-Bogen</t>
+        </is>
+      </c>
+      <c r="D150" s="4" t="inlineStr">
+        <is>
+          <t>Straubing-Bogen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_079</t>
+        </is>
+      </c>
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C151" s="4" t="inlineStr">
+        <is>
+          <t>Dingolfing-Landau</t>
+        </is>
+      </c>
+      <c r="D151" s="4" t="inlineStr">
+        <is>
+          <t>Dingolfing-Landau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_080</t>
+        </is>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>Amberg, Stadt</t>
+        </is>
+      </c>
+      <c r="D152" s="4" t="inlineStr">
+        <is>
+          <t>Amberg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_081</t>
+        </is>
+      </c>
+      <c r="B153" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C153" s="4" t="inlineStr">
+        <is>
+          <t>Regensburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D153" s="4" t="inlineStr">
+        <is>
+          <t>Regensburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_082</t>
+        </is>
+      </c>
+      <c r="B154" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C154" s="4" t="inlineStr">
+        <is>
+          <t>Weiden in der Oberpfalz, Stadt</t>
+        </is>
+      </c>
+      <c r="D154" s="4" t="inlineStr">
+        <is>
+          <t>Weiden in der Oberpfalz, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_083</t>
+        </is>
+      </c>
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C155" s="4" t="inlineStr">
+        <is>
+          <t>Amberg-Sulzbach</t>
+        </is>
+      </c>
+      <c r="D155" s="4" t="inlineStr">
+        <is>
+          <t>Amberg-Sulzbach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_084</t>
+        </is>
+      </c>
+      <c r="B156" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>Cham</t>
+        </is>
+      </c>
+      <c r="D156" s="4" t="inlineStr">
+        <is>
+          <t>Cham</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_085</t>
+        </is>
+      </c>
+      <c r="B157" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C157" s="4" t="inlineStr">
+        <is>
+          <t>Neumarkt in der Oberpfalz</t>
+        </is>
+      </c>
+      <c r="D157" s="4" t="inlineStr">
+        <is>
+          <t>Neumarkt in der Oberpfalz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_086</t>
+        </is>
+      </c>
+      <c r="B158" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C158" s="4" t="inlineStr">
+        <is>
+          <t>Neustadt an der Waldnaab</t>
+        </is>
+      </c>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t>Neustadt an der Waldnaab</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_087</t>
+        </is>
+      </c>
+      <c r="B159" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C159" s="4" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_088</t>
+        </is>
+      </c>
+      <c r="B160" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C160" s="4" t="inlineStr">
+        <is>
+          <t>Schwandorf</t>
+        </is>
+      </c>
+      <c r="D160" s="4" t="inlineStr">
+        <is>
+          <t>Schwandorf</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_089</t>
+        </is>
+      </c>
+      <c r="B161" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C161" s="4" t="inlineStr">
+        <is>
+          <t>Tirschenreuth</t>
+        </is>
+      </c>
+      <c r="D161" s="4" t="inlineStr">
+        <is>
+          <t>Tirschenreuth</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_090</t>
+        </is>
+      </c>
+      <c r="B162" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C162" s="4" t="inlineStr">
+        <is>
+          <t>Bamberg, Stadt</t>
+        </is>
+      </c>
+      <c r="D162" s="4" t="inlineStr">
+        <is>
+          <t>Bamberg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_091</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>Bayreuth, Stadt</t>
+        </is>
+      </c>
+      <c r="D163" s="4" t="inlineStr">
+        <is>
+          <t>Bayreuth, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_092</t>
+        </is>
+      </c>
+      <c r="B164" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>Coburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D164" s="4" t="inlineStr">
+        <is>
+          <t>Coburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_093</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>Hof, Stadt</t>
+        </is>
+      </c>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>Hof, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_094</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>Bamberg</t>
+        </is>
+      </c>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>Bamberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_095</t>
+        </is>
+      </c>
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="D167" s="4" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_096</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>Coburg</t>
+        </is>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>Coburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_097</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t>Forchheim</t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
+          <t>Forchheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_098</t>
+        </is>
+      </c>
+      <c r="B170" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C170" s="4" t="inlineStr">
+        <is>
+          <t>Hof</t>
+        </is>
+      </c>
+      <c r="D170" s="4" t="inlineStr">
+        <is>
+          <t>Hof</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_099</t>
+        </is>
+      </c>
+      <c r="B171" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C171" s="4" t="inlineStr">
+        <is>
+          <t>Kronach</t>
+        </is>
+      </c>
+      <c r="D171" s="4" t="inlineStr">
+        <is>
+          <t>Kronach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_100</t>
+        </is>
+      </c>
+      <c r="B172" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C172" s="4" t="inlineStr">
+        <is>
+          <t>Kulmbach</t>
+        </is>
+      </c>
+      <c r="D172" s="4" t="inlineStr">
+        <is>
+          <t>Kulmbach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_101</t>
+        </is>
+      </c>
+      <c r="B173" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C173" s="4" t="inlineStr">
+        <is>
+          <t>Lichtenfels</t>
+        </is>
+      </c>
+      <c r="D173" s="4" t="inlineStr">
+        <is>
+          <t>Lichtenfels</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_102</t>
+        </is>
+      </c>
+      <c r="B174" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C174" s="4" t="inlineStr">
+        <is>
+          <t>Wunsiedel im Fichtelgebirge</t>
+        </is>
+      </c>
+      <c r="D174" s="4" t="inlineStr">
+        <is>
+          <t>Wunsiedel im Fichtelgebirge</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_103</t>
+        </is>
+      </c>
+      <c r="B175" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C175" s="4" t="inlineStr">
+        <is>
+          <t>Ansbach, Stadt</t>
+        </is>
+      </c>
+      <c r="D175" s="4" t="inlineStr">
+        <is>
+          <t>Ansbach, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_104</t>
+        </is>
+      </c>
+      <c r="B176" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>Erlangen, Stadt</t>
+        </is>
+      </c>
+      <c r="D176" s="4" t="inlineStr">
+        <is>
+          <t>Erlangen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_105</t>
+        </is>
+      </c>
+      <c r="B177" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C177" s="4" t="inlineStr">
+        <is>
+          <t>Fürth, Stadt</t>
+        </is>
+      </c>
+      <c r="D177" s="4" t="inlineStr">
+        <is>
+          <t>Fürth, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_106</t>
+        </is>
+      </c>
+      <c r="B178" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C178" s="4" t="inlineStr">
+        <is>
+          <t>Nürnberg, Stadt</t>
+        </is>
+      </c>
+      <c r="D178" s="4" t="inlineStr">
+        <is>
+          <t>Nürnberg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_107</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>Schwabach, Stadt</t>
+        </is>
+      </c>
+      <c r="D179" s="4" t="inlineStr">
+        <is>
+          <t>Schwabach, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_108</t>
+        </is>
+      </c>
+      <c r="B180" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>Ansbach</t>
+        </is>
+      </c>
+      <c r="D180" s="4" t="inlineStr">
+        <is>
+          <t>Ansbach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_109</t>
+        </is>
+      </c>
+      <c r="B181" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>Erlangen-Höchstadt</t>
+        </is>
+      </c>
+      <c r="D181" s="4" t="inlineStr">
+        <is>
+          <t>Erlangen-Höchstadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_110</t>
+        </is>
+      </c>
+      <c r="B182" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C182" s="4" t="inlineStr">
+        <is>
+          <t>Fürth</t>
+        </is>
+      </c>
+      <c r="D182" s="4" t="inlineStr">
+        <is>
+          <t>Fürth</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_111</t>
+        </is>
+      </c>
+      <c r="B183" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C183" s="4" t="inlineStr">
+        <is>
+          <t>Nürnberger Land</t>
+        </is>
+      </c>
+      <c r="D183" s="4" t="inlineStr">
+        <is>
+          <t>Nürnberger Land</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_112</t>
+        </is>
+      </c>
+      <c r="B184" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C184" s="4" t="inlineStr">
+        <is>
+          <t>Neustadt an der Aisch-Bad Windsheim</t>
+        </is>
+      </c>
+      <c r="D184" s="4" t="inlineStr">
+        <is>
+          <t>Neustadt an der Aisch-Bad Windsheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_113</t>
+        </is>
+      </c>
+      <c r="B185" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C185" s="4" t="inlineStr">
+        <is>
+          <t>Roth</t>
+        </is>
+      </c>
+      <c r="D185" s="4" t="inlineStr">
+        <is>
+          <t>Roth</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_114</t>
+        </is>
+      </c>
+      <c r="B186" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C186" s="4" t="inlineStr">
+        <is>
+          <t>Weißenburg-Gunzenhausen</t>
+        </is>
+      </c>
+      <c r="D186" s="4" t="inlineStr">
+        <is>
+          <t>Weißenburg-Gunzenhausen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_115</t>
+        </is>
+      </c>
+      <c r="B187" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C187" s="4" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D187" s="4" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_116</t>
+        </is>
+      </c>
+      <c r="B188" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C188" s="4" t="inlineStr">
+        <is>
+          <t>Schweinfurt, Stadt</t>
+        </is>
+      </c>
+      <c r="D188" s="4" t="inlineStr">
+        <is>
+          <t>Schweinfurt, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_117</t>
+        </is>
+      </c>
+      <c r="B189" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C189" s="4" t="inlineStr">
+        <is>
+          <t>Würzburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D189" s="4" t="inlineStr">
+        <is>
+          <t>Würzburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_118</t>
+        </is>
+      </c>
+      <c r="B190" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C190" s="4" t="inlineStr">
+        <is>
+          <t>Aschaffenburg</t>
+        </is>
+      </c>
+      <c r="D190" s="4" t="inlineStr">
+        <is>
+          <t>Aschaffenburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_119</t>
+        </is>
+      </c>
+      <c r="B191" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C191" s="4" t="inlineStr">
+        <is>
+          <t>Bad Kissingen</t>
+        </is>
+      </c>
+      <c r="D191" s="4" t="inlineStr">
+        <is>
+          <t>Bad Kissingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_120</t>
+        </is>
+      </c>
+      <c r="B192" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C192" s="4" t="inlineStr">
+        <is>
+          <t>Rhön-Grabfeld</t>
+        </is>
+      </c>
+      <c r="D192" s="4" t="inlineStr">
+        <is>
+          <t>Rhön-Grabfeld</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_121</t>
+        </is>
+      </c>
+      <c r="B193" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C193" s="4" t="inlineStr">
+        <is>
+          <t>Haßberge</t>
+        </is>
+      </c>
+      <c r="D193" s="4" t="inlineStr">
+        <is>
+          <t>Haßberge</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_122</t>
+        </is>
+      </c>
+      <c r="B194" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C194" s="4" t="inlineStr">
+        <is>
+          <t>Kitzingen</t>
+        </is>
+      </c>
+      <c r="D194" s="4" t="inlineStr">
+        <is>
+          <t>Kitzingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_123</t>
+        </is>
+      </c>
+      <c r="B195" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C195" s="4" t="inlineStr">
+        <is>
+          <t>Miltenberg</t>
+        </is>
+      </c>
+      <c r="D195" s="4" t="inlineStr">
+        <is>
+          <t>Miltenberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_124</t>
+        </is>
+      </c>
+      <c r="B196" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C196" s="4" t="inlineStr">
+        <is>
+          <t>Main-Spessart</t>
+        </is>
+      </c>
+      <c r="D196" s="4" t="inlineStr">
+        <is>
+          <t>Main-Spessart</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_125</t>
+        </is>
+      </c>
+      <c r="B197" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C197" s="4" t="inlineStr">
+        <is>
+          <t>Schweinfurt</t>
+        </is>
+      </c>
+      <c r="D197" s="4" t="inlineStr">
+        <is>
+          <t>Schweinfurt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_126</t>
+        </is>
+      </c>
+      <c r="B198" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C198" s="4" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="D198" s="4" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_127</t>
+        </is>
+      </c>
+      <c r="B199" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C199" s="4" t="inlineStr">
+        <is>
+          <t>Augsburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D199" s="4" t="inlineStr">
+        <is>
+          <t>Augsburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_128</t>
+        </is>
+      </c>
+      <c r="B200" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C200" s="4" t="inlineStr">
+        <is>
+          <t>Kaufbeuren, Stadt</t>
+        </is>
+      </c>
+      <c r="D200" s="4" t="inlineStr">
+        <is>
+          <t>Kaufbeuren, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="201">
+      <c r="A201" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_129</t>
+        </is>
+      </c>
+      <c r="B201" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C201" s="4" t="inlineStr">
+        <is>
+          <t>Kempten (Allgäu), Stadt</t>
+        </is>
+      </c>
+      <c r="D201" s="4" t="inlineStr">
+        <is>
+          <t>Kempten (Allgäu), Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="202">
+      <c r="A202" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_130</t>
+        </is>
+      </c>
+      <c r="B202" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C202" s="4" t="inlineStr">
+        <is>
+          <t>Memmingen, Stadt</t>
+        </is>
+      </c>
+      <c r="D202" s="4" t="inlineStr">
+        <is>
+          <t>Memmingen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="203">
+      <c r="A203" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_131</t>
+        </is>
+      </c>
+      <c r="B203" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C203" s="4" t="inlineStr">
+        <is>
+          <t>Aichach-Friedberg</t>
+        </is>
+      </c>
+      <c r="D203" s="4" t="inlineStr">
+        <is>
+          <t>Aichach-Friedberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_132</t>
+        </is>
+      </c>
+      <c r="B204" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C204" s="4" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="D204" s="4" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_133</t>
+        </is>
+      </c>
+      <c r="B205" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C205" s="4" t="inlineStr">
+        <is>
+          <t>Dillingen an der Donau</t>
+        </is>
+      </c>
+      <c r="D205" s="4" t="inlineStr">
+        <is>
+          <t>Dillingen an der Donau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_134</t>
+        </is>
+      </c>
+      <c r="B206" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C206" s="4" t="inlineStr">
+        <is>
+          <t>Günzburg</t>
+        </is>
+      </c>
+      <c r="D206" s="4" t="inlineStr">
+        <is>
+          <t>Günzburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_135</t>
+        </is>
+      </c>
+      <c r="B207" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C207" s="4" t="inlineStr">
+        <is>
+          <t>Neu-Ulm</t>
+        </is>
+      </c>
+      <c r="D207" s="4" t="inlineStr">
+        <is>
+          <t>Neu-Ulm</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_136</t>
+        </is>
+      </c>
+      <c r="B208" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C208" s="4" t="inlineStr">
+        <is>
+          <t>Lindau (Bodensee)</t>
+        </is>
+      </c>
+      <c r="D208" s="4" t="inlineStr">
+        <is>
+          <t>Lindau (Bodensee)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_137</t>
+        </is>
+      </c>
+      <c r="B209" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C209" s="4" t="inlineStr">
+        <is>
+          <t>Ostallgäu</t>
+        </is>
+      </c>
+      <c r="D209" s="4" t="inlineStr">
+        <is>
+          <t>Ostallgäu</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_138</t>
+        </is>
+      </c>
+      <c r="B210" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C210" s="4" t="inlineStr">
+        <is>
+          <t>Unterallgäu</t>
+        </is>
+      </c>
+      <c r="D210" s="4" t="inlineStr">
+        <is>
+          <t>Unterallgäu</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_139</t>
+        </is>
+      </c>
+      <c r="B211" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C211" s="4" t="inlineStr">
+        <is>
+          <t>Donau-Ries</t>
+        </is>
+      </c>
+      <c r="D211" s="4" t="inlineStr">
+        <is>
+          <t>Donau-Ries</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_140</t>
+        </is>
+      </c>
+      <c r="B212" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C212" s="4" t="inlineStr">
+        <is>
+          <t>Oberallgäu</t>
+        </is>
+      </c>
+      <c r="D212" s="4" t="inlineStr">
+        <is>
+          <t>Oberallgäu</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_141</t>
+        </is>
+      </c>
+      <c r="B213" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C213" s="4" t="inlineStr">
+        <is>
+          <t>Berlin, Stadt</t>
+        </is>
+      </c>
+      <c r="D213" s="4" t="inlineStr">
+        <is>
+          <t>Berlin, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_142</t>
+        </is>
+      </c>
+      <c r="B214" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C214" s="4" t="inlineStr">
+        <is>
+          <t>Brandenburg an der Havel, Stadt</t>
+        </is>
+      </c>
+      <c r="D214" s="4" t="inlineStr">
+        <is>
+          <t>Brandenburg an der Havel, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="215">
+      <c r="A215" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_143</t>
+        </is>
+      </c>
+      <c r="B215" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C215" s="4" t="inlineStr">
+        <is>
+          <t>Cottbus, Stadt</t>
+        </is>
+      </c>
+      <c r="D215" s="4" t="inlineStr">
+        <is>
+          <t>Cottbus, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_144</t>
+        </is>
+      </c>
+      <c r="B216" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C216" s="4" t="inlineStr">
+        <is>
+          <t>Frankfurt (Oder), Stadt</t>
+        </is>
+      </c>
+      <c r="D216" s="4" t="inlineStr">
+        <is>
+          <t>Frankfurt (Oder), Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="217">
+      <c r="A217" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_145</t>
+        </is>
+      </c>
+      <c r="B217" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C217" s="4" t="inlineStr">
+        <is>
+          <t>Potsdam, Stadt</t>
+        </is>
+      </c>
+      <c r="D217" s="4" t="inlineStr">
+        <is>
+          <t>Potsdam, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_146</t>
+        </is>
+      </c>
+      <c r="B218" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C218" s="4" t="inlineStr">
+        <is>
+          <t>Barnim</t>
+        </is>
+      </c>
+      <c r="D218" s="4" t="inlineStr">
+        <is>
+          <t>Barnim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_147</t>
+        </is>
+      </c>
+      <c r="B219" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C219" s="4" t="inlineStr">
+        <is>
+          <t>Dahme-Spreewald</t>
+        </is>
+      </c>
+      <c r="D219" s="4" t="inlineStr">
+        <is>
+          <t>Dahme-Spreewald</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_148</t>
+        </is>
+      </c>
+      <c r="B220" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C220" s="4" t="inlineStr">
+        <is>
+          <t>Elbe-Elster</t>
+        </is>
+      </c>
+      <c r="D220" s="4" t="inlineStr">
+        <is>
+          <t>Elbe-Elster</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_149</t>
+        </is>
+      </c>
+      <c r="B221" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C221" s="4" t="inlineStr">
+        <is>
+          <t>Havelland</t>
+        </is>
+      </c>
+      <c r="D221" s="4" t="inlineStr">
+        <is>
+          <t>Havelland</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_150</t>
+        </is>
+      </c>
+      <c r="B222" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C222" s="4" t="inlineStr">
+        <is>
+          <t>Märkisch-Oderland</t>
+        </is>
+      </c>
+      <c r="D222" s="4" t="inlineStr">
+        <is>
+          <t>Märkisch-Oderland</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_151</t>
+        </is>
+      </c>
+      <c r="B223" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C223" s="4" t="inlineStr">
+        <is>
+          <t>Oberhavel</t>
+        </is>
+      </c>
+      <c r="D223" s="4" t="inlineStr">
+        <is>
+          <t>Oberhavel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_152</t>
+        </is>
+      </c>
+      <c r="B224" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C224" s="4" t="inlineStr">
+        <is>
+          <t>Oberspreewald-Lausitz</t>
+        </is>
+      </c>
+      <c r="D224" s="4" t="inlineStr">
+        <is>
+          <t>Oberspreewald-Lausitz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_153</t>
+        </is>
+      </c>
+      <c r="B225" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C225" s="4" t="inlineStr">
+        <is>
+          <t>Oder-Spree</t>
+        </is>
+      </c>
+      <c r="D225" s="4" t="inlineStr">
+        <is>
+          <t>Oder-Spree</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_154</t>
+        </is>
+      </c>
+      <c r="B226" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C226" s="4" t="inlineStr">
+        <is>
+          <t>Ostprignitz-Ruppin</t>
+        </is>
+      </c>
+      <c r="D226" s="4" t="inlineStr">
+        <is>
+          <t>Ostprignitz-Ruppin</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_155</t>
+        </is>
+      </c>
+      <c r="B227" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C227" s="4" t="inlineStr">
+        <is>
+          <t>Potsdam-Mittelmark</t>
+        </is>
+      </c>
+      <c r="D227" s="4" t="inlineStr">
+        <is>
+          <t>Potsdam-Mittelmark</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="228">
+      <c r="A228" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_156</t>
+        </is>
+      </c>
+      <c r="B228" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C228" s="4" t="inlineStr">
+        <is>
+          <t>Prignitz</t>
+        </is>
+      </c>
+      <c r="D228" s="4" t="inlineStr">
+        <is>
+          <t>Prignitz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="229">
+      <c r="A229" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_157</t>
+        </is>
+      </c>
+      <c r="B229" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C229" s="4" t="inlineStr">
+        <is>
+          <t>Spree-Neiße</t>
+        </is>
+      </c>
+      <c r="D229" s="4" t="inlineStr">
+        <is>
+          <t>Spree-Neiße</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="230">
+      <c r="A230" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_158</t>
+        </is>
+      </c>
+      <c r="B230" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C230" s="4" t="inlineStr">
+        <is>
+          <t>Teltow-Fläming</t>
+        </is>
+      </c>
+      <c r="D230" s="4" t="inlineStr">
+        <is>
+          <t>Teltow-Fläming</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="231">
+      <c r="A231" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_159</t>
+        </is>
+      </c>
+      <c r="B231" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C231" s="4" t="inlineStr">
+        <is>
+          <t>Uckermark</t>
+        </is>
+      </c>
+      <c r="D231" s="4" t="inlineStr">
+        <is>
+          <t>Uckermark</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="232">
+      <c r="A232" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_160</t>
+        </is>
+      </c>
+      <c r="B232" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C232" s="4" t="inlineStr">
+        <is>
+          <t>Bremen, Stadt</t>
+        </is>
+      </c>
+      <c r="D232" s="4" t="inlineStr">
+        <is>
+          <t>Bremen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="233">
+      <c r="A233" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_161</t>
+        </is>
+      </c>
+      <c r="B233" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C233" s="4" t="inlineStr">
+        <is>
+          <t>Bremerhaven, Stadt</t>
+        </is>
+      </c>
+      <c r="D233" s="4" t="inlineStr">
+        <is>
+          <t>Bremerhaven, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="234">
+      <c r="A234" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_162</t>
+        </is>
+      </c>
+      <c r="B234" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C234" s="4" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="D234" s="4" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="235">
+      <c r="A235" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_163</t>
+        </is>
+      </c>
+      <c r="B235" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C235" s="4" t="inlineStr">
+        <is>
+          <t>Darmstadt, Stadt</t>
+        </is>
+      </c>
+      <c r="D235" s="4" t="inlineStr">
+        <is>
+          <t>Darmstadt, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="236">
+      <c r="A236" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_164</t>
+        </is>
+      </c>
+      <c r="B236" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C236" s="4" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main, Stadt</t>
+        </is>
+      </c>
+      <c r="D236" s="4" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="A237" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_165</t>
+        </is>
+      </c>
+      <c r="B237" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C237" s="4" t="inlineStr">
+        <is>
+          <t>Offenbach am Main, Stadt</t>
+        </is>
+      </c>
+      <c r="D237" s="4" t="inlineStr">
+        <is>
+          <t>Offenbach am Main, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="A238" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_166</t>
+        </is>
+      </c>
+      <c r="B238" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C238" s="4" t="inlineStr">
+        <is>
+          <t>Wiesbaden, Stadt</t>
+        </is>
+      </c>
+      <c r="D238" s="4" t="inlineStr">
+        <is>
+          <t>Wiesbaden, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="A239" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_167</t>
+        </is>
+      </c>
+      <c r="B239" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C239" s="4" t="inlineStr">
+        <is>
+          <t>Bergstraße</t>
+        </is>
+      </c>
+      <c r="D239" s="4" t="inlineStr">
+        <is>
+          <t>Bergstraße</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="240">
+      <c r="A240" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_168</t>
+        </is>
+      </c>
+      <c r="B240" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C240" s="4" t="inlineStr">
+        <is>
+          <t>Darmstadt-Dieburg</t>
+        </is>
+      </c>
+      <c r="D240" s="4" t="inlineStr">
+        <is>
+          <t>Darmstadt-Dieburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="241">
+      <c r="A241" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_169</t>
+        </is>
+      </c>
+      <c r="B241" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C241" s="4" t="inlineStr">
+        <is>
+          <t>Groß-Gerau</t>
+        </is>
+      </c>
+      <c r="D241" s="4" t="inlineStr">
+        <is>
+          <t>Groß-Gerau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="242">
+      <c r="A242" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_170</t>
+        </is>
+      </c>
+      <c r="B242" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C242" s="4" t="inlineStr">
+        <is>
+          <t>Hochtaunuskreis</t>
+        </is>
+      </c>
+      <c r="D242" s="4" t="inlineStr">
+        <is>
+          <t>Hochtaunuskreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="243">
+      <c r="A243" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_171</t>
+        </is>
+      </c>
+      <c r="B243" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C243" s="4" t="inlineStr">
+        <is>
+          <t>Main-Kinzig-Kreis</t>
+        </is>
+      </c>
+      <c r="D243" s="4" t="inlineStr">
+        <is>
+          <t>Main-Kinzig-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="244">
+      <c r="A244" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_172</t>
+        </is>
+      </c>
+      <c r="B244" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C244" s="4" t="inlineStr">
+        <is>
+          <t>Main-Taunus-Kreis</t>
+        </is>
+      </c>
+      <c r="D244" s="4" t="inlineStr">
+        <is>
+          <t>Main-Taunus-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="245">
+      <c r="A245" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_173</t>
+        </is>
+      </c>
+      <c r="B245" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C245" s="4" t="inlineStr">
+        <is>
+          <t>Odenwaldkreis</t>
+        </is>
+      </c>
+      <c r="D245" s="4" t="inlineStr">
+        <is>
+          <t>Odenwaldkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="246">
+      <c r="A246" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_174</t>
+        </is>
+      </c>
+      <c r="B246" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C246" s="4" t="inlineStr">
+        <is>
+          <t>Offenbach</t>
+        </is>
+      </c>
+      <c r="D246" s="4" t="inlineStr">
+        <is>
+          <t>Offenbach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="247">
+      <c r="A247" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_175</t>
+        </is>
+      </c>
+      <c r="B247" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C247" s="4" t="inlineStr">
+        <is>
+          <t>Rheingau-Taunus-Kreis</t>
+        </is>
+      </c>
+      <c r="D247" s="4" t="inlineStr">
+        <is>
+          <t>Rheingau-Taunus-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="248">
+      <c r="A248" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_176</t>
+        </is>
+      </c>
+      <c r="B248" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C248" s="4" t="inlineStr">
+        <is>
+          <t>Wetteraukreis</t>
+        </is>
+      </c>
+      <c r="D248" s="4" t="inlineStr">
+        <is>
+          <t>Wetteraukreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="249">
+      <c r="A249" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_177</t>
+        </is>
+      </c>
+      <c r="B249" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C249" s="4" t="inlineStr">
+        <is>
+          <t>Gießen</t>
+        </is>
+      </c>
+      <c r="D249" s="4" t="inlineStr">
+        <is>
+          <t>Gießen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="250">
+      <c r="A250" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_178</t>
+        </is>
+      </c>
+      <c r="B250" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C250" s="4" t="inlineStr">
+        <is>
+          <t>Lahn-Dill-Kreis</t>
+        </is>
+      </c>
+      <c r="D250" s="4" t="inlineStr">
+        <is>
+          <t>Lahn-Dill-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="251">
+      <c r="A251" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_179</t>
+        </is>
+      </c>
+      <c r="B251" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C251" s="4" t="inlineStr">
+        <is>
+          <t>Limburg-Weilburg</t>
+        </is>
+      </c>
+      <c r="D251" s="4" t="inlineStr">
+        <is>
+          <t>Limburg-Weilburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="252">
+      <c r="A252" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_180</t>
+        </is>
+      </c>
+      <c r="B252" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C252" s="4" t="inlineStr">
+        <is>
+          <t>Marburg-Biedenkopf</t>
+        </is>
+      </c>
+      <c r="D252" s="4" t="inlineStr">
+        <is>
+          <t>Marburg-Biedenkopf</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="253">
+      <c r="A253" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_181</t>
+        </is>
+      </c>
+      <c r="B253" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C253" s="4" t="inlineStr">
+        <is>
+          <t>Vogelsbergkreis</t>
+        </is>
+      </c>
+      <c r="D253" s="4" t="inlineStr">
+        <is>
+          <t>Vogelsbergkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="254">
+      <c r="A254" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_182</t>
+        </is>
+      </c>
+      <c r="B254" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C254" s="4" t="inlineStr">
+        <is>
+          <t>Kassel, Stadt</t>
+        </is>
+      </c>
+      <c r="D254" s="4" t="inlineStr">
+        <is>
+          <t>Kassel, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="255">
+      <c r="A255" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_183</t>
+        </is>
+      </c>
+      <c r="B255" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C255" s="4" t="inlineStr">
+        <is>
+          <t>Fulda</t>
+        </is>
+      </c>
+      <c r="D255" s="4" t="inlineStr">
+        <is>
+          <t>Fulda</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="256">
+      <c r="A256" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_184</t>
+        </is>
+      </c>
+      <c r="B256" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C256" s="4" t="inlineStr">
+        <is>
+          <t>Hersfeld-Rotenburg</t>
+        </is>
+      </c>
+      <c r="D256" s="4" t="inlineStr">
+        <is>
+          <t>Hersfeld-Rotenburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="257">
+      <c r="A257" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_185</t>
+        </is>
+      </c>
+      <c r="B257" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C257" s="4" t="inlineStr">
+        <is>
+          <t>Kassel</t>
+        </is>
+      </c>
+      <c r="D257" s="4" t="inlineStr">
+        <is>
+          <t>Kassel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="258">
+      <c r="A258" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_186</t>
+        </is>
+      </c>
+      <c r="B258" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C258" s="4" t="inlineStr">
+        <is>
+          <t>Schwalm-Eder-Kreis</t>
+        </is>
+      </c>
+      <c r="D258" s="4" t="inlineStr">
+        <is>
+          <t>Schwalm-Eder-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="259">
+      <c r="A259" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_187</t>
+        </is>
+      </c>
+      <c r="B259" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C259" s="4" t="inlineStr">
+        <is>
+          <t>Waldeck-Frankenberg</t>
+        </is>
+      </c>
+      <c r="D259" s="4" t="inlineStr">
+        <is>
+          <t>Waldeck-Frankenberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="260">
+      <c r="A260" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_188</t>
+        </is>
+      </c>
+      <c r="B260" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C260" s="4" t="inlineStr">
+        <is>
+          <t>Werra-Meißner-Kreis</t>
+        </is>
+      </c>
+      <c r="D260" s="4" t="inlineStr">
+        <is>
+          <t>Werra-Meißner-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="261">
+      <c r="A261" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_189</t>
+        </is>
+      </c>
+      <c r="B261" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C261" s="4" t="inlineStr">
+        <is>
+          <t>Rostock, Stadt</t>
+        </is>
+      </c>
+      <c r="D261" s="4" t="inlineStr">
+        <is>
+          <t>Rostock, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="262">
+      <c r="A262" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_190</t>
+        </is>
+      </c>
+      <c r="B262" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C262" s="4" t="inlineStr">
+        <is>
+          <t>Schwerin, Stadt</t>
+        </is>
+      </c>
+      <c r="D262" s="4" t="inlineStr">
+        <is>
+          <t>Schwerin, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="263">
+      <c r="A263" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_191</t>
+        </is>
+      </c>
+      <c r="B263" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C263" s="4" t="inlineStr">
+        <is>
+          <t>Mecklenburgische Seenplatte</t>
+        </is>
+      </c>
+      <c r="D263" s="4" t="inlineStr">
+        <is>
+          <t>Mecklenburgische Seenplatte</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="264">
+      <c r="A264" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_192</t>
+        </is>
+      </c>
+      <c r="B264" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C264" s="4" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="D264" s="4" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="265">
+      <c r="A265" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_193</t>
+        </is>
+      </c>
+      <c r="B265" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C265" s="4" t="inlineStr">
+        <is>
+          <t>Vorpommern-Rügen</t>
+        </is>
+      </c>
+      <c r="D265" s="4" t="inlineStr">
+        <is>
+          <t>Vorpommern-Rügen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="266">
+      <c r="A266" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_194</t>
+        </is>
+      </c>
+      <c r="B266" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C266" s="4" t="inlineStr">
+        <is>
+          <t>Nordwestmecklenburg</t>
+        </is>
+      </c>
+      <c r="D266" s="4" t="inlineStr">
+        <is>
+          <t>Nordwestmecklenburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="267">
+      <c r="A267" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_195</t>
+        </is>
+      </c>
+      <c r="B267" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C267" s="4" t="inlineStr">
+        <is>
+          <t>Vorpommern-Greifswald</t>
+        </is>
+      </c>
+      <c r="D267" s="4" t="inlineStr">
+        <is>
+          <t>Vorpommern-Greifswald</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="268">
+      <c r="A268" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_196</t>
+        </is>
+      </c>
+      <c r="B268" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C268" s="4" t="inlineStr">
+        <is>
+          <t>Ludwigslust-Parchim</t>
+        </is>
+      </c>
+      <c r="D268" s="4" t="inlineStr">
+        <is>
+          <t>Ludwigslust-Parchim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="269">
+      <c r="A269" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_197</t>
+        </is>
+      </c>
+      <c r="B269" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C269" s="4" t="inlineStr">
+        <is>
+          <t>Braunschweig, Stadt</t>
+        </is>
+      </c>
+      <c r="D269" s="4" t="inlineStr">
+        <is>
+          <t>Braunschweig, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="270">
+      <c r="A270" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_198</t>
+        </is>
+      </c>
+      <c r="B270" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C270" s="4" t="inlineStr">
+        <is>
+          <t>Salzgitter, Stadt</t>
+        </is>
+      </c>
+      <c r="D270" s="4" t="inlineStr">
+        <is>
+          <t>Salzgitter, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="271">
+      <c r="A271" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_199</t>
+        </is>
+      </c>
+      <c r="B271" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C271" s="4" t="inlineStr">
+        <is>
+          <t>Wolfsburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D271" s="4" t="inlineStr">
+        <is>
+          <t>Wolfsburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="272">
+      <c r="A272" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_200</t>
+        </is>
+      </c>
+      <c r="B272" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C272" s="4" t="inlineStr">
+        <is>
+          <t>Gifhorn</t>
+        </is>
+      </c>
+      <c r="D272" s="4" t="inlineStr">
+        <is>
+          <t>Gifhorn</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="273">
+      <c r="A273" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_201</t>
+        </is>
+      </c>
+      <c r="B273" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C273" s="4" t="inlineStr">
+        <is>
+          <t>Goslar</t>
+        </is>
+      </c>
+      <c r="D273" s="4" t="inlineStr">
+        <is>
+          <t>Goslar</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="274">
+      <c r="A274" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_202</t>
+        </is>
+      </c>
+      <c r="B274" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C274" s="4" t="inlineStr">
+        <is>
+          <t>Helmstedt</t>
+        </is>
+      </c>
+      <c r="D274" s="4" t="inlineStr">
+        <is>
+          <t>Helmstedt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="275">
+      <c r="A275" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_203</t>
+        </is>
+      </c>
+      <c r="B275" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C275" s="4" t="inlineStr">
+        <is>
+          <t>Northeim</t>
+        </is>
+      </c>
+      <c r="D275" s="4" t="inlineStr">
+        <is>
+          <t>Northeim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="276">
+      <c r="A276" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_204</t>
+        </is>
+      </c>
+      <c r="B276" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C276" s="4" t="inlineStr">
+        <is>
+          <t>Osterode am Harz</t>
+        </is>
+      </c>
+      <c r="D276" s="4" t="inlineStr">
+        <is>
+          <t>Osterode am Harz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="277">
+      <c r="A277" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_205</t>
+        </is>
+      </c>
+      <c r="B277" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C277" s="4" t="inlineStr">
+        <is>
+          <t>Peine</t>
+        </is>
+      </c>
+      <c r="D277" s="4" t="inlineStr">
+        <is>
+          <t>Peine</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="278">
+      <c r="A278" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_206</t>
+        </is>
+      </c>
+      <c r="B278" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C278" s="4" t="inlineStr">
+        <is>
+          <t>Wolfenbüttel</t>
+        </is>
+      </c>
+      <c r="D278" s="4" t="inlineStr">
+        <is>
+          <t>Wolfenbüttel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="279">
+      <c r="A279" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_207</t>
+        </is>
+      </c>
+      <c r="B279" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C279" s="4" t="inlineStr">
+        <is>
+          <t>Göttingen</t>
+        </is>
+      </c>
+      <c r="D279" s="4" t="inlineStr">
+        <is>
+          <t>Göttingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="280">
+      <c r="A280" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_208</t>
+        </is>
+      </c>
+      <c r="B280" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C280" s="4" t="inlineStr">
+        <is>
+          <t>Region Hannover</t>
+        </is>
+      </c>
+      <c r="D280" s="4" t="inlineStr">
+        <is>
+          <t>Region Hannover</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="281">
+      <c r="A281" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_209</t>
+        </is>
+      </c>
+      <c r="B281" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C281" s="4" t="inlineStr">
+        <is>
+          <t>Diepholz</t>
+        </is>
+      </c>
+      <c r="D281" s="4" t="inlineStr">
+        <is>
+          <t>Diepholz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="282">
+      <c r="A282" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_210</t>
+        </is>
+      </c>
+      <c r="B282" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C282" s="4" t="inlineStr">
+        <is>
+          <t>Hameln-Pyrmont</t>
+        </is>
+      </c>
+      <c r="D282" s="4" t="inlineStr">
+        <is>
+          <t>Hameln-Pyrmont</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="283">
+      <c r="A283" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_211</t>
+        </is>
+      </c>
+      <c r="B283" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C283" s="4" t="inlineStr">
+        <is>
+          <t>Hildesheim</t>
+        </is>
+      </c>
+      <c r="D283" s="4" t="inlineStr">
+        <is>
+          <t>Hildesheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="284">
+      <c r="A284" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_212</t>
+        </is>
+      </c>
+      <c r="B284" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C284" s="4" t="inlineStr">
+        <is>
+          <t>Holzminden</t>
+        </is>
+      </c>
+      <c r="D284" s="4" t="inlineStr">
+        <is>
+          <t>Holzminden</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="285">
+      <c r="A285" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_213</t>
+        </is>
+      </c>
+      <c r="B285" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C285" s="4" t="inlineStr">
+        <is>
+          <t>Nienburg (Weser)</t>
+        </is>
+      </c>
+      <c r="D285" s="4" t="inlineStr">
+        <is>
+          <t>Nienburg (Weser)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="286">
+      <c r="A286" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_214</t>
+        </is>
+      </c>
+      <c r="B286" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C286" s="4" t="inlineStr">
+        <is>
+          <t>Schaumburg</t>
+        </is>
+      </c>
+      <c r="D286" s="4" t="inlineStr">
+        <is>
+          <t>Schaumburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="287">
+      <c r="A287" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_215</t>
+        </is>
+      </c>
+      <c r="B287" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C287" s="4" t="inlineStr">
+        <is>
+          <t>Celle</t>
+        </is>
+      </c>
+      <c r="D287" s="4" t="inlineStr">
+        <is>
+          <t>Celle</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="288">
+      <c r="A288" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_216</t>
+        </is>
+      </c>
+      <c r="B288" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C288" s="4" t="inlineStr">
+        <is>
+          <t>Cuxhaven</t>
+        </is>
+      </c>
+      <c r="D288" s="4" t="inlineStr">
+        <is>
+          <t>Cuxhaven</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="289">
+      <c r="A289" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_217</t>
+        </is>
+      </c>
+      <c r="B289" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C289" s="4" t="inlineStr">
+        <is>
+          <t>Harburg</t>
+        </is>
+      </c>
+      <c r="D289" s="4" t="inlineStr">
+        <is>
+          <t>Harburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="290">
+      <c r="A290" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_218</t>
+        </is>
+      </c>
+      <c r="B290" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C290" s="4" t="inlineStr">
+        <is>
+          <t>Lüchow-Dannenberg</t>
+        </is>
+      </c>
+      <c r="D290" s="4" t="inlineStr">
+        <is>
+          <t>Lüchow-Dannenberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="291">
+      <c r="A291" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_219</t>
+        </is>
+      </c>
+      <c r="B291" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C291" s="4" t="inlineStr">
+        <is>
+          <t>Lüneburg</t>
+        </is>
+      </c>
+      <c r="D291" s="4" t="inlineStr">
+        <is>
+          <t>Lüneburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="292">
+      <c r="A292" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_220</t>
+        </is>
+      </c>
+      <c r="B292" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C292" s="4" t="inlineStr">
+        <is>
+          <t>Osterholz</t>
+        </is>
+      </c>
+      <c r="D292" s="4" t="inlineStr">
+        <is>
+          <t>Osterholz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="293">
+      <c r="A293" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_221</t>
+        </is>
+      </c>
+      <c r="B293" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C293" s="4" t="inlineStr">
+        <is>
+          <t>Rotenburg (Wümme)</t>
+        </is>
+      </c>
+      <c r="D293" s="4" t="inlineStr">
+        <is>
+          <t>Rotenburg (Wümme)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="294">
+      <c r="A294" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_222</t>
+        </is>
+      </c>
+      <c r="B294" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C294" s="4" t="inlineStr">
+        <is>
+          <t>Heidekreis</t>
+        </is>
+      </c>
+      <c r="D294" s="4" t="inlineStr">
+        <is>
+          <t>Heidekreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="295">
+      <c r="A295" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_223</t>
+        </is>
+      </c>
+      <c r="B295" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C295" s="4" t="inlineStr">
+        <is>
+          <t>Stade</t>
+        </is>
+      </c>
+      <c r="D295" s="4" t="inlineStr">
+        <is>
+          <t>Stade</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="296">
+      <c r="A296" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_224</t>
+        </is>
+      </c>
+      <c r="B296" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C296" s="4" t="inlineStr">
+        <is>
+          <t>Uelzen</t>
+        </is>
+      </c>
+      <c r="D296" s="4" t="inlineStr">
+        <is>
+          <t>Uelzen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="297">
+      <c r="A297" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_225</t>
+        </is>
+      </c>
+      <c r="B297" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C297" s="4" t="inlineStr">
+        <is>
+          <t>Verden</t>
+        </is>
+      </c>
+      <c r="D297" s="4" t="inlineStr">
+        <is>
+          <t>Verden</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="298">
+      <c r="A298" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_226</t>
+        </is>
+      </c>
+      <c r="B298" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C298" s="4" t="inlineStr">
+        <is>
+          <t>Delmenhorst, Stadt</t>
+        </is>
+      </c>
+      <c r="D298" s="4" t="inlineStr">
+        <is>
+          <t>Delmenhorst, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="299">
+      <c r="A299" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_227</t>
+        </is>
+      </c>
+      <c r="B299" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C299" s="4" t="inlineStr">
+        <is>
+          <t>Emden, Stadt</t>
+        </is>
+      </c>
+      <c r="D299" s="4" t="inlineStr">
+        <is>
+          <t>Emden, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="300">
+      <c r="A300" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_228</t>
+        </is>
+      </c>
+      <c r="B300" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C300" s="4" t="inlineStr">
+        <is>
+          <t>Oldenburg (Oldenburg), Stadt</t>
+        </is>
+      </c>
+      <c r="D300" s="4" t="inlineStr">
+        <is>
+          <t>Oldenburg (Oldenburg), Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="301">
+      <c r="A301" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_229</t>
+        </is>
+      </c>
+      <c r="B301" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C301" s="4" t="inlineStr">
+        <is>
+          <t>Osnabrück, Stadt</t>
+        </is>
+      </c>
+      <c r="D301" s="4" t="inlineStr">
+        <is>
+          <t>Osnabrück, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="302">
+      <c r="A302" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_230</t>
+        </is>
+      </c>
+      <c r="B302" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C302" s="4" t="inlineStr">
+        <is>
+          <t>Wilhelmshaven, Stadt</t>
+        </is>
+      </c>
+      <c r="D302" s="4" t="inlineStr">
+        <is>
+          <t>Wilhelmshaven, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="303">
+      <c r="A303" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_231</t>
+        </is>
+      </c>
+      <c r="B303" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C303" s="4" t="inlineStr">
+        <is>
+          <t>Ammerland</t>
+        </is>
+      </c>
+      <c r="D303" s="4" t="inlineStr">
+        <is>
+          <t>Ammerland</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="304">
+      <c r="A304" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_232</t>
+        </is>
+      </c>
+      <c r="B304" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C304" s="4" t="inlineStr">
+        <is>
+          <t>Aurich</t>
+        </is>
+      </c>
+      <c r="D304" s="4" t="inlineStr">
+        <is>
+          <t>Aurich</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="305">
+      <c r="A305" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_233</t>
+        </is>
+      </c>
+      <c r="B305" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C305" s="4" t="inlineStr">
+        <is>
+          <t>Cloppenburg</t>
+        </is>
+      </c>
+      <c r="D305" s="4" t="inlineStr">
+        <is>
+          <t>Cloppenburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="306">
+      <c r="A306" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_234</t>
+        </is>
+      </c>
+      <c r="B306" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C306" s="4" t="inlineStr">
+        <is>
+          <t>Emsland</t>
+        </is>
+      </c>
+      <c r="D306" s="4" t="inlineStr">
+        <is>
+          <t>Emsland</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="307">
+      <c r="A307" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_235</t>
+        </is>
+      </c>
+      <c r="B307" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C307" s="4" t="inlineStr">
+        <is>
+          <t>Friesland</t>
+        </is>
+      </c>
+      <c r="D307" s="4" t="inlineStr">
+        <is>
+          <t>Friesland</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="308">
+      <c r="A308" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_236</t>
+        </is>
+      </c>
+      <c r="B308" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C308" s="4" t="inlineStr">
+        <is>
+          <t>Grafschaft Bentheim</t>
+        </is>
+      </c>
+      <c r="D308" s="4" t="inlineStr">
+        <is>
+          <t>Grafschaft Bentheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="309">
+      <c r="A309" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_237</t>
+        </is>
+      </c>
+      <c r="B309" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C309" s="4" t="inlineStr">
+        <is>
+          <t>Leer</t>
+        </is>
+      </c>
+      <c r="D309" s="4" t="inlineStr">
+        <is>
+          <t>Leer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="310">
+      <c r="A310" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_238</t>
+        </is>
+      </c>
+      <c r="B310" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C310" s="4" t="inlineStr">
+        <is>
+          <t>Oldenburg</t>
+        </is>
+      </c>
+      <c r="D310" s="4" t="inlineStr">
+        <is>
+          <t>Oldenburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="311">
+      <c r="A311" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_239</t>
+        </is>
+      </c>
+      <c r="B311" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C311" s="4" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="D311" s="4" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="312">
+      <c r="A312" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_240</t>
+        </is>
+      </c>
+      <c r="B312" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C312" s="4" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="D312" s="4" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="313">
+      <c r="A313" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_241</t>
+        </is>
+      </c>
+      <c r="B313" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C313" s="4" t="inlineStr">
+        <is>
+          <t>Wesermarsch</t>
+        </is>
+      </c>
+      <c r="D313" s="4" t="inlineStr">
+        <is>
+          <t>Wesermarsch</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="314">
+      <c r="A314" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_242</t>
+        </is>
+      </c>
+      <c r="B314" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C314" s="4" t="inlineStr">
+        <is>
+          <t>Wittmund</t>
+        </is>
+      </c>
+      <c r="D314" s="4" t="inlineStr">
+        <is>
+          <t>Wittmund</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="315">
+      <c r="A315" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_243</t>
+        </is>
+      </c>
+      <c r="B315" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C315" s="4" t="inlineStr">
+        <is>
+          <t>Düsseldorf, Stadt</t>
+        </is>
+      </c>
+      <c r="D315" s="4" t="inlineStr">
+        <is>
+          <t>Düsseldorf, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="316">
+      <c r="A316" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_244</t>
+        </is>
+      </c>
+      <c r="B316" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C316" s="4" t="inlineStr">
+        <is>
+          <t>Duisburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D316" s="4" t="inlineStr">
+        <is>
+          <t>Duisburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="317">
+      <c r="A317" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_245</t>
+        </is>
+      </c>
+      <c r="B317" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C317" s="4" t="inlineStr">
+        <is>
+          <t>Essen, Stadt</t>
+        </is>
+      </c>
+      <c r="D317" s="4" t="inlineStr">
+        <is>
+          <t>Essen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="318">
+      <c r="A318" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_246</t>
+        </is>
+      </c>
+      <c r="B318" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C318" s="4" t="inlineStr">
+        <is>
+          <t>Krefeld, Stadt</t>
+        </is>
+      </c>
+      <c r="D318" s="4" t="inlineStr">
+        <is>
+          <t>Krefeld, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="319">
+      <c r="A319" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_247</t>
+        </is>
+      </c>
+      <c r="B319" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C319" s="4" t="inlineStr">
+        <is>
+          <t>Mönchengladbach, Stadt</t>
+        </is>
+      </c>
+      <c r="D319" s="4" t="inlineStr">
+        <is>
+          <t>Mönchengladbach, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="320">
+      <c r="A320" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_248</t>
+        </is>
+      </c>
+      <c r="B320" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C320" s="4" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr, Stadt</t>
+        </is>
+      </c>
+      <c r="D320" s="4" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="321">
+      <c r="A321" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_249</t>
+        </is>
+      </c>
+      <c r="B321" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C321" s="4" t="inlineStr">
+        <is>
+          <t>Oberhausen, Stadt</t>
+        </is>
+      </c>
+      <c r="D321" s="4" t="inlineStr">
+        <is>
+          <t>Oberhausen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="322">
+      <c r="A322" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_250</t>
+        </is>
+      </c>
+      <c r="B322" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C322" s="4" t="inlineStr">
+        <is>
+          <t>Remscheid, Stadt</t>
+        </is>
+      </c>
+      <c r="D322" s="4" t="inlineStr">
+        <is>
+          <t>Remscheid, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="323">
+      <c r="A323" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_251</t>
+        </is>
+      </c>
+      <c r="B323" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C323" s="4" t="inlineStr">
+        <is>
+          <t>Solingen, Stadt</t>
+        </is>
+      </c>
+      <c r="D323" s="4" t="inlineStr">
+        <is>
+          <t>Solingen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="324">
+      <c r="A324" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_252</t>
+        </is>
+      </c>
+      <c r="B324" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C324" s="4" t="inlineStr">
+        <is>
+          <t>Wuppertal, Stadt</t>
+        </is>
+      </c>
+      <c r="D324" s="4" t="inlineStr">
+        <is>
+          <t>Wuppertal, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="325">
+      <c r="A325" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_253</t>
+        </is>
+      </c>
+      <c r="B325" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C325" s="4" t="inlineStr">
+        <is>
+          <t>Kleve</t>
+        </is>
+      </c>
+      <c r="D325" s="4" t="inlineStr">
+        <is>
+          <t>Kleve</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="326">
+      <c r="A326" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_254</t>
+        </is>
+      </c>
+      <c r="B326" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C326" s="4" t="inlineStr">
+        <is>
+          <t>Mettmann</t>
+        </is>
+      </c>
+      <c r="D326" s="4" t="inlineStr">
+        <is>
+          <t>Mettmann</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="327">
+      <c r="A327" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_255</t>
+        </is>
+      </c>
+      <c r="B327" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C327" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Kreis Neuss</t>
+        </is>
+      </c>
+      <c r="D327" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Kreis Neuss</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="328">
+      <c r="A328" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_256</t>
+        </is>
+      </c>
+      <c r="B328" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C328" s="4" t="inlineStr">
+        <is>
+          <t>Viersen</t>
+        </is>
+      </c>
+      <c r="D328" s="4" t="inlineStr">
+        <is>
+          <t>Viersen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="329">
+      <c r="A329" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_257</t>
+        </is>
+      </c>
+      <c r="B329" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C329" s="4" t="inlineStr">
+        <is>
+          <t>Wesel</t>
+        </is>
+      </c>
+      <c r="D329" s="4" t="inlineStr">
+        <is>
+          <t>Wesel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="330">
+      <c r="A330" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_258</t>
+        </is>
+      </c>
+      <c r="B330" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C330" s="4" t="inlineStr">
+        <is>
+          <t>Bonn, Stadt</t>
+        </is>
+      </c>
+      <c r="D330" s="4" t="inlineStr">
+        <is>
+          <t>Bonn, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="331">
+      <c r="A331" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_259</t>
+        </is>
+      </c>
+      <c r="B331" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C331" s="4" t="inlineStr">
+        <is>
+          <t>Köln, Stadt</t>
+        </is>
+      </c>
+      <c r="D331" s="4" t="inlineStr">
+        <is>
+          <t>Köln, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="332">
+      <c r="A332" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_260</t>
+        </is>
+      </c>
+      <c r="B332" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C332" s="4" t="inlineStr">
+        <is>
+          <t>Leverkusen, Stadt</t>
+        </is>
+      </c>
+      <c r="D332" s="4" t="inlineStr">
+        <is>
+          <t>Leverkusen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="333">
+      <c r="A333" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_261</t>
+        </is>
+      </c>
+      <c r="B333" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C333" s="4" t="inlineStr">
+        <is>
+          <t>Städteregion Aachen</t>
+        </is>
+      </c>
+      <c r="D333" s="4" t="inlineStr">
+        <is>
+          <t>Städteregion Aachen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="334">
+      <c r="A334" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_262</t>
+        </is>
+      </c>
+      <c r="B334" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C334" s="4" t="inlineStr">
+        <is>
+          <t>Düren</t>
+        </is>
+      </c>
+      <c r="D334" s="4" t="inlineStr">
+        <is>
+          <t>Düren</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="335">
+      <c r="A335" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_263</t>
+        </is>
+      </c>
+      <c r="B335" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C335" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Erft-Kreis</t>
+        </is>
+      </c>
+      <c r="D335" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Erft-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="336">
+      <c r="A336" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_264</t>
+        </is>
+      </c>
+      <c r="B336" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C336" s="4" t="inlineStr">
+        <is>
+          <t>Euskirchen</t>
+        </is>
+      </c>
+      <c r="D336" s="4" t="inlineStr">
+        <is>
+          <t>Euskirchen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="337">
+      <c r="A337" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_265</t>
+        </is>
+      </c>
+      <c r="B337" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C337" s="4" t="inlineStr">
+        <is>
+          <t>Heinsberg</t>
+        </is>
+      </c>
+      <c r="D337" s="4" t="inlineStr">
+        <is>
+          <t>Heinsberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="338">
+      <c r="A338" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_266</t>
+        </is>
+      </c>
+      <c r="B338" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C338" s="4" t="inlineStr">
+        <is>
+          <t>Oberbergischer Kreis</t>
+        </is>
+      </c>
+      <c r="D338" s="4" t="inlineStr">
+        <is>
+          <t>Oberbergischer Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="339">
+      <c r="A339" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_267</t>
+        </is>
+      </c>
+      <c r="B339" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C339" s="4" t="inlineStr">
+        <is>
+          <t>Rheinisch-Bergischer Kreis</t>
+        </is>
+      </c>
+      <c r="D339" s="4" t="inlineStr">
+        <is>
+          <t>Rheinisch-Bergischer Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="340">
+      <c r="A340" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_268</t>
+        </is>
+      </c>
+      <c r="B340" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C340" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Sieg-Kreis</t>
+        </is>
+      </c>
+      <c r="D340" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Sieg-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="341">
+      <c r="A341" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_269</t>
+        </is>
+      </c>
+      <c r="B341" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C341" s="4" t="inlineStr">
+        <is>
+          <t>Bottrop, Stadt</t>
+        </is>
+      </c>
+      <c r="D341" s="4" t="inlineStr">
+        <is>
+          <t>Bottrop, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="342">
+      <c r="A342" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_270</t>
+        </is>
+      </c>
+      <c r="B342" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C342" s="4" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen, Stadt</t>
+        </is>
+      </c>
+      <c r="D342" s="4" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="343">
+      <c r="A343" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_271</t>
+        </is>
+      </c>
+      <c r="B343" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C343" s="4" t="inlineStr">
+        <is>
+          <t>Münster, Stadt</t>
+        </is>
+      </c>
+      <c r="D343" s="4" t="inlineStr">
+        <is>
+          <t>Münster, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="344">
+      <c r="A344" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_272</t>
+        </is>
+      </c>
+      <c r="B344" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C344" s="4" t="inlineStr">
+        <is>
+          <t>Borken</t>
+        </is>
+      </c>
+      <c r="D344" s="4" t="inlineStr">
+        <is>
+          <t>Borken</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="345">
+      <c r="A345" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_273</t>
+        </is>
+      </c>
+      <c r="B345" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C345" s="4" t="inlineStr">
+        <is>
+          <t>Coesfeld</t>
+        </is>
+      </c>
+      <c r="D345" s="4" t="inlineStr">
+        <is>
+          <t>Coesfeld</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="346">
+      <c r="A346" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_274</t>
+        </is>
+      </c>
+      <c r="B346" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C346" s="4" t="inlineStr">
+        <is>
+          <t>Recklinghausen</t>
+        </is>
+      </c>
+      <c r="D346" s="4" t="inlineStr">
+        <is>
+          <t>Recklinghausen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="347">
+      <c r="A347" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_275</t>
+        </is>
+      </c>
+      <c r="B347" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C347" s="4" t="inlineStr">
+        <is>
+          <t>Steinfurt</t>
+        </is>
+      </c>
+      <c r="D347" s="4" t="inlineStr">
+        <is>
+          <t>Steinfurt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="348">
+      <c r="A348" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_276</t>
+        </is>
+      </c>
+      <c r="B348" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C348" s="4" t="inlineStr">
+        <is>
+          <t>Warendorf</t>
+        </is>
+      </c>
+      <c r="D348" s="4" t="inlineStr">
+        <is>
+          <t>Warendorf</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="349">
+      <c r="A349" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_277</t>
+        </is>
+      </c>
+      <c r="B349" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C349" s="4" t="inlineStr">
+        <is>
+          <t>Bielefeld, Stadt</t>
+        </is>
+      </c>
+      <c r="D349" s="4" t="inlineStr">
+        <is>
+          <t>Bielefeld, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="350">
+      <c r="A350" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_278</t>
+        </is>
+      </c>
+      <c r="B350" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C350" s="4" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="D350" s="4" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="351">
+      <c r="A351" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_279</t>
+        </is>
+      </c>
+      <c r="B351" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C351" s="4" t="inlineStr">
+        <is>
+          <t>Herford</t>
+        </is>
+      </c>
+      <c r="D351" s="4" t="inlineStr">
+        <is>
+          <t>Herford</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="352">
+      <c r="A352" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_280</t>
+        </is>
+      </c>
+      <c r="B352" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C352" s="4" t="inlineStr">
+        <is>
+          <t>Höxter</t>
+        </is>
+      </c>
+      <c r="D352" s="4" t="inlineStr">
+        <is>
+          <t>Höxter</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="353">
+      <c r="A353" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_281</t>
+        </is>
+      </c>
+      <c r="B353" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C353" s="4" t="inlineStr">
+        <is>
+          <t>Lippe</t>
+        </is>
+      </c>
+      <c r="D353" s="4" t="inlineStr">
+        <is>
+          <t>Lippe</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="354">
+      <c r="A354" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_282</t>
+        </is>
+      </c>
+      <c r="B354" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C354" s="4" t="inlineStr">
+        <is>
+          <t>Minden-Lübbecke</t>
+        </is>
+      </c>
+      <c r="D354" s="4" t="inlineStr">
+        <is>
+          <t>Minden-Lübbecke</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="355">
+      <c r="A355" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_283</t>
+        </is>
+      </c>
+      <c r="B355" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C355" s="4" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="D355" s="4" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="356">
+      <c r="A356" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_284</t>
+        </is>
+      </c>
+      <c r="B356" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C356" s="4" t="inlineStr">
+        <is>
+          <t>Bochum, Stadt</t>
+        </is>
+      </c>
+      <c r="D356" s="4" t="inlineStr">
+        <is>
+          <t>Bochum, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="357">
+      <c r="A357" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_285</t>
+        </is>
+      </c>
+      <c r="B357" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C357" s="4" t="inlineStr">
+        <is>
+          <t>Dortmund, Stadt</t>
+        </is>
+      </c>
+      <c r="D357" s="4" t="inlineStr">
+        <is>
+          <t>Dortmund, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="358">
+      <c r="A358" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_286</t>
+        </is>
+      </c>
+      <c r="B358" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C358" s="4" t="inlineStr">
+        <is>
+          <t>Hagen, Stadt</t>
+        </is>
+      </c>
+      <c r="D358" s="4" t="inlineStr">
+        <is>
+          <t>Hagen, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="359">
+      <c r="A359" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_287</t>
+        </is>
+      </c>
+      <c r="B359" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C359" s="4" t="inlineStr">
+        <is>
+          <t>Hamm, Stadt</t>
+        </is>
+      </c>
+      <c r="D359" s="4" t="inlineStr">
+        <is>
+          <t>Hamm, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="360">
+      <c r="A360" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_288</t>
+        </is>
+      </c>
+      <c r="B360" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C360" s="4" t="inlineStr">
+        <is>
+          <t>Herne, Stadt</t>
+        </is>
+      </c>
+      <c r="D360" s="4" t="inlineStr">
+        <is>
+          <t>Herne, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="361">
+      <c r="A361" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_289</t>
+        </is>
+      </c>
+      <c r="B361" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C361" s="4" t="inlineStr">
+        <is>
+          <t>Ennepe-Ruhr-Kreis</t>
+        </is>
+      </c>
+      <c r="D361" s="4" t="inlineStr">
+        <is>
+          <t>Ennepe-Ruhr-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="362">
+      <c r="A362" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_290</t>
+        </is>
+      </c>
+      <c r="B362" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C362" s="4" t="inlineStr">
+        <is>
+          <t>Hochsauerlandkreis</t>
+        </is>
+      </c>
+      <c r="D362" s="4" t="inlineStr">
+        <is>
+          <t>Hochsauerlandkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="363">
+      <c r="A363" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_291</t>
+        </is>
+      </c>
+      <c r="B363" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C363" s="4" t="inlineStr">
+        <is>
+          <t>Märkischer Kreis</t>
+        </is>
+      </c>
+      <c r="D363" s="4" t="inlineStr">
+        <is>
+          <t>Märkischer Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="364">
+      <c r="A364" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_292</t>
+        </is>
+      </c>
+      <c r="B364" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C364" s="4" t="inlineStr">
+        <is>
+          <t>Olpe</t>
+        </is>
+      </c>
+      <c r="D364" s="4" t="inlineStr">
+        <is>
+          <t>Olpe</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="365">
+      <c r="A365" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_293</t>
+        </is>
+      </c>
+      <c r="B365" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C365" s="4" t="inlineStr">
+        <is>
+          <t>Siegen-Wittgenstein</t>
+        </is>
+      </c>
+      <c r="D365" s="4" t="inlineStr">
+        <is>
+          <t>Siegen-Wittgenstein</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="366">
+      <c r="A366" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_294</t>
+        </is>
+      </c>
+      <c r="B366" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C366" s="4" t="inlineStr">
+        <is>
+          <t>Soest</t>
+        </is>
+      </c>
+      <c r="D366" s="4" t="inlineStr">
+        <is>
+          <t>Soest</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="367">
+      <c r="A367" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_295</t>
+        </is>
+      </c>
+      <c r="B367" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C367" s="4" t="inlineStr">
+        <is>
+          <t>Unna</t>
+        </is>
+      </c>
+      <c r="D367" s="4" t="inlineStr">
+        <is>
+          <t>Unna</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="368">
+      <c r="A368" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_296</t>
+        </is>
+      </c>
+      <c r="B368" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C368" s="4" t="inlineStr">
+        <is>
+          <t>Koblenz, Stadt</t>
+        </is>
+      </c>
+      <c r="D368" s="4" t="inlineStr">
+        <is>
+          <t>Koblenz, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="369">
+      <c r="A369" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_297</t>
+        </is>
+      </c>
+      <c r="B369" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C369" s="4" t="inlineStr">
+        <is>
+          <t>Ahrweiler</t>
+        </is>
+      </c>
+      <c r="D369" s="4" t="inlineStr">
+        <is>
+          <t>Ahrweiler</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="370">
+      <c r="A370" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_298</t>
+        </is>
+      </c>
+      <c r="B370" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C370" s="4" t="inlineStr">
+        <is>
+          <t>Altenkirchen (Westerwald)</t>
+        </is>
+      </c>
+      <c r="D370" s="4" t="inlineStr">
+        <is>
+          <t>Altenkirchen (Westerwald)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="371">
+      <c r="A371" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_299</t>
+        </is>
+      </c>
+      <c r="B371" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C371" s="4" t="inlineStr">
+        <is>
+          <t>Bad Kreuznach</t>
+        </is>
+      </c>
+      <c r="D371" s="4" t="inlineStr">
+        <is>
+          <t>Bad Kreuznach</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="372">
+      <c r="A372" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_300</t>
+        </is>
+      </c>
+      <c r="B372" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C372" s="4" t="inlineStr">
+        <is>
+          <t>Birkenfeld</t>
+        </is>
+      </c>
+      <c r="D372" s="4" t="inlineStr">
+        <is>
+          <t>Birkenfeld</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="373">
+      <c r="A373" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_301</t>
+        </is>
+      </c>
+      <c r="B373" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C373" s="4" t="inlineStr">
+        <is>
+          <t>Cochem-Zell</t>
+        </is>
+      </c>
+      <c r="D373" s="4" t="inlineStr">
+        <is>
+          <t>Cochem-Zell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="374">
+      <c r="A374" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_302</t>
+        </is>
+      </c>
+      <c r="B374" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C374" s="4" t="inlineStr">
+        <is>
+          <t>Mayen-Koblenz</t>
+        </is>
+      </c>
+      <c r="D374" s="4" t="inlineStr">
+        <is>
+          <t>Mayen-Koblenz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="375">
+      <c r="A375" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_303</t>
+        </is>
+      </c>
+      <c r="B375" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C375" s="4" t="inlineStr">
+        <is>
+          <t>Neuwied</t>
+        </is>
+      </c>
+      <c r="D375" s="4" t="inlineStr">
+        <is>
+          <t>Neuwied</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="376">
+      <c r="A376" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_304</t>
+        </is>
+      </c>
+      <c r="B376" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C376" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Hunsrück-Kreis</t>
+        </is>
+      </c>
+      <c r="D376" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Hunsrück-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="377">
+      <c r="A377" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_305</t>
+        </is>
+      </c>
+      <c r="B377" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C377" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Lahn-Kreis</t>
+        </is>
+      </c>
+      <c r="D377" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Lahn-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="378">
+      <c r="A378" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_306</t>
+        </is>
+      </c>
+      <c r="B378" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C378" s="4" t="inlineStr">
+        <is>
+          <t>Westerwaldkreis</t>
+        </is>
+      </c>
+      <c r="D378" s="4" t="inlineStr">
+        <is>
+          <t>Westerwaldkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="379">
+      <c r="A379" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_307</t>
+        </is>
+      </c>
+      <c r="B379" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C379" s="4" t="inlineStr">
+        <is>
+          <t>Trier, Stadt</t>
+        </is>
+      </c>
+      <c r="D379" s="4" t="inlineStr">
+        <is>
+          <t>Trier, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="380">
+      <c r="A380" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_308</t>
+        </is>
+      </c>
+      <c r="B380" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C380" s="4" t="inlineStr">
+        <is>
+          <t>Bernkastel-Wittlich</t>
+        </is>
+      </c>
+      <c r="D380" s="4" t="inlineStr">
+        <is>
+          <t>Bernkastel-Wittlich</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="381">
+      <c r="A381" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_309</t>
+        </is>
+      </c>
+      <c r="B381" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C381" s="4" t="inlineStr">
+        <is>
+          <t>Eifelkreis Bitburg-Prüm</t>
+        </is>
+      </c>
+      <c r="D381" s="4" t="inlineStr">
+        <is>
+          <t>Eifelkreis Bitburg-Prüm</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="382">
+      <c r="A382" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_310</t>
+        </is>
+      </c>
+      <c r="B382" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C382" s="4" t="inlineStr">
+        <is>
+          <t>Vulkaneifel</t>
+        </is>
+      </c>
+      <c r="D382" s="4" t="inlineStr">
+        <is>
+          <t>Vulkaneifel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="383">
+      <c r="A383" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_311</t>
+        </is>
+      </c>
+      <c r="B383" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C383" s="4" t="inlineStr">
+        <is>
+          <t>Trier-Saarburg</t>
+        </is>
+      </c>
+      <c r="D383" s="4" t="inlineStr">
+        <is>
+          <t>Trier-Saarburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="384">
+      <c r="A384" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_312</t>
+        </is>
+      </c>
+      <c r="B384" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C384" s="4" t="inlineStr">
+        <is>
+          <t>Frankenthal (Pfalz), Stadt</t>
+        </is>
+      </c>
+      <c r="D384" s="4" t="inlineStr">
+        <is>
+          <t>Frankenthal (Pfalz), Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="385">
+      <c r="A385" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_313</t>
+        </is>
+      </c>
+      <c r="B385" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C385" s="4" t="inlineStr">
+        <is>
+          <t>Kaiserslautern, Stadt</t>
+        </is>
+      </c>
+      <c r="D385" s="4" t="inlineStr">
+        <is>
+          <t>Kaiserslautern, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="386">
+      <c r="A386" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_314</t>
+        </is>
+      </c>
+      <c r="B386" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C386" s="4" t="inlineStr">
+        <is>
+          <t>Landau in der Pfalz, Stadt</t>
+        </is>
+      </c>
+      <c r="D386" s="4" t="inlineStr">
+        <is>
+          <t>Landau in der Pfalz, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="387">
+      <c r="A387" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_315</t>
+        </is>
+      </c>
+      <c r="B387" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C387" s="4" t="inlineStr">
+        <is>
+          <t>Ludwigshafen am Rhein, Stadt</t>
+        </is>
+      </c>
+      <c r="D387" s="4" t="inlineStr">
+        <is>
+          <t>Ludwigshafen am Rhein, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="388">
+      <c r="A388" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_316</t>
+        </is>
+      </c>
+      <c r="B388" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C388" s="4" t="inlineStr">
+        <is>
+          <t>Mainz, Stadt</t>
+        </is>
+      </c>
+      <c r="D388" s="4" t="inlineStr">
+        <is>
+          <t>Mainz, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="389">
+      <c r="A389" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_317</t>
+        </is>
+      </c>
+      <c r="B389" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C389" s="4" t="inlineStr">
+        <is>
+          <t>Neustadt an der Weinstraße, Stadt</t>
+        </is>
+      </c>
+      <c r="D389" s="4" t="inlineStr">
+        <is>
+          <t>Neustadt an der Weinstraße, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="390">
+      <c r="A390" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_318</t>
+        </is>
+      </c>
+      <c r="B390" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C390" s="4" t="inlineStr">
+        <is>
+          <t>Pirmasens, Stadt</t>
+        </is>
+      </c>
+      <c r="D390" s="4" t="inlineStr">
+        <is>
+          <t>Pirmasens, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="391">
+      <c r="A391" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_319</t>
+        </is>
+      </c>
+      <c r="B391" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C391" s="4" t="inlineStr">
+        <is>
+          <t>Speyer, Stadt</t>
+        </is>
+      </c>
+      <c r="D391" s="4" t="inlineStr">
+        <is>
+          <t>Speyer, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="392">
+      <c r="A392" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_320</t>
+        </is>
+      </c>
+      <c r="B392" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C392" s="4" t="inlineStr">
+        <is>
+          <t>Worms, Stadt</t>
+        </is>
+      </c>
+      <c r="D392" s="4" t="inlineStr">
+        <is>
+          <t>Worms, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="393">
+      <c r="A393" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_321</t>
+        </is>
+      </c>
+      <c r="B393" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C393" s="4" t="inlineStr">
+        <is>
+          <t>Zweibrücken, Stadt</t>
+        </is>
+      </c>
+      <c r="D393" s="4" t="inlineStr">
+        <is>
+          <t>Zweibrücken, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="394">
+      <c r="A394" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_322</t>
+        </is>
+      </c>
+      <c r="B394" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C394" s="4" t="inlineStr">
+        <is>
+          <t>Alzey-Worms</t>
+        </is>
+      </c>
+      <c r="D394" s="4" t="inlineStr">
+        <is>
+          <t>Alzey-Worms</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="395">
+      <c r="A395" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_323</t>
+        </is>
+      </c>
+      <c r="B395" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C395" s="4" t="inlineStr">
+        <is>
+          <t>Bad Dürkheim</t>
+        </is>
+      </c>
+      <c r="D395" s="4" t="inlineStr">
+        <is>
+          <t>Bad Dürkheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="396">
+      <c r="A396" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_324</t>
+        </is>
+      </c>
+      <c r="B396" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C396" s="4" t="inlineStr">
+        <is>
+          <t>Donnersbergkreis</t>
+        </is>
+      </c>
+      <c r="D396" s="4" t="inlineStr">
+        <is>
+          <t>Donnersbergkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="397">
+      <c r="A397" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_325</t>
+        </is>
+      </c>
+      <c r="B397" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C397" s="4" t="inlineStr">
+        <is>
+          <t>Germersheim</t>
+        </is>
+      </c>
+      <c r="D397" s="4" t="inlineStr">
+        <is>
+          <t>Germersheim</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="398">
+      <c r="A398" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_326</t>
+        </is>
+      </c>
+      <c r="B398" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C398" s="4" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="D398" s="4" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="399">
+      <c r="A399" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_327</t>
+        </is>
+      </c>
+      <c r="B399" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C399" s="4" t="inlineStr">
+        <is>
+          <t>Kusel</t>
+        </is>
+      </c>
+      <c r="D399" s="4" t="inlineStr">
+        <is>
+          <t>Kusel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="400">
+      <c r="A400" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_328</t>
+        </is>
+      </c>
+      <c r="B400" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C400" s="4" t="inlineStr">
+        <is>
+          <t>Südliche Weinstraße</t>
+        </is>
+      </c>
+      <c r="D400" s="4" t="inlineStr">
+        <is>
+          <t>Südliche Weinstraße</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="401">
+      <c r="A401" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_329</t>
+        </is>
+      </c>
+      <c r="B401" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C401" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Pfalz-Kreis</t>
+        </is>
+      </c>
+      <c r="D401" s="4" t="inlineStr">
+        <is>
+          <t>Rhein-Pfalz-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="402">
+      <c r="A402" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_330</t>
+        </is>
+      </c>
+      <c r="B402" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C402" s="4" t="inlineStr">
+        <is>
+          <t>Mainz-Bingen</t>
+        </is>
+      </c>
+      <c r="D402" s="4" t="inlineStr">
+        <is>
+          <t>Mainz-Bingen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="403">
+      <c r="A403" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_331</t>
+        </is>
+      </c>
+      <c r="B403" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C403" s="4" t="inlineStr">
+        <is>
+          <t>Südwestpfalz</t>
+        </is>
+      </c>
+      <c r="D403" s="4" t="inlineStr">
+        <is>
+          <t>Südwestpfalz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="404">
+      <c r="A404" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_332</t>
+        </is>
+      </c>
+      <c r="B404" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C404" s="4" t="inlineStr">
+        <is>
+          <t>Saarbrücken, Regionalverband</t>
+        </is>
+      </c>
+      <c r="D404" s="4" t="inlineStr">
+        <is>
+          <t>Saarbrücken, Regionalverband</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="405">
+      <c r="A405" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_333</t>
+        </is>
+      </c>
+      <c r="B405" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C405" s="4" t="inlineStr">
+        <is>
+          <t>Merzig-Wadern</t>
+        </is>
+      </c>
+      <c r="D405" s="4" t="inlineStr">
+        <is>
+          <t>Merzig-Wadern</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="406">
+      <c r="A406" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_334</t>
+        </is>
+      </c>
+      <c r="B406" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C406" s="4" t="inlineStr">
+        <is>
+          <t>Neunkirchen</t>
+        </is>
+      </c>
+      <c r="D406" s="4" t="inlineStr">
+        <is>
+          <t>Neunkirchen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="407">
+      <c r="A407" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_335</t>
+        </is>
+      </c>
+      <c r="B407" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C407" s="4" t="inlineStr">
+        <is>
+          <t>Saarlouis</t>
+        </is>
+      </c>
+      <c r="D407" s="4" t="inlineStr">
+        <is>
+          <t>Saarlouis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="408">
+      <c r="A408" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_336</t>
+        </is>
+      </c>
+      <c r="B408" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C408" s="4" t="inlineStr">
+        <is>
+          <t>Saarpfalz-Kreis</t>
+        </is>
+      </c>
+      <c r="D408" s="4" t="inlineStr">
+        <is>
+          <t>Saarpfalz-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="409">
+      <c r="A409" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_337</t>
+        </is>
+      </c>
+      <c r="B409" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C409" s="4" t="inlineStr">
+        <is>
+          <t>St. Wendel</t>
+        </is>
+      </c>
+      <c r="D409" s="4" t="inlineStr">
+        <is>
+          <t>St. Wendel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="410">
+      <c r="A410" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_338</t>
+        </is>
+      </c>
+      <c r="B410" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C410" s="4" t="inlineStr">
+        <is>
+          <t>Chemnitz, Stadt</t>
+        </is>
+      </c>
+      <c r="D410" s="4" t="inlineStr">
+        <is>
+          <t>Chemnitz, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="411">
+      <c r="A411" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_339</t>
+        </is>
+      </c>
+      <c r="B411" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C411" s="4" t="inlineStr">
+        <is>
+          <t>Erzgebirgskreis</t>
+        </is>
+      </c>
+      <c r="D411" s="4" t="inlineStr">
+        <is>
+          <t>Erzgebirgskreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="412">
+      <c r="A412" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_340</t>
+        </is>
+      </c>
+      <c r="B412" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C412" s="4" t="inlineStr">
+        <is>
+          <t>Mittelsachsen</t>
+        </is>
+      </c>
+      <c r="D412" s="4" t="inlineStr">
+        <is>
+          <t>Mittelsachsen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="413">
+      <c r="A413" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_341</t>
+        </is>
+      </c>
+      <c r="B413" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C413" s="4" t="inlineStr">
+        <is>
+          <t>Vogtlandkreis</t>
+        </is>
+      </c>
+      <c r="D413" s="4" t="inlineStr">
+        <is>
+          <t>Vogtlandkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="414">
+      <c r="A414" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_342</t>
+        </is>
+      </c>
+      <c r="B414" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C414" s="4" t="inlineStr">
+        <is>
+          <t>Zwickau</t>
+        </is>
+      </c>
+      <c r="D414" s="4" t="inlineStr">
+        <is>
+          <t>Zwickau</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="415">
+      <c r="A415" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_343</t>
+        </is>
+      </c>
+      <c r="B415" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C415" s="4" t="inlineStr">
+        <is>
+          <t>Dresden, Stadt</t>
+        </is>
+      </c>
+      <c r="D415" s="4" t="inlineStr">
+        <is>
+          <t>Dresden, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="416">
+      <c r="A416" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_344</t>
+        </is>
+      </c>
+      <c r="B416" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C416" s="4" t="inlineStr">
+        <is>
+          <t>Bautzen</t>
+        </is>
+      </c>
+      <c r="D416" s="4" t="inlineStr">
+        <is>
+          <t>Bautzen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="417">
+      <c r="A417" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_345</t>
+        </is>
+      </c>
+      <c r="B417" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C417" s="4" t="inlineStr">
+        <is>
+          <t>Görlitz</t>
+        </is>
+      </c>
+      <c r="D417" s="4" t="inlineStr">
+        <is>
+          <t>Görlitz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="418">
+      <c r="A418" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_346</t>
+        </is>
+      </c>
+      <c r="B418" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C418" s="4" t="inlineStr">
+        <is>
+          <t>Meißen</t>
+        </is>
+      </c>
+      <c r="D418" s="4" t="inlineStr">
+        <is>
+          <t>Meißen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="419">
+      <c r="A419" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_347</t>
+        </is>
+      </c>
+      <c r="B419" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C419" s="4" t="inlineStr">
+        <is>
+          <t>Sächsische Schweiz-Osterzgebirge</t>
+        </is>
+      </c>
+      <c r="D419" s="4" t="inlineStr">
+        <is>
+          <t>Sächsische Schweiz-Osterzgebirge</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="420">
+      <c r="A420" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_348</t>
+        </is>
+      </c>
+      <c r="B420" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C420" s="4" t="inlineStr">
+        <is>
+          <t>Leipzig, Stadt</t>
+        </is>
+      </c>
+      <c r="D420" s="4" t="inlineStr">
+        <is>
+          <t>Leipzig, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="421">
+      <c r="A421" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_349</t>
+        </is>
+      </c>
+      <c r="B421" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C421" s="4" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="D421" s="4" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="422">
+      <c r="A422" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_350</t>
+        </is>
+      </c>
+      <c r="B422" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C422" s="4" t="inlineStr">
+        <is>
+          <t>Nordsachsen</t>
+        </is>
+      </c>
+      <c r="D422" s="4" t="inlineStr">
+        <is>
+          <t>Nordsachsen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="423">
+      <c r="A423" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_351</t>
+        </is>
+      </c>
+      <c r="B423" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C423" s="4" t="inlineStr">
+        <is>
+          <t>Dessau-Roßlau, Stadt</t>
+        </is>
+      </c>
+      <c r="D423" s="4" t="inlineStr">
+        <is>
+          <t>Dessau-Roßlau, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="424">
+      <c r="A424" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_352</t>
+        </is>
+      </c>
+      <c r="B424" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C424" s="4" t="inlineStr">
+        <is>
+          <t>Halle (Saale), Stadt</t>
+        </is>
+      </c>
+      <c r="D424" s="4" t="inlineStr">
+        <is>
+          <t>Halle (Saale), Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="425">
+      <c r="A425" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_353</t>
+        </is>
+      </c>
+      <c r="B425" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C425" s="4" t="inlineStr">
+        <is>
+          <t>Magdeburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D425" s="4" t="inlineStr">
+        <is>
+          <t>Magdeburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="426">
+      <c r="A426" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_354</t>
+        </is>
+      </c>
+      <c r="B426" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C426" s="4" t="inlineStr">
+        <is>
+          <t>Altmarkkreis Salzwedel</t>
+        </is>
+      </c>
+      <c r="D426" s="4" t="inlineStr">
+        <is>
+          <t>Altmarkkreis Salzwedel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="427">
+      <c r="A427" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_355</t>
+        </is>
+      </c>
+      <c r="B427" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C427" s="4" t="inlineStr">
+        <is>
+          <t>Anhalt-Bitterfeld</t>
+        </is>
+      </c>
+      <c r="D427" s="4" t="inlineStr">
+        <is>
+          <t>Anhalt-Bitterfeld</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="428">
+      <c r="A428" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_356</t>
+        </is>
+      </c>
+      <c r="B428" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C428" s="4" t="inlineStr">
+        <is>
+          <t>Börde</t>
+        </is>
+      </c>
+      <c r="D428" s="4" t="inlineStr">
+        <is>
+          <t>Börde</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="429">
+      <c r="A429" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_357</t>
+        </is>
+      </c>
+      <c r="B429" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C429" s="4" t="inlineStr">
+        <is>
+          <t>Burgenlandkreis</t>
+        </is>
+      </c>
+      <c r="D429" s="4" t="inlineStr">
+        <is>
+          <t>Burgenlandkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="430">
+      <c r="A430" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_358</t>
+        </is>
+      </c>
+      <c r="B430" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C430" s="4" t="inlineStr">
+        <is>
+          <t>Harz</t>
+        </is>
+      </c>
+      <c r="D430" s="4" t="inlineStr">
+        <is>
+          <t>Harz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="431">
+      <c r="A431" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_359</t>
+        </is>
+      </c>
+      <c r="B431" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C431" s="4" t="inlineStr">
+        <is>
+          <t>Jerichower Land</t>
+        </is>
+      </c>
+      <c r="D431" s="4" t="inlineStr">
+        <is>
+          <t>Jerichower Land</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="432">
+      <c r="A432" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_360</t>
+        </is>
+      </c>
+      <c r="B432" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C432" s="4" t="inlineStr">
+        <is>
+          <t>Mansfeld-Südharz</t>
+        </is>
+      </c>
+      <c r="D432" s="4" t="inlineStr">
+        <is>
+          <t>Mansfeld-Südharz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="433">
+      <c r="A433" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_361</t>
+        </is>
+      </c>
+      <c r="B433" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C433" s="4" t="inlineStr">
+        <is>
+          <t>Saalekreis</t>
+        </is>
+      </c>
+      <c r="D433" s="4" t="inlineStr">
+        <is>
+          <t>Saalekreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="434">
+      <c r="A434" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_362</t>
+        </is>
+      </c>
+      <c r="B434" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C434" s="4" t="inlineStr">
+        <is>
+          <t>Salzlandkreis</t>
+        </is>
+      </c>
+      <c r="D434" s="4" t="inlineStr">
+        <is>
+          <t>Salzlandkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="435">
+      <c r="A435" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_363</t>
+        </is>
+      </c>
+      <c r="B435" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C435" s="4" t="inlineStr">
+        <is>
+          <t>Stendal</t>
+        </is>
+      </c>
+      <c r="D435" s="4" t="inlineStr">
+        <is>
+          <t>Stendal</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="436">
+      <c r="A436" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_364</t>
+        </is>
+      </c>
+      <c r="B436" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C436" s="4" t="inlineStr">
+        <is>
+          <t>Wittenberg</t>
+        </is>
+      </c>
+      <c r="D436" s="4" t="inlineStr">
+        <is>
+          <t>Wittenberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="437">
+      <c r="A437" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_365</t>
+        </is>
+      </c>
+      <c r="B437" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C437" s="4" t="inlineStr">
+        <is>
+          <t>Flensburg, Stadt</t>
+        </is>
+      </c>
+      <c r="D437" s="4" t="inlineStr">
+        <is>
+          <t>Flensburg, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="438">
+      <c r="A438" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_366</t>
+        </is>
+      </c>
+      <c r="B438" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C438" s="4" t="inlineStr">
+        <is>
+          <t>Kiel, Stadt</t>
+        </is>
+      </c>
+      <c r="D438" s="4" t="inlineStr">
+        <is>
+          <t>Kiel, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="439">
+      <c r="A439" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_367</t>
+        </is>
+      </c>
+      <c r="B439" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C439" s="4" t="inlineStr">
+        <is>
+          <t>Lübeck, Stadt</t>
+        </is>
+      </c>
+      <c r="D439" s="4" t="inlineStr">
+        <is>
+          <t>Lübeck, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="440">
+      <c r="A440" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_368</t>
+        </is>
+      </c>
+      <c r="B440" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C440" s="4" t="inlineStr">
+        <is>
+          <t>Neumünster, Stadt</t>
+        </is>
+      </c>
+      <c r="D440" s="4" t="inlineStr">
+        <is>
+          <t>Neumünster, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="441">
+      <c r="A441" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_369</t>
+        </is>
+      </c>
+      <c r="B441" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C441" s="4" t="inlineStr">
+        <is>
+          <t>Dithmarschen</t>
+        </is>
+      </c>
+      <c r="D441" s="4" t="inlineStr">
+        <is>
+          <t>Dithmarschen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="442">
+      <c r="A442" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_370</t>
+        </is>
+      </c>
+      <c r="B442" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C442" s="4" t="inlineStr">
+        <is>
+          <t>Herzogtum Lauenburg</t>
+        </is>
+      </c>
+      <c r="D442" s="4" t="inlineStr">
+        <is>
+          <t>Herzogtum Lauenburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="443">
+      <c r="A443" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_371</t>
+        </is>
+      </c>
+      <c r="B443" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C443" s="4" t="inlineStr">
+        <is>
+          <t>Nordfriesland</t>
+        </is>
+      </c>
+      <c r="D443" s="4" t="inlineStr">
+        <is>
+          <t>Nordfriesland</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="444">
+      <c r="A444" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_372</t>
+        </is>
+      </c>
+      <c r="B444" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C444" s="4" t="inlineStr">
+        <is>
+          <t>Ostholstein</t>
+        </is>
+      </c>
+      <c r="D444" s="4" t="inlineStr">
+        <is>
+          <t>Ostholstein</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="445">
+      <c r="A445" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_373</t>
+        </is>
+      </c>
+      <c r="B445" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C445" s="4" t="inlineStr">
+        <is>
+          <t>Pinneberg</t>
+        </is>
+      </c>
+      <c r="D445" s="4" t="inlineStr">
+        <is>
+          <t>Pinneberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="446">
+      <c r="A446" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_374</t>
+        </is>
+      </c>
+      <c r="B446" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C446" s="4" t="inlineStr">
+        <is>
+          <t>Plön</t>
+        </is>
+      </c>
+      <c r="D446" s="4" t="inlineStr">
+        <is>
+          <t>Plön</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="447">
+      <c r="A447" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_375</t>
+        </is>
+      </c>
+      <c r="B447" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C447" s="4" t="inlineStr">
+        <is>
+          <t>Rendsburg-Eckernförde</t>
+        </is>
+      </c>
+      <c r="D447" s="4" t="inlineStr">
+        <is>
+          <t>Rendsburg-Eckernförde</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="448">
+      <c r="A448" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_376</t>
+        </is>
+      </c>
+      <c r="B448" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C448" s="4" t="inlineStr">
+        <is>
+          <t>Schleswig-Flensburg</t>
+        </is>
+      </c>
+      <c r="D448" s="4" t="inlineStr">
+        <is>
+          <t>Schleswig-Flensburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="449">
+      <c r="A449" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_377</t>
+        </is>
+      </c>
+      <c r="B449" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C449" s="4" t="inlineStr">
+        <is>
+          <t>Segeberg</t>
+        </is>
+      </c>
+      <c r="D449" s="4" t="inlineStr">
+        <is>
+          <t>Segeberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="450">
+      <c r="A450" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_378</t>
+        </is>
+      </c>
+      <c r="B450" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C450" s="4" t="inlineStr">
+        <is>
+          <t>Steinburg</t>
+        </is>
+      </c>
+      <c r="D450" s="4" t="inlineStr">
+        <is>
+          <t>Steinburg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="451">
+      <c r="A451" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_379</t>
+        </is>
+      </c>
+      <c r="B451" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C451" s="4" t="inlineStr">
+        <is>
+          <t>Stormarn</t>
+        </is>
+      </c>
+      <c r="D451" s="4" t="inlineStr">
+        <is>
+          <t>Stormarn</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="452">
+      <c r="A452" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_380</t>
+        </is>
+      </c>
+      <c r="B452" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C452" s="4" t="inlineStr">
+        <is>
+          <t>Erfurt, Stadt</t>
+        </is>
+      </c>
+      <c r="D452" s="4" t="inlineStr">
+        <is>
+          <t>Erfurt, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="453">
+      <c r="A453" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_381</t>
+        </is>
+      </c>
+      <c r="B453" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C453" s="4" t="inlineStr">
+        <is>
+          <t>Gera, Stadt</t>
+        </is>
+      </c>
+      <c r="D453" s="4" t="inlineStr">
+        <is>
+          <t>Gera, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="454">
+      <c r="A454" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_382</t>
+        </is>
+      </c>
+      <c r="B454" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C454" s="4" t="inlineStr">
+        <is>
+          <t>Jena, Stadt</t>
+        </is>
+      </c>
+      <c r="D454" s="4" t="inlineStr">
+        <is>
+          <t>Jena, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="455">
+      <c r="A455" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_383</t>
+        </is>
+      </c>
+      <c r="B455" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C455" s="4" t="inlineStr">
+        <is>
+          <t>Suhl, Stadt</t>
+        </is>
+      </c>
+      <c r="D455" s="4" t="inlineStr">
+        <is>
+          <t>Suhl, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="456">
+      <c r="A456" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_384</t>
+        </is>
+      </c>
+      <c r="B456" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C456" s="4" t="inlineStr">
+        <is>
+          <t>Weimar, Stadt</t>
+        </is>
+      </c>
+      <c r="D456" s="4" t="inlineStr">
+        <is>
+          <t>Weimar, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="457">
+      <c r="A457" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_385</t>
+        </is>
+      </c>
+      <c r="B457" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C457" s="4" t="inlineStr">
+        <is>
+          <t>Eisenach, Stadt</t>
+        </is>
+      </c>
+      <c r="D457" s="4" t="inlineStr">
+        <is>
+          <t>Eisenach, Stadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="458">
+      <c r="A458" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_386</t>
+        </is>
+      </c>
+      <c r="B458" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C458" s="4" t="inlineStr">
+        <is>
+          <t>Eichsfeld</t>
+        </is>
+      </c>
+      <c r="D458" s="4" t="inlineStr">
+        <is>
+          <t>Eichsfeld</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="459">
+      <c r="A459" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_387</t>
+        </is>
+      </c>
+      <c r="B459" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C459" s="4" t="inlineStr">
+        <is>
+          <t>Nordhausen</t>
+        </is>
+      </c>
+      <c r="D459" s="4" t="inlineStr">
+        <is>
+          <t>Nordhausen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="460">
+      <c r="A460" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_388</t>
+        </is>
+      </c>
+      <c r="B460" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C460" s="4" t="inlineStr">
+        <is>
+          <t>Wartburgkreis</t>
+        </is>
+      </c>
+      <c r="D460" s="4" t="inlineStr">
+        <is>
+          <t>Wartburgkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="461">
+      <c r="A461" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_389</t>
+        </is>
+      </c>
+      <c r="B461" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C461" s="4" t="inlineStr">
+        <is>
+          <t>Unstrut-Hainich-Kreis</t>
+        </is>
+      </c>
+      <c r="D461" s="4" t="inlineStr">
+        <is>
+          <t>Unstrut-Hainich-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="462">
+      <c r="A462" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_390</t>
+        </is>
+      </c>
+      <c r="B462" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C462" s="4" t="inlineStr">
+        <is>
+          <t>Kyffhäuserkreis</t>
+        </is>
+      </c>
+      <c r="D462" s="4" t="inlineStr">
+        <is>
+          <t>Kyffhäuserkreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="463">
+      <c r="A463" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_391</t>
+        </is>
+      </c>
+      <c r="B463" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C463" s="4" t="inlineStr">
+        <is>
+          <t>Schmalkalden-Meiningen</t>
+        </is>
+      </c>
+      <c r="D463" s="4" t="inlineStr">
+        <is>
+          <t>Schmalkalden-Meiningen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="464">
+      <c r="A464" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_392</t>
+        </is>
+      </c>
+      <c r="B464" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C464" s="4" t="inlineStr">
+        <is>
+          <t>Gotha</t>
+        </is>
+      </c>
+      <c r="D464" s="4" t="inlineStr">
+        <is>
+          <t>Gotha</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="465">
+      <c r="A465" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_393</t>
+        </is>
+      </c>
+      <c r="B465" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C465" s="4" t="inlineStr">
+        <is>
+          <t>Sömmerda</t>
+        </is>
+      </c>
+      <c r="D465" s="4" t="inlineStr">
+        <is>
+          <t>Sömmerda</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="466">
+      <c r="A466" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_394</t>
+        </is>
+      </c>
+      <c r="B466" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C466" s="4" t="inlineStr">
+        <is>
+          <t>Hildburghausen</t>
+        </is>
+      </c>
+      <c r="D466" s="4" t="inlineStr">
+        <is>
+          <t>Hildburghausen</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="467">
+      <c r="A467" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_395</t>
+        </is>
+      </c>
+      <c r="B467" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C467" s="4" t="inlineStr">
+        <is>
+          <t>Ilm-Kreis</t>
+        </is>
+      </c>
+      <c r="D467" s="4" t="inlineStr">
+        <is>
+          <t>Ilm-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="468">
+      <c r="A468" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_396</t>
+        </is>
+      </c>
+      <c r="B468" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C468" s="4" t="inlineStr">
+        <is>
+          <t>Weimarer Land</t>
+        </is>
+      </c>
+      <c r="D468" s="4" t="inlineStr">
+        <is>
+          <t>Weimarer Land</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="469">
+      <c r="A469" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_397</t>
+        </is>
+      </c>
+      <c r="B469" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C469" s="4" t="inlineStr">
+        <is>
+          <t>Sonneberg</t>
+        </is>
+      </c>
+      <c r="D469" s="4" t="inlineStr">
+        <is>
+          <t>Sonneberg</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="470">
+      <c r="A470" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_398</t>
+        </is>
+      </c>
+      <c r="B470" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C470" s="4" t="inlineStr">
+        <is>
+          <t>Saalfeld-Rudolstadt</t>
+        </is>
+      </c>
+      <c r="D470" s="4" t="inlineStr">
+        <is>
+          <t>Saalfeld-Rudolstadt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="471">
+      <c r="A471" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_399</t>
+        </is>
+      </c>
+      <c r="B471" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C471" s="4" t="inlineStr">
+        <is>
+          <t>Saale-Holzland-Kreis</t>
+        </is>
+      </c>
+      <c r="D471" s="4" t="inlineStr">
+        <is>
+          <t>Saale-Holzland-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="472">
+      <c r="A472" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_400</t>
+        </is>
+      </c>
+      <c r="B472" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C472" s="4" t="inlineStr">
+        <is>
+          <t>Saale-Orla-Kreis</t>
+        </is>
+      </c>
+      <c r="D472" s="4" t="inlineStr">
+        <is>
+          <t>Saale-Orla-Kreis</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="473">
+      <c r="A473" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_401</t>
+        </is>
+      </c>
+      <c r="B473" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C473" s="4" t="inlineStr">
+        <is>
+          <t>Greiz</t>
+        </is>
+      </c>
+      <c r="D473" s="4" t="inlineStr">
+        <is>
+          <t>Greiz</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="474">
+      <c r="A474" s="4" t="inlineStr">
+        <is>
+          <t>A_KREIS_402</t>
+        </is>
+      </c>
+      <c r="B474" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="C474" s="4" t="inlineStr">
+        <is>
+          <t>Altenburger Land</t>
+        </is>
+      </c>
+      <c r="D474" s="4" t="inlineStr">
+        <is>
+          <t>Altenburger Land</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -445,7 +445,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="25.046875"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
-    <col customWidth="true" min="3" max="3" width="33.10546875"/>
+    <col customWidth="true" min="3" max="3" width="71.77734375"/>
     <col customWidth="true" min="4" max="4" width="70.60546875"/>
   </cols>
   <sheetData>
@@ -11163,6 +11163,314 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="488">
+      <c r="A488" s="4" t="inlineStr">
+        <is>
+          <t>A_TYPEAREA_TRANSPORT</t>
+        </is>
+      </c>
+      <c r="B488" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C488" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="D488" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsfläche</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="489">
+      <c r="A489" s="4" t="inlineStr">
+        <is>
+          <t>A_TYPEAREA_SETTLEMEN</t>
+        </is>
+      </c>
+      <c r="B489" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C489" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsfläche (bebaut)</t>
+        </is>
+      </c>
+      <c r="D489" s="4" t="inlineStr">
+        <is>
+          <t>Settlement area (built on)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="490">
+      <c r="A490" s="4" t="inlineStr">
+        <is>
+          <t>A_TYPEAREA_RECREATIO</t>
+        </is>
+      </c>
+      <c r="B490" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C490" s="4" t="inlineStr">
+        <is>
+          <t>Erholungsfläche, Friedhof</t>
+        </is>
+      </c>
+      <c r="D490" s="4" t="inlineStr">
+        <is>
+          <t>Recreation area, cemetery</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="491">
+      <c r="A491" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_FINENTRANS</t>
+        </is>
+      </c>
+      <c r="B491" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C491" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
+        </is>
+      </c>
+      <c r="D491" s="4" t="inlineStr">
+        <is>
+          <t>Final energy consumption for the transport of goods</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="492">
+      <c r="A492" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_GOODSTRANS</t>
+        </is>
+      </c>
+      <c r="B492" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C492" s="4" t="inlineStr">
+        <is>
+          <t>Güterbeförderungsleistung</t>
+        </is>
+      </c>
+      <c r="D492" s="4" t="inlineStr">
+        <is>
+          <t>Goods transport performance</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="493">
+      <c r="A493" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ENCONSPTK</t>
+        </is>
+      </c>
+      <c r="B493" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C493" s="4" t="inlineStr">
+        <is>
+          <t>Energieverbrauch je Tonnenkilometer</t>
+        </is>
+      </c>
+      <c r="D493" s="4" t="inlineStr">
+        <is>
+          <t>Energy consumption per tonne-kilometre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="494">
+      <c r="A494" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_PASSTRANS</t>
+        </is>
+      </c>
+      <c r="B494" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C494" s="4" t="inlineStr">
+        <is>
+          <t>Personenbeförderungsleistung</t>
+        </is>
+      </c>
+      <c r="D494" s="4" t="inlineStr">
+        <is>
+          <t>Passenger transport performance</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="495">
+      <c r="A495" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ENPERPK</t>
+        </is>
+      </c>
+      <c r="B495" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C495" s="4" t="inlineStr">
+        <is>
+          <t>Energieverbrauch je Personenkilometer</t>
+        </is>
+      </c>
+      <c r="D495" s="4" t="inlineStr">
+        <is>
+          <t>Energy consumption per passenger-kilometre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="496">
+      <c r="A496" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ENINPASSTRA</t>
+        </is>
+      </c>
+      <c r="B496" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C496" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieverbrauch im Personenverkehr</t>
+        </is>
+      </c>
+      <c r="D496" s="4" t="inlineStr">
+        <is>
+          <t>Energy consumption in passenger transport</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="497">
+      <c r="A497" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_4YAVERAGE</t>
+        </is>
+      </c>
+      <c r="B497" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C497" s="4" t="inlineStr">
+        <is>
+          <t>Gleitender Vierjahresdurchschnitt</t>
+        </is>
+      </c>
+      <c r="D497" s="4" t="inlineStr">
+        <is>
+          <t>Moving four-year average</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="498">
+      <c r="A498" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_YEARINQUEST</t>
+        </is>
+      </c>
+      <c r="B498" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C498" s="4" t="inlineStr">
+        <is>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+        </is>
+      </c>
+      <c r="D498" s="4" t="inlineStr">
+        <is>
+          <t>For the medium-sized and major cities of the year in question</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="499">
+      <c r="A499" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_YEAR2012</t>
+        </is>
+      </c>
+      <c r="B499" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C499" s="4" t="inlineStr">
+        <is>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+        </is>
+      </c>
+      <c r="D499" s="4" t="inlineStr">
+        <is>
+          <t>For the medium-sized and major cities of 2012</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="500">
+      <c r="A500" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_TOTALOBJ</t>
+        </is>
+      </c>
+      <c r="B500" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C500" s="4" t="inlineStr">
+        <is>
+          <t>Objekte insgesamt</t>
+        </is>
+      </c>
+      <c r="D500" s="4" t="inlineStr">
+        <is>
+          <t>All objects</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="501">
+      <c r="A501" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_DIGITOBJ</t>
+        </is>
+      </c>
+      <c r="B501" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C501" s="4" t="inlineStr">
+        <is>
+          <t>Objekte mit Digitalisat</t>
+        </is>
+      </c>
+      <c r="D501" s="4" t="inlineStr">
+        <is>
+          <t>Objects with digitised media</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -445,7 +445,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="25.046875"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
-    <col customWidth="true" min="3" max="3" width="71.77734375"/>
+    <col customWidth="true" min="3" max="3" width="33.10546875"/>
     <col customWidth="true" min="4" max="4" width="70.60546875"/>
   </cols>
   <sheetData>
@@ -10528,7 +10528,7 @@
     <row outlineLevel="0" r="459">
       <c r="A459" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_5YAVERAGE</t>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="B459" s="4" t="inlineStr">
@@ -10538,19 +10538,19 @@
       </c>
       <c r="C459" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="D459" s="4" t="inlineStr">
         <is>
-          <t>Moving five-year average shown for each middle year</t>
+          <t>Moving four-year average</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="460">
       <c r="A460" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ALLTEC</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="B460" s="4" t="inlineStr">
@@ -10560,19 +10560,19 @@
       </c>
       <c r="C460" s="4" t="inlineStr">
         <is>
-          <t>Alle leitungsgebundenen Technologien</t>
+          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
         </is>
       </c>
       <c r="D460" s="4" t="inlineStr">
         <is>
-          <t>All wired technologies</t>
+          <t>Moving five-year average shown for each middle year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="461">
       <c r="A461" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ANNUALVAL</t>
+          <t>A_SERIES_ALLTEC</t>
         </is>
       </c>
       <c r="B461" s="4" t="inlineStr">
@@ -10582,19 +10582,19 @@
       </c>
       <c r="C461" s="4" t="inlineStr">
         <is>
-          <t>Berechnete jährliche Werte</t>
+          <t>Alle leitungsgebundenen Technologien</t>
         </is>
       </c>
       <c r="D461" s="4" t="inlineStr">
         <is>
-          <t>Calculated annual values</t>
+          <t>All wired technologies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="462">
       <c r="A462" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BMEL</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="B462" s="4" t="inlineStr">
@@ -10604,19 +10604,19 @@
       </c>
       <c r="C462" s="4" t="inlineStr">
         <is>
-          <t>Daten des BMEL</t>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="D462" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Ministry of Food and Agriculture</t>
+          <t>Calculated annual values</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="463">
       <c r="A463" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_CATV</t>
+          <t>A_SERIES_BMEL</t>
         </is>
       </c>
       <c r="B463" s="4" t="inlineStr">
@@ -10626,19 +10626,19 @@
       </c>
       <c r="C463" s="4" t="inlineStr">
         <is>
-          <t>Kabelfernsehen (CATV)</t>
+          <t>Daten des BMEL</t>
         </is>
       </c>
       <c r="D463" s="4" t="inlineStr">
         <is>
-          <t>Cable television (CATV)</t>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="464">
       <c r="A464" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COVID</t>
+          <t>A_SERIES_CATV</t>
         </is>
       </c>
       <c r="B464" s="4" t="inlineStr">
@@ -10648,19 +10648,19 @@
       </c>
       <c r="C464" s="4" t="inlineStr">
         <is>
-          <t>Eindämmung der COVID-19-Pandemie</t>
+          <t>Kabelfernsehen (CATV)</t>
         </is>
       </c>
       <c r="D464" s="4" t="inlineStr">
         <is>
-          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
+          <t>Cable television (CATV)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="465">
       <c r="A465" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t>A_SERIES_COVID</t>
         </is>
       </c>
       <c r="B465" s="4" t="inlineStr">
@@ -10670,19 +10670,19 @@
       </c>
       <c r="C465" s="4" t="inlineStr">
         <is>
-          <t>Daten des Statistischen Bundesamtes</t>
+          <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
       <c r="D465" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Statistical Office</t>
+          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="466">
       <c r="A466" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISP</t>
+          <t>A_SERIES_DIGITOBJ</t>
         </is>
       </c>
       <c r="B466" s="4" t="inlineStr">
@@ -10692,19 +10692,19 @@
       </c>
       <c r="C466" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
+          <t>Objekte mit Digitalisat</t>
         </is>
       </c>
       <c r="D466" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Objects with digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="467">
       <c r="A467" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISPBE</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B467" s="4" t="inlineStr">
@@ -10714,19 +10714,19 @@
       </c>
       <c r="C467" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D467" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="468">
       <c r="A468" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="B468" s="4" t="inlineStr">
@@ -10736,19 +10736,19 @@
       </c>
       <c r="C468" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und -absolventen</t>
+          <t>Energieverbrauch je Tonnenkilometer</t>
         </is>
       </c>
       <c r="D468" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Energy consumption per tonne-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="469">
       <c r="A469" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="B469" s="4" t="inlineStr">
@@ -10758,19 +10758,19 @@
       </c>
       <c r="C469" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="D469" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks (FTTB/H)</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="470">
       <c r="A470" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="B470" s="4" t="inlineStr">
@@ -10780,19 +10780,19 @@
       </c>
       <c r="C470" s="4" t="inlineStr">
         <is>
-          <t>Änderung des Bruttoinlandsprodukts (preisbereinigt)</t>
+          <t>Energieverbrauch je Personenkilometer</t>
         </is>
       </c>
       <c r="D470" s="4" t="inlineStr">
         <is>
-          <t>Change of gross domestic product (price-adjusted)</t>
+          <t>Energy consumption per passenger-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="471">
       <c r="A471" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_EQUALDISP</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
@@ -10802,19 +10802,19 @@
       </c>
       <c r="C471" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Schulabsolventinnen und -absolventen</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>German school graduates</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="472">
       <c r="A472" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_EQUALDISPBE</t>
         </is>
       </c>
       <c r="B472" s="4" t="inlineStr">
@@ -10824,19 +10824,19 @@
       </c>
       <c r="C472" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="473">
       <c r="A473" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B473" s="4" t="inlineStr">
@@ -10846,19 +10846,19 @@
       </c>
       <c r="C473" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="474">
       <c r="A474" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B474" s="4" t="inlineStr">
@@ -10868,19 +10868,19 @@
       </c>
       <c r="C474" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Ausländische Schulabsolventinnen und -absolventen</t>
         </is>
       </c>
       <c r="D474" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="475">
       <c r="A475" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B475" s="4" t="inlineStr">
@@ -10890,19 +10890,19 @@
       </c>
       <c r="C475" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D475" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>Fully fibre-optic networks (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="476">
       <c r="A476" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
@@ -10912,19 +10912,19 @@
       </c>
       <c r="C476" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>Änderung des Bruttoinlandsprodukts (preisbereinigt)</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>Change of gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="477">
       <c r="A477" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
@@ -10934,19 +10934,19 @@
       </c>
       <c r="C477" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Deutsche Schulabsolventinnen und -absolventen</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>German school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="478">
       <c r="A478" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
@@ -10956,19 +10956,19 @@
       </c>
       <c r="C478" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="479">
       <c r="A479" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
@@ -10978,19 +10978,19 @@
       </c>
       <c r="C479" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="480">
       <c r="A480" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
@@ -11000,19 +11000,19 @@
       </c>
       <c r="C480" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="481">
       <c r="A481" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
@@ -11022,217 +11022,217 @@
       </c>
       <c r="C481" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="482">
       <c r="A482" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C482" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="483">
       <c r="A483" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C483" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="484">
       <c r="A484" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C484" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="485">
       <c r="A485" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C485" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="486">
       <c r="A486" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C486" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D486" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="487">
       <c r="A487" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B487" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C487" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="488">
       <c r="A488" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C488" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="489">
       <c r="A489" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C489" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="490">
       <c r="A490" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C490" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="491">
       <c r="A491" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
@@ -11242,19 +11242,19 @@
       </c>
       <c r="C491" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="492">
       <c r="A492" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
@@ -11264,210 +11264,694 @@
       </c>
       <c r="C492" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="493">
       <c r="A493" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C493" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Tonnenkilometer</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per tonne-kilometre</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="494">
       <c r="A494" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B494" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C494" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="495">
       <c r="A495" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B495" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C495" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Personenkilometer</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D495" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per passenger-kilometre</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="496">
       <c r="A496" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B496" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C496" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D496" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="497">
       <c r="A497" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_4YAVERAGE</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C497" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Vierjahresdurchschnitt</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>Moving four-year average</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="498">
       <c r="A498" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B498" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C498" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D498" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="499">
       <c r="A499" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C499" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="500">
       <c r="A500" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_URBAN_NONRURAL</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="C500" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Nicht-ländliche Gebiete</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Non-rural areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="501">
       <c r="A501" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t>A_URBAN_RURAL</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
         <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C501" s="4" t="inlineStr">
+        <is>
+          <t>Ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D501" s="4" t="inlineStr">
+        <is>
+          <t>Rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="502">
+      <c r="A502" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_EMPLOYEES</t>
+        </is>
+      </c>
+      <c r="B502" s="4" t="inlineStr">
+        <is>
           <t>K_SERIES</t>
         </is>
       </c>
-      <c r="C501" s="4" t="inlineStr">
-        <is>
-          <t>Objekte mit Digitalisat</t>
-        </is>
-      </c>
-      <c r="D501" s="4" t="inlineStr">
-        <is>
-          <t>Objects with digitised media</t>
+      <c r="C502" s="4" t="inlineStr">
+        <is>
+          <t>Beschäftigte in Tausend</t>
+        </is>
+      </c>
+      <c r="D502" s="4" t="inlineStr">
+        <is>
+          <t>Employees in thousands</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="503">
+      <c r="A503" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_LOCATIONS</t>
+        </is>
+      </c>
+      <c r="B503" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C503" s="4" t="inlineStr">
+        <is>
+          <t>EMAS-Organisationsstandorte</t>
+        </is>
+      </c>
+      <c r="D503" s="4" t="inlineStr">
+        <is>
+          <t>Locations of organisation registered with EMAS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="504">
+      <c r="A504" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ORGANISAT</t>
+        </is>
+      </c>
+      <c r="B504" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C504" s="4" t="inlineStr">
+        <is>
+          <t>EMAS-Organisationen</t>
+        </is>
+      </c>
+      <c r="D504" s="4" t="inlineStr">
+        <is>
+          <t>EMAS organisations</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="505">
+      <c r="A505" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_COMMEXPL</t>
+        </is>
+      </c>
+      <c r="B505" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C505" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der nachhaltig bewirtschafteten Bestände an allen MSY-untersuchten Beständen</t>
+        </is>
+      </c>
+      <c r="D505" s="4" t="inlineStr">
+        <is>
+          <t>Share of commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="506">
+      <c r="A506" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_MSYEXAMINED</t>
+        </is>
+      </c>
+      <c r="B506" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C506" s="4" t="inlineStr">
+        <is>
+          <t>MSY-untersuchte an allen bewirtschafteten Beständen</t>
+        </is>
+      </c>
+      <c r="D506" s="4" t="inlineStr">
+        <is>
+          <t>Share of MSY examined in all managed stocks</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="507">
+      <c r="A507" s="4" t="inlineStr">
+        <is>
+          <t>A_SUBINDEX_FOREST</t>
+        </is>
+      </c>
+      <c r="B507" s="4" t="inlineStr">
+        <is>
+          <t>K_SUBINDEX</t>
+        </is>
+      </c>
+      <c r="C507" s="4" t="inlineStr">
+        <is>
+          <t>Teilindex Wälder</t>
+        </is>
+      </c>
+      <c r="D507" s="4" t="inlineStr">
+        <is>
+          <t>Forest sub-index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="508">
+      <c r="A508" s="4" t="inlineStr">
+        <is>
+          <t>A_SUBINDEX_SETTLEMNT</t>
+        </is>
+      </c>
+      <c r="B508" s="4" t="inlineStr">
+        <is>
+          <t>K_SUBINDEX</t>
+        </is>
+      </c>
+      <c r="C508" s="4" t="inlineStr">
+        <is>
+          <t>Teilindex Siedlungen</t>
+        </is>
+      </c>
+      <c r="D508" s="4" t="inlineStr">
+        <is>
+          <t>Settlements sub-index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="509">
+      <c r="A509" s="4" t="inlineStr">
+        <is>
+          <t>A_SUBINDEX_FARMLAND</t>
+        </is>
+      </c>
+      <c r="B509" s="4" t="inlineStr">
+        <is>
+          <t>K_SUBINDEX</t>
+        </is>
+      </c>
+      <c r="C509" s="4" t="inlineStr">
+        <is>
+          <t>Teilindex Agrarland</t>
+        </is>
+      </c>
+      <c r="D509" s="4" t="inlineStr">
+        <is>
+          <t>Farmland sub-index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="510">
+      <c r="A510" s="4" t="inlineStr">
+        <is>
+          <t>A_SUBINDEX_WATERS</t>
+        </is>
+      </c>
+      <c r="B510" s="4" t="inlineStr">
+        <is>
+          <t>K_SUBINDEX</t>
+        </is>
+      </c>
+      <c r="C510" s="4" t="inlineStr">
+        <is>
+          <t>Teilindex Binnengewässer</t>
+        </is>
+      </c>
+      <c r="D510" s="4" t="inlineStr">
+        <is>
+          <t>Inland waters sub-index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="511">
+      <c r="A511" s="4" t="inlineStr">
+        <is>
+          <t>A_SUBINDEX_COAST</t>
+        </is>
+      </c>
+      <c r="B511" s="4" t="inlineStr">
+        <is>
+          <t>K_SUBINDEX</t>
+        </is>
+      </c>
+      <c r="C511" s="4" t="inlineStr">
+        <is>
+          <t>Teilindex Küsten/Meere</t>
+        </is>
+      </c>
+      <c r="D511" s="4" t="inlineStr">
+        <is>
+          <t>Coasts and seas sub-index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="512">
+      <c r="A512" s="4" t="inlineStr">
+        <is>
+          <t>A_CRIMOFF_OTHER</t>
+        </is>
+      </c>
+      <c r="B512" s="4" t="inlineStr">
+        <is>
+          <t>K_CRIMOFF</t>
+        </is>
+      </c>
+      <c r="C512" s="4" t="inlineStr">
+        <is>
+          <t>Sonstige Straftaten</t>
+        </is>
+      </c>
+      <c r="D512" s="4" t="inlineStr">
+        <is>
+          <t>Other offences</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="513">
+      <c r="A513" s="4" t="inlineStr">
+        <is>
+          <t>A_CRIMOFF_BODYINJ</t>
+        </is>
+      </c>
+      <c r="B513" s="4" t="inlineStr">
+        <is>
+          <t>K_CRIMOFF</t>
+        </is>
+      </c>
+      <c r="C513" s="4" t="inlineStr">
+        <is>
+          <t>Gefährliche und schwere Körperverletzung</t>
+        </is>
+      </c>
+      <c r="D513" s="4" t="inlineStr">
+        <is>
+          <t>Dangerous and serious bodily injury</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="514">
+      <c r="A514" s="4" t="inlineStr">
+        <is>
+          <t>A_CRIMOFF_FRAUD</t>
+        </is>
+      </c>
+      <c r="B514" s="4" t="inlineStr">
+        <is>
+          <t>K_CRIMOFF</t>
+        </is>
+      </c>
+      <c r="C514" s="4" t="inlineStr">
+        <is>
+          <t>Betrug</t>
+        </is>
+      </c>
+      <c r="D514" s="4" t="inlineStr">
+        <is>
+          <t>Fraud</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="515">
+      <c r="A515" s="4" t="inlineStr">
+        <is>
+          <t>A_CRIMOFF_BURGL</t>
+        </is>
+      </c>
+      <c r="B515" s="4" t="inlineStr">
+        <is>
+          <t>K_CRIMOFF</t>
+        </is>
+      </c>
+      <c r="C515" s="4" t="inlineStr">
+        <is>
+          <t>Wohnungseinbruchsdiebstahl</t>
+        </is>
+      </c>
+      <c r="D515" s="4" t="inlineStr">
+        <is>
+          <t>Domestic burglary</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="516">
+      <c r="A516" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_NETEXP</t>
+        </is>
+      </c>
+      <c r="B516" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C516" s="4" t="inlineStr">
+        <is>
+          <t>Berechnung als Netto-Ausgabe</t>
+        </is>
+      </c>
+      <c r="D516" s="4" t="inlineStr">
+        <is>
+          <t>Calculated as net expenditure</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="517">
+      <c r="A517" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_GRANTEQU</t>
+        </is>
+      </c>
+      <c r="B517" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C517" s="4" t="inlineStr">
+        <is>
+          <t>Berechnung in Zuschussäquivalenten</t>
+        </is>
+      </c>
+      <c r="D517" s="4" t="inlineStr">
+        <is>
+          <t>Calculated in grant equivalents</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="518">
+      <c r="A518" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_STUDLDC</t>
+        </is>
+      </c>
+      <c r="B518" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C518" s="4" t="inlineStr">
+        <is>
+          <t>Studierende aus LDCs</t>
+        </is>
+      </c>
+      <c r="D518" s="4" t="inlineStr">
+        <is>
+          <t>Students from LDCs</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="519">
+      <c r="A519" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_STUDOTHER</t>
+        </is>
+      </c>
+      <c r="B519" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C519" s="4" t="inlineStr">
+        <is>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+        </is>
+      </c>
+      <c r="D519" s="4" t="inlineStr">
+        <is>
+          <t>Students from other developing and emerging countries</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="520">
+      <c r="A520" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_RESLDC</t>
+        </is>
+      </c>
+      <c r="B520" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C520" s="4" t="inlineStr">
+        <is>
+          <t>Forschende aus LDCs</t>
+        </is>
+      </c>
+      <c r="D520" s="4" t="inlineStr">
+        <is>
+          <t>Researchers from LDCs</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="521">
+      <c r="A521" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_RESOTHER</t>
+        </is>
+      </c>
+      <c r="B521" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C521" s="4" t="inlineStr">
+        <is>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+        </is>
+      </c>
+      <c r="D521" s="4" t="inlineStr">
+        <is>
+          <t>Researchers from other developing and emerging countries</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="522">
+      <c r="A522" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_PROCIMP</t>
+        </is>
+      </c>
+      <c r="B522" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C522" s="4" t="inlineStr">
+        <is>
+          <t>Einfuhren von weiterverarbeiteten Produkten aus LDCs</t>
+        </is>
+      </c>
+      <c r="D522" s="4" t="inlineStr">
+        <is>
+          <t>Imports of processed products from LDCs</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="523">
+      <c r="A523" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_IMP</t>
+        </is>
+      </c>
+      <c r="B523" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C523" s="4" t="inlineStr">
+        <is>
+          <t>Einfuhren aus LDCs</t>
+        </is>
+      </c>
+      <c r="D523" s="4" t="inlineStr">
+        <is>
+          <t>Imports from LDCs</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Eropäische Union</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
@@ -11000,12 +11000,12 @@
       </c>
       <c r="C480" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und -absolventen</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
@@ -11066,12 +11066,12 @@
       </c>
       <c r="C483" s="4" t="inlineStr">
         <is>
-          <t>Deutsche Schulabsolventinnen und -absolventen</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>German school graduates</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="C491" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte an Bestände allen bewirtschafteten Beständen</t>
+          <t>MSY-untersuchte Bestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D523"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -11952,6 +11952,28 @@
       <c r="D523" s="4" t="inlineStr">
         <is>
           <t>Rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="524">
+      <c r="A524" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_DIFFERENCE</t>
+        </is>
+      </c>
+      <c r="B524" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C524" s="4" t="inlineStr">
+        <is>
+          <t>Differenz</t>
+        </is>
+      </c>
+      <c r="D524" s="4" t="inlineStr">
+        <is>
+          <t>Difference</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -11313,7 +11313,7 @@
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -10792,7 +10792,7 @@
     <row outlineLevel="0" r="471">
       <c r="A471" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
@@ -10802,19 +10802,19 @@
       </c>
       <c r="C471" s="4" t="inlineStr">
         <is>
-          <t>Objekte mit Digitalisat</t>
+          <t>Differenz</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>Objects with digitised media</t>
+          <t>Difference</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="472">
       <c r="A472" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t>A_SERIES_DIGITOBJ</t>
         </is>
       </c>
       <c r="B472" s="4" t="inlineStr">
@@ -10824,19 +10824,19 @@
       </c>
       <c r="C472" s="4" t="inlineStr">
         <is>
-          <t>Daten des Statistischen Bundesamtes</t>
+          <t>Objekte mit Digitalisat</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Statistical Office</t>
+          <t>Objects with digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="473">
       <c r="A473" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B473" s="4" t="inlineStr">
@@ -10846,19 +10846,19 @@
       </c>
       <c r="C473" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS Organisationen</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
         <is>
-          <t>Employees in EMAS organisations</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="474">
       <c r="A474" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="B474" s="4" t="inlineStr">
@@ -10868,19 +10868,19 @@
       </c>
       <c r="C474" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Tonnenkilometer</t>
+          <t>Beschäftigte in EMAS Organisationen</t>
         </is>
       </c>
       <c r="D474" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per tonne-kilometre</t>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="475">
       <c r="A475" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="B475" s="4" t="inlineStr">
@@ -10890,19 +10890,19 @@
       </c>
       <c r="C475" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Energieverbrauch je Tonnenkilometer</t>
         </is>
       </c>
       <c r="D475" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Energy consumption per tonne-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="476">
       <c r="A476" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
@@ -10912,19 +10912,19 @@
       </c>
       <c r="C476" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Personenkilometer</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per passenger-kilometre</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="477">
       <c r="A477" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISP</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
@@ -10934,19 +10934,19 @@
       </c>
       <c r="C477" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
+          <t>Energieverbrauch je Personenkilometer</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Energy consumption per passenger-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="478">
       <c r="A478" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISPBE</t>
+          <t>A_SERIES_EQUALDISP</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
@@ -10956,19 +10956,19 @@
       </c>
       <c r="C478" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="479">
       <c r="A479" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_EQUALDISPBE</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
@@ -10978,19 +10978,19 @@
       </c>
       <c r="C479" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="480">
       <c r="A480" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
@@ -11000,19 +11000,19 @@
       </c>
       <c r="C480" s="4" t="inlineStr">
         <is>
-          <t>Ausländer</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>Foreigns</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="481">
       <c r="A481" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
@@ -11022,19 +11022,19 @@
       </c>
       <c r="C481" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks (FTTB/H)</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="482">
       <c r="A482" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
@@ -11044,19 +11044,19 @@
       </c>
       <c r="C482" s="4" t="inlineStr">
         <is>
-          <t>Änderung des Bruttoinlandsprodukts (preisbereinigt)</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>Change of gross domestic product (price-adjusted)</t>
+          <t>Fully fibre-optic networks (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="483">
       <c r="A483" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
@@ -11066,19 +11066,19 @@
       </c>
       <c r="C483" s="4" t="inlineStr">
         <is>
-          <t>Deutsche</t>
+          <t>Änderung des Bruttoinlandsprodukts (preisbereinigt)</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>Germans</t>
+          <t>Change of gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="484">
       <c r="A484" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
@@ -11088,19 +11088,19 @@
       </c>
       <c r="C484" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="485">
       <c r="A485" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GRANTEQU</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
@@ -11110,19 +11110,19 @@
       </c>
       <c r="C485" s="4" t="inlineStr">
         <is>
-          <t>Berechnung in Zuschussäquivalenten</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>Calculated in grant equivalents</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="486">
       <c r="A486" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_GRANTEQU</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
@@ -11132,19 +11132,19 @@
       </c>
       <c r="C486" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren aus LDCs</t>
+          <t>Berechnung in Zuschussäquivalenten</t>
         </is>
       </c>
       <c r="D486" s="4" t="inlineStr">
         <is>
-          <t>Imports from LDCs</t>
+          <t>Calculated in grant equivalents</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="487">
       <c r="A487" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="B487" s="4" t="inlineStr">
@@ -11154,19 +11154,19 @@
       </c>
       <c r="C487" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationsstandorte</t>
+          <t>Einfuhren aus LDCs</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t>Imports from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="488">
       <c r="A488" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
@@ -11176,19 +11176,19 @@
       </c>
       <c r="C488" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>EMAS-Organisationsstandorte</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="489">
       <c r="A489" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
@@ -11198,19 +11198,19 @@
       </c>
       <c r="C489" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="490">
       <c r="A490" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
@@ -11220,19 +11220,19 @@
       </c>
       <c r="C490" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="491">
       <c r="A491" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
@@ -11242,19 +11242,19 @@
       </c>
       <c r="C491" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Bestände an allen bewirtschafteten Beständen</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed stocks</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="492">
       <c r="A492" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_NETEXP</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
@@ -11264,19 +11264,19 @@
       </c>
       <c r="C492" s="4" t="inlineStr">
         <is>
-          <t>Berechnung als Netto-Ausgabe</t>
+          <t>MSY-untersuchte Bestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>Calculated as net expenditure</t>
+          <t>Share of MSY examined stocks in all managed stocks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="493">
       <c r="A493" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_NETEXP</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
@@ -11286,19 +11286,19 @@
       </c>
       <c r="C493" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Berechnung als Netto-Ausgabe</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>Calculated as net expenditure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="494">
       <c r="A494" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B494" s="4" t="inlineStr">
@@ -11308,19 +11308,19 @@
       </c>
       <c r="C494" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="495">
       <c r="A495" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="B495" s="4" t="inlineStr">
@@ -11330,19 +11330,19 @@
       </c>
       <c r="C495" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D495" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="496">
       <c r="A496" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B496" s="4" t="inlineStr">
@@ -11352,19 +11352,19 @@
       </c>
       <c r="C496" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D496" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="497">
       <c r="A497" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
@@ -11374,19 +11374,19 @@
       </c>
       <c r="C497" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="498">
       <c r="A498" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B498" s="4" t="inlineStr">
@@ -11396,19 +11396,19 @@
       </c>
       <c r="C498" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten aus LDCs</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D498" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products from LDCs</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="499">
       <c r="A499" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
@@ -11418,19 +11418,19 @@
       </c>
       <c r="C499" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten aus LDCs</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Imports of processed products from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="500">
       <c r="A500" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
@@ -11440,19 +11440,19 @@
       </c>
       <c r="C500" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="501">
       <c r="A501" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
@@ -11462,19 +11462,19 @@
       </c>
       <c r="C501" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="502">
       <c r="A502" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
@@ -11484,19 +11484,19 @@
       </c>
       <c r="C502" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="503">
       <c r="A503" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
@@ -11506,19 +11506,19 @@
       </c>
       <c r="C503" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="504">
       <c r="A504" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B504" s="4" t="inlineStr">
@@ -11528,19 +11528,19 @@
       </c>
       <c r="C504" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D504" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="505">
       <c r="A505" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B505" s="4" t="inlineStr">
@@ -11550,19 +11550,19 @@
       </c>
       <c r="C505" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D505" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="506">
       <c r="A506" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B506" s="4" t="inlineStr">
@@ -11572,19 +11572,19 @@
       </c>
       <c r="C506" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D506" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="507">
       <c r="A507" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
@@ -11594,19 +11594,19 @@
       </c>
       <c r="C507" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="508">
       <c r="A508" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
@@ -11616,19 +11616,19 @@
       </c>
       <c r="C508" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="509">
       <c r="A509" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
@@ -11638,41 +11638,41 @@
       </c>
       <c r="C509" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="510">
       <c r="A510" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C510" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="511">
       <c r="A511" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
@@ -11682,19 +11682,19 @@
       </c>
       <c r="C511" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="512">
       <c r="A512" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
@@ -11704,19 +11704,19 @@
       </c>
       <c r="C512" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="513">
       <c r="A513" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
@@ -11726,41 +11726,41 @@
       </c>
       <c r="C513" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="514">
       <c r="A514" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C514" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="515">
       <c r="A515" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
@@ -11770,19 +11770,19 @@
       </c>
       <c r="C515" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="516">
       <c r="A516" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
@@ -11792,19 +11792,19 @@
       </c>
       <c r="C516" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="517">
       <c r="A517" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
@@ -11814,19 +11814,19 @@
       </c>
       <c r="C517" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="518">
       <c r="A518" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
@@ -11836,41 +11836,41 @@
       </c>
       <c r="C518" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="519">
       <c r="A519" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C519" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="520">
       <c r="A520" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
@@ -11880,19 +11880,19 @@
       </c>
       <c r="C520" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="521">
       <c r="A521" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
@@ -11902,41 +11902,41 @@
       </c>
       <c r="C521" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C522" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="523">
       <c r="A523" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_URBAN_NONRURAL</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
@@ -11946,34 +11946,34 @@
       </c>
       <c r="C523" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Nicht-ländliche Gebiete</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Non-rural areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="524">
       <c r="A524" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t>A_URBAN_RURAL</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="C524" s="4" t="inlineStr">
         <is>
-          <t>Differenz</t>
+          <t>Ländliche Gebiete</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>Difference</t>
+          <t>Rural areas</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -11408,7 +11408,7 @@
     <row outlineLevel="0" r="499">
       <c r="A499" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_POSTSEC</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
@@ -11418,19 +11418,19 @@
       </c>
       <c r="C499" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten aus LDCs</t>
+          <t>Postsekundarer nicht-tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products from LDCs</t>
+          <t>With post-secondary non-tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="500">
       <c r="A500" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
@@ -11440,19 +11440,19 @@
       </c>
       <c r="C500" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten aus LDCs</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Imports of processed products from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="501">
       <c r="A501" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
@@ -11462,19 +11462,19 @@
       </c>
       <c r="C501" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="502">
       <c r="A502" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
@@ -11484,19 +11484,19 @@
       </c>
       <c r="C502" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="503">
       <c r="A503" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
@@ -11506,19 +11506,19 @@
       </c>
       <c r="C503" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="504">
       <c r="A504" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B504" s="4" t="inlineStr">
@@ -11528,19 +11528,19 @@
       </c>
       <c r="C504" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D504" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="505">
       <c r="A505" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B505" s="4" t="inlineStr">
@@ -11550,19 +11550,19 @@
       </c>
       <c r="C505" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D505" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="506">
       <c r="A506" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B506" s="4" t="inlineStr">
@@ -11572,19 +11572,19 @@
       </c>
       <c r="C506" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D506" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="507">
       <c r="A507" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
@@ -11594,19 +11594,19 @@
       </c>
       <c r="C507" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="508">
       <c r="A508" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
@@ -11616,19 +11616,19 @@
       </c>
       <c r="C508" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="509">
       <c r="A509" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
@@ -11638,19 +11638,19 @@
       </c>
       <c r="C509" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="510">
       <c r="A510" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
@@ -11660,41 +11660,41 @@
       </c>
       <c r="C510" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="511">
       <c r="A511" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C511" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="512">
       <c r="A512" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
@@ -11704,19 +11704,19 @@
       </c>
       <c r="C512" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="513">
       <c r="A513" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
@@ -11726,19 +11726,19 @@
       </c>
       <c r="C513" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="514">
       <c r="A514" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
@@ -11748,41 +11748,41 @@
       </c>
       <c r="C514" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="515">
       <c r="A515" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C515" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="516">
       <c r="A516" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
@@ -11792,19 +11792,19 @@
       </c>
       <c r="C516" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="517">
       <c r="A517" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
@@ -11814,19 +11814,19 @@
       </c>
       <c r="C517" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="518">
       <c r="A518" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
@@ -11836,19 +11836,19 @@
       </c>
       <c r="C518" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="519">
       <c r="A519" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
@@ -11858,41 +11858,41 @@
       </c>
       <c r="C519" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="520">
       <c r="A520" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C520" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="521">
       <c r="A521" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
@@ -11902,19 +11902,19 @@
       </c>
       <c r="C521" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
@@ -11924,54 +11924,76 @@
       </c>
       <c r="C522" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="523">
       <c r="A523" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C523" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="524">
       <c r="A524" s="4" t="inlineStr">
         <is>
+          <t>A_URBAN_NONRURAL</t>
+        </is>
+      </c>
+      <c r="B524" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C524" s="4" t="inlineStr">
+        <is>
+          <t>Nicht-ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D524" s="4" t="inlineStr">
+        <is>
+          <t>Non-rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="525">
+      <c r="A525" s="4" t="inlineStr">
+        <is>
           <t>A_URBAN_RURAL</t>
         </is>
       </c>
-      <c r="B524" s="4" t="inlineStr">
+      <c r="B525" s="4" t="inlineStr">
         <is>
           <t>K_URBAN</t>
         </is>
       </c>
-      <c r="C524" s="4" t="inlineStr">
+      <c r="C525" s="4" t="inlineStr">
         <is>
           <t>Ländliche Gebiete</t>
         </is>
       </c>
-      <c r="D524" s="4" t="inlineStr">
+      <c r="D525" s="4" t="inlineStr">
         <is>
           <t>Rural areas</t>
         </is>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D525"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -11999,6 +11999,28 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="526">
+      <c r="A526" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_WITHOUTDIGI</t>
+        </is>
+      </c>
+      <c r="B526" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C526" s="4" t="inlineStr">
+        <is>
+          <t>Objekte ohne Digitalisat</t>
+        </is>
+      </c>
+      <c r="D526" s="4" t="inlineStr">
+        <is>
+          <t>Objects without digitised media</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -11650,7 +11650,7 @@
     <row outlineLevel="0" r="510">
       <c r="A510" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_WITHOUTDIGI</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
@@ -11660,19 +11660,19 @@
       </c>
       <c r="C510" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Objekte ohne Digitalisat</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>Objects without digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="511">
       <c r="A511" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
@@ -11682,41 +11682,41 @@
       </c>
       <c r="C511" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="512">
       <c r="A512" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C512" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="513">
       <c r="A513" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
@@ -11726,19 +11726,19 @@
       </c>
       <c r="C513" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="514">
       <c r="A514" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
@@ -11748,19 +11748,19 @@
       </c>
       <c r="C514" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="515">
       <c r="A515" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
@@ -11770,41 +11770,41 @@
       </c>
       <c r="C515" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="516">
       <c r="A516" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C516" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="517">
       <c r="A517" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
@@ -11814,19 +11814,19 @@
       </c>
       <c r="C517" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="518">
       <c r="A518" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
@@ -11836,19 +11836,19 @@
       </c>
       <c r="C518" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="519">
       <c r="A519" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
@@ -11858,19 +11858,19 @@
       </c>
       <c r="C519" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="520">
       <c r="A520" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
@@ -11880,41 +11880,41 @@
       </c>
       <c r="C520" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="521">
       <c r="A521" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C521" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
@@ -11924,19 +11924,19 @@
       </c>
       <c r="C522" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="523">
       <c r="A523" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
@@ -11946,41 +11946,41 @@
       </c>
       <c r="C523" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="524">
       <c r="A524" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C524" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="525">
       <c r="A525" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_URBAN_NONRURAL</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
@@ -11990,34 +11990,34 @@
       </c>
       <c r="C525" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Nicht-ländliche Gebiete</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Non-rural areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="526">
       <c r="A526" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_URBAN_RURAL</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="C526" s="4" t="inlineStr">
         <is>
-          <t>Objekte ohne Digitalisat</t>
+          <t>Ländliche Gebiete</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>Objects without digitised media</t>
+          <t>Rural areas</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -445,7 +445,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="25.046875"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
-    <col customWidth="true" min="3" max="3" width="33.10546875"/>
+    <col customWidth="true" min="3" max="3" width="65.76953125"/>
     <col customWidth="true" min="4" max="4" width="70.60546875"/>
   </cols>
   <sheetData>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="D461" s="4" t="inlineStr">
         <is>
-          <t>Baltic sea</t>
+          <t>Baltic Sea</t>
         </is>
       </c>
     </row>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="D462" s="4" t="inlineStr">
         <is>
-          <t>Greater North Sea</t>
+          <t>North Sea</t>
         </is>
       </c>
     </row>
@@ -10758,12 +10758,12 @@
       </c>
       <c r="C469" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig bewirtschafteten Bestände an allen MSY-untersuchten Beständen</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="D469" s="4" t="inlineStr">
         <is>
-          <t>Share of commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
+          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
         </is>
       </c>
     </row>
@@ -11264,12 +11264,12 @@
       </c>
       <c r="C492" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Bestände an allen bewirtschafteten Beständen</t>
+          <t>MSY-untersuchte Bestände an allen bewirtschafteten Fischbeständen</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed stocks</t>
+          <t>Share of MSY examined stocks in all managed fish stocks</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Transport area</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -11264,7 +11264,7 @@
       </c>
       <c r="C492" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Bestände an allen bewirtschafteten Fischbeständen</t>
+          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -11122,12 +11122,12 @@
     <row outlineLevel="0" r="486">
       <c r="A486" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GRANTEQU</t>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="C486" s="4" t="inlineStr">
@@ -11154,12 +11154,12 @@
       </c>
       <c r="C487" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren aus LDCs</t>
+          <t>Einfuhren</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>Imports from LDCs</t>
+          <t>Imports</t>
         </is>
       </c>
     </row>
@@ -11276,12 +11276,12 @@
     <row outlineLevel="0" r="493">
       <c r="A493" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_NETEXP</t>
+          <t>A_CALCMETH_NETEXP</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="C493" s="4" t="inlineStr">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="C500" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten aus LDCs</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products from LDCs</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -11093,7 +11093,7 @@
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>Fully fibre-optic networks (FTTB/H)</t>
+          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="C476" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS Organisationen</t>
+          <t>Beschäftigte in EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
@@ -12018,6 +12018,50 @@
       <c r="D526" s="4" t="inlineStr">
         <is>
           <t>Rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="527">
+      <c r="A527" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_PREM_DTH_M</t>
+        </is>
+      </c>
+      <c r="B527" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C527" s="4" t="inlineStr">
+        <is>
+          <t>Vorzeitig Gestorbene (Männer)</t>
+        </is>
+      </c>
+      <c r="D527" s="4" t="inlineStr">
+        <is>
+          <t>Premature deaths (Men)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="528">
+      <c r="A528" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_PREM_DTH_F</t>
+        </is>
+      </c>
+      <c r="B528" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C528" s="4" t="inlineStr">
+        <is>
+          <t>Vorzeitig Gestorbene (Frauen)</t>
+        </is>
+      </c>
+      <c r="D528" s="4" t="inlineStr">
+        <is>
+          <t>Premature deaths (Women)</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D528"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -12021,50 +12021,6 @@
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="527">
-      <c r="A527" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_PREM_DTH_M</t>
-        </is>
-      </c>
-      <c r="B527" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="C527" s="4" t="inlineStr">
-        <is>
-          <t>Vorzeitig Gestorbene (Männer)</t>
-        </is>
-      </c>
-      <c r="D527" s="4" t="inlineStr">
-        <is>
-          <t>Premature deaths (Men)</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="528">
-      <c r="A528" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_PREM_DTH_F</t>
-        </is>
-      </c>
-      <c r="B528" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="C528" s="4" t="inlineStr">
-        <is>
-          <t>Vorzeitig Gestorbene (Frauen)</t>
-        </is>
-      </c>
-      <c r="D528" s="4" t="inlineStr">
-        <is>
-          <t>Premature deaths (Women)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -12021,6 +12021,50 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="527">
+      <c r="A527" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ADULTS</t>
+        </is>
+      </c>
+      <c r="B527" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C527" s="4" t="inlineStr">
+        <is>
+          <t>Erwachsene</t>
+        </is>
+      </c>
+      <c r="D527" s="4" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="528">
+      <c r="A528" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ADOLESCENTS</t>
+        </is>
+      </c>
+      <c r="B528" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C528" s="4" t="inlineStr">
+        <is>
+          <t>Jugendliche</t>
+        </is>
+      </c>
+      <c r="D528" s="4" t="inlineStr">
+        <is>
+          <t>Adolescents</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D528"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -10780,12 +10780,12 @@
       </c>
       <c r="C470" s="4" t="inlineStr">
         <is>
-          <t>Kabelfernsehen (CATV)</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
       <c r="D470" s="4" t="inlineStr">
         <is>
-          <t>Cable television (CATV)</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
     </row>
@@ -12018,50 +12018,6 @@
       <c r="D526" s="4" t="inlineStr">
         <is>
           <t>Rural areas</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="527">
-      <c r="A527" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_ADULTS</t>
-        </is>
-      </c>
-      <c r="B527" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="C527" s="4" t="inlineStr">
-        <is>
-          <t>Erwachsene</t>
-        </is>
-      </c>
-      <c r="D527" s="4" t="inlineStr">
-        <is>
-          <t>Adults</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="528">
-      <c r="A528" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_ADOLESCENTS</t>
-        </is>
-      </c>
-      <c r="B528" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="C528" s="4" t="inlineStr">
-        <is>
-          <t>Jugendliche</t>
-        </is>
-      </c>
-      <c r="D528" s="4" t="inlineStr">
-        <is>
-          <t>Adolescents</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -836,12 +836,12 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>60 bis unter 56 Jahre</t>
+          <t>60 bis unter 65 Jahre</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>60 to under 56 years</t>
+          <t>60 to under 65 years</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -10758,12 +10758,12 @@
       </c>
       <c r="C469" s="4" t="inlineStr">
         <is>
-          <t>DurchBehandlung vermeidbaren Sterblichkeit</t>
+          <t>Durch Behandlung vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D469" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mortality avoidable through treatment</t>
         </is>
       </c>
     </row>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mortality avoidable through prevention</t>
         </is>
       </c>
     </row>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mortality avoidable through prevention and treatment</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D529"/>
+  <dimension ref="A1:D535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -12087,6 +12087,138 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="530">
+      <c r="A530" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_HOCHSCHUL</t>
+        </is>
+      </c>
+      <c r="B530" s="4" t="inlineStr">
+        <is>
+          <t>K_QUALI</t>
+        </is>
+      </c>
+      <c r="C530" s="4" t="inlineStr">
+        <is>
+          <t>Hochschulabschlüsse</t>
+        </is>
+      </c>
+      <c r="D530" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="531">
+      <c r="A531" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_HOEHERQUAL</t>
+        </is>
+      </c>
+      <c r="B531" s="4" t="inlineStr">
+        <is>
+          <t>K_QUALI</t>
+        </is>
+      </c>
+      <c r="C531" s="4" t="inlineStr">
+        <is>
+          <t>Höherqualifizierende Berufsausbildung</t>
+        </is>
+      </c>
+      <c r="D531" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="532">
+      <c r="A532" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ZWEITAUSB</t>
+        </is>
+      </c>
+      <c r="B532" s="4" t="inlineStr">
+        <is>
+          <t>K_QUALI</t>
+        </is>
+      </c>
+      <c r="C532" s="4" t="inlineStr">
+        <is>
+          <t>Zweitausbildung, Ausbildung nach Abitur</t>
+        </is>
+      </c>
+      <c r="D532" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="533">
+      <c r="A533" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_ERSTAUSB</t>
+        </is>
+      </c>
+      <c r="B533" s="4" t="inlineStr">
+        <is>
+          <t>K_QUALI</t>
+        </is>
+      </c>
+      <c r="C533" s="4" t="inlineStr">
+        <is>
+          <t>Erstausbildung</t>
+        </is>
+      </c>
+      <c r="D533" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="534">
+      <c r="A534" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_FACHKR</t>
+        </is>
+      </c>
+      <c r="B534" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C534" s="4" t="inlineStr">
+        <is>
+          <t>Fachkräftepotenzial (insgesamt)</t>
+        </is>
+      </c>
+      <c r="D534" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="535">
+      <c r="A535" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_QUALIFZIERT</t>
+        </is>
+      </c>
+      <c r="B535" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="C535" s="4" t="inlineStr">
+        <is>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+        </is>
+      </c>
+      <c r="D535" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -11056,29 +11056,29 @@
     <row outlineLevel="0" r="483">
       <c r="A483" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_ERSTAUSB</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C483" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Erstausbildung</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="484">
       <c r="A484" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_FACHKR</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
@@ -11088,19 +11088,19 @@
       </c>
       <c r="C484" s="4" t="inlineStr">
         <is>
-          <t>Ausländer</t>
+          <t>Fachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>Foreigns</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="485">
       <c r="A485" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
@@ -11110,19 +11110,19 @@
       </c>
       <c r="C485" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="486">
       <c r="A486" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
@@ -11132,19 +11132,19 @@
       </c>
       <c r="C486" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D486" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product (price-adjusted)</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="487">
       <c r="A487" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B487" s="4" t="inlineStr">
@@ -11154,19 +11154,19 @@
       </c>
       <c r="C487" s="4" t="inlineStr">
         <is>
-          <t>Deutsche</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>Germans</t>
+          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="488">
       <c r="A488" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
@@ -11176,19 +11176,19 @@
       </c>
       <c r="C488" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>Gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="489">
       <c r="A489" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
@@ -11198,19 +11198,19 @@
       </c>
       <c r="C489" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>Imports</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="490">
       <c r="A490" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
@@ -11220,63 +11220,63 @@
       </c>
       <c r="C490" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationsstandorte</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="491">
       <c r="A491" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_HOCHSCHUL</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C491" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>Hochschulabschlüsse</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="492">
       <c r="A492" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_HOEHERQUAL</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C492" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Höherqualifizierende Berufsausbildung</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="493">
       <c r="A493" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
@@ -11286,19 +11286,19 @@
       </c>
       <c r="C493" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Einfuhren</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Imports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="494">
       <c r="A494" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="B494" s="4" t="inlineStr">
@@ -11308,19 +11308,19 @@
       </c>
       <c r="C494" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
+          <t>EMAS-Organisationsstandorte</t>
         </is>
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed fish stocks</t>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="495">
       <c r="A495" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B495" s="4" t="inlineStr">
@@ -11330,19 +11330,19 @@
       </c>
       <c r="C495" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D495" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="496">
       <c r="A496" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B496" s="4" t="inlineStr">
@@ -11352,19 +11352,19 @@
       </c>
       <c r="C496" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D496" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="497">
       <c r="A497" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
@@ -11374,19 +11374,19 @@
       </c>
       <c r="C497" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="498">
       <c r="A498" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="B498" s="4" t="inlineStr">
@@ -11396,19 +11396,19 @@
       </c>
       <c r="C498" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D498" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Share of MSY examined stocks in all managed fish stocks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="499">
       <c r="A499" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
@@ -11418,19 +11418,19 @@
       </c>
       <c r="C499" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="500">
       <c r="A500" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_POSTSEC</t>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
@@ -11440,19 +11440,19 @@
       </c>
       <c r="C500" s="4" t="inlineStr">
         <is>
-          <t>Postsekundarer nicht-tertiärer Abschluss</t>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>With post-secondary non-tertiary qualification</t>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="501">
       <c r="A501" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREV</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
@@ -11462,19 +11462,19 @@
       </c>
       <c r="C501" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="502">
       <c r="A502" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREVUNDBEH</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
@@ -11484,19 +11484,19 @@
       </c>
       <c r="C502" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention und Behandlung vermeidbaren Sterblichkeit</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention and treatment</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="503">
       <c r="A503" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
@@ -11506,19 +11506,19 @@
       </c>
       <c r="C503" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="504">
       <c r="A504" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_POSTSEC</t>
         </is>
       </c>
       <c r="B504" s="4" t="inlineStr">
@@ -11528,19 +11528,19 @@
       </c>
       <c r="C504" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Postsekundarer nicht-tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D504" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>With post-secondary non-tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="505">
       <c r="A505" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_PREV</t>
         </is>
       </c>
       <c r="B505" s="4" t="inlineStr">
@@ -11550,19 +11550,19 @@
       </c>
       <c r="C505" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D505" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Mortality avoidable through prevention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="506">
       <c r="A506" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_PREVUNDBEH</t>
         </is>
       </c>
       <c r="B506" s="4" t="inlineStr">
@@ -11572,19 +11572,19 @@
       </c>
       <c r="C506" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Durch Prävention und Behandlung vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D506" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>Mortality avoidable through prevention and treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="507">
       <c r="A507" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
@@ -11594,19 +11594,19 @@
       </c>
       <c r="C507" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="508">
       <c r="A508" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_QUALIFZIERT</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
@@ -11616,19 +11616,19 @@
       </c>
       <c r="C508" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="509">
       <c r="A509" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
@@ -11638,19 +11638,19 @@
       </c>
       <c r="C509" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="510">
       <c r="A510" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
@@ -11660,19 +11660,19 @@
       </c>
       <c r="C510" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="511">
       <c r="A511" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
@@ -11682,19 +11682,19 @@
       </c>
       <c r="C511" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="512">
       <c r="A512" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
@@ -11704,19 +11704,19 @@
       </c>
       <c r="C512" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="513">
       <c r="A513" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
@@ -11726,19 +11726,19 @@
       </c>
       <c r="C513" s="4" t="inlineStr">
         <is>
-          <t>Objekte ohne Digitalisat</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>Objects without digitised media</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="514">
       <c r="A514" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
@@ -11748,19 +11748,19 @@
       </c>
       <c r="C514" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="515">
       <c r="A515" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
@@ -11770,452 +11770,452 @@
       </c>
       <c r="C515" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="516">
       <c r="A516" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C516" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="517">
       <c r="A517" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C517" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="518">
       <c r="A518" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SERIES_WITHOUTDIGI</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C518" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Objekte ohne Digitalisat</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Objects without digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="519">
       <c r="A519" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C519" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="520">
       <c r="A520" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C520" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="521">
       <c r="A521" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SERIES_ZWEITAUSB</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C521" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Zweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C522" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="523">
       <c r="A523" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C523" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="524">
       <c r="A524" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C524" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="525">
       <c r="A525" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C525" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="526">
       <c r="A526" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C526" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="527">
       <c r="A527" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C527" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>Transport area</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="528">
       <c r="A528" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B528" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C528" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D528" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="529">
       <c r="A529" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B529" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C529" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D529" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="530">
       <c r="A530" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOCHSCHUL</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B530" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C530" s="4" t="inlineStr">
         <is>
-          <t>Hochschulabschlüsse</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D530" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="531">
       <c r="A531" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOEHERQUAL</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B531" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C531" s="4" t="inlineStr">
         <is>
-          <t>Höherqualifizierende Berufsausbildung</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D531" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="532">
       <c r="A532" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ZWEITAUSB</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B532" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C532" s="4" t="inlineStr">
         <is>
-          <t>Zweitausbildung, Ausbildung nach Abitur</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D532" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="533">
       <c r="A533" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ERSTAUSB</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B533" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C533" s="4" t="inlineStr">
         <is>
-          <t>Erstausbildung</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D533" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="534">
       <c r="A534" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FACHKR</t>
+          <t>A_URBAN_NONRURAL</t>
         </is>
       </c>
       <c r="B534" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="C534" s="4" t="inlineStr">
         <is>
-          <t>Fachkräftepotenzial (insgesamt)</t>
+          <t>Nicht-ländliche Gebiete</t>
         </is>
       </c>
       <c r="D534" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Non-rural areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="535">
       <c r="A535" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_QUALIFZIERT</t>
+          <t>A_URBAN_RURAL</t>
         </is>
       </c>
       <c r="B535" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="C535" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Ländliche Gebiete</t>
         </is>
       </c>
       <c r="D535" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Rural areas</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D535"/>
+  <dimension ref="A1:D539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -10616,139 +10616,139 @@
     <row outlineLevel="0" r="463">
       <c r="A463" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_B</t>
+          <t>A_RISIKO_0</t>
         </is>
       </c>
       <c r="B463" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="C463" s="4" t="inlineStr">
         <is>
-          <t>Ostsee</t>
+          <t>Keine Risikolage</t>
         </is>
       </c>
       <c r="D463" s="4" t="inlineStr">
         <is>
-          <t>Baltic Sea</t>
+          <t>XXXKeine Risikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="464">
       <c r="A464" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_N</t>
+          <t>A_RISIKO_1</t>
         </is>
       </c>
       <c r="B464" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="C464" s="4" t="inlineStr">
         <is>
-          <t>Nordsee</t>
+          <t>Mindestens eine Risikolage</t>
         </is>
       </c>
       <c r="D464" s="4" t="inlineStr">
         <is>
-          <t>North Sea</t>
+          <t>XXXMindestens eine Risikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="465">
       <c r="A465" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_4YAVERAGE</t>
+          <t>A_RISIKO_ALL</t>
         </is>
       </c>
       <c r="B465" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="C465" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Vierjahresdurchschnitt</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D465" s="4" t="inlineStr">
         <is>
-          <t>Moving four-year average</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="466">
       <c r="A466" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_5YAVERAGE</t>
+          <t>A_RISIKO_DIFF</t>
         </is>
       </c>
       <c r="B466" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="C466" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
+          <t>Differenz zwischen "Keine Risikolage" und "Mind. eine Risikolage"</t>
         </is>
       </c>
       <c r="D466" s="4" t="inlineStr">
         <is>
-          <t>Moving five-year average shown for each middle year</t>
+          <t>XXXDifferenz zwischen "Keine Risikolage" und "Mind. eine Risikolage"</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="467">
       <c r="A467" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ALLTEC</t>
+          <t>A_SEA_B</t>
         </is>
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C467" s="4" t="inlineStr">
         <is>
-          <t>Alle leitungsgebundenen Technologien</t>
+          <t>Ostsee</t>
         </is>
       </c>
       <c r="D467" s="4" t="inlineStr">
         <is>
-          <t>All wired technologies</t>
+          <t>Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="468">
       <c r="A468" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ANNUALVAL</t>
+          <t>A_SEA_N</t>
         </is>
       </c>
       <c r="B468" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C468" s="4" t="inlineStr">
         <is>
-          <t>Berechnete jährliche Werte</t>
+          <t>Nordsee</t>
         </is>
       </c>
       <c r="D468" s="4" t="inlineStr">
         <is>
-          <t>Calculated annual values</t>
+          <t>North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="469">
       <c r="A469" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BEH</t>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="B469" s="4" t="inlineStr">
@@ -10758,19 +10758,19 @@
       </c>
       <c r="C469" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung vermeidbaren Sterblichkeit</t>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="D469" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through treatment</t>
+          <t>Moving four-year average</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="470">
       <c r="A470" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BMEL</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="B470" s="4" t="inlineStr">
@@ -10780,19 +10780,19 @@
       </c>
       <c r="C470" s="4" t="inlineStr">
         <is>
-          <t>Daten des BMEL</t>
+          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
         </is>
       </c>
       <c r="D470" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Ministry of Food and Agriculture</t>
+          <t>Moving five-year average shown for each middle year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="471">
       <c r="A471" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_CATV</t>
+          <t>A_SERIES_ALLTEC</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
@@ -10802,19 +10802,19 @@
       </c>
       <c r="C471" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Alle leitungsgebundenen Technologien</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>All wired technologies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="472">
       <c r="A472" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="B472" s="4" t="inlineStr">
@@ -10824,19 +10824,19 @@
       </c>
       <c r="C472" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
         <is>
-          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
+          <t>Calculated annual values</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="473">
       <c r="A473" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COVID</t>
+          <t>A_SERIES_BEH</t>
         </is>
       </c>
       <c r="B473" s="4" t="inlineStr">
@@ -10846,19 +10846,19 @@
       </c>
       <c r="C473" s="4" t="inlineStr">
         <is>
-          <t>Eindämmung der COVID-19-Pandemie</t>
+          <t>Durch Behandlung vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
         <is>
-          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
+          <t>Mortality avoidable through treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="474">
       <c r="A474" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t>A_SERIES_BMEL</t>
         </is>
       </c>
       <c r="B474" s="4" t="inlineStr">
@@ -10868,19 +10868,19 @@
       </c>
       <c r="C474" s="4" t="inlineStr">
         <is>
-          <t>Differenz</t>
+          <t>Daten des BMEL</t>
         </is>
       </c>
       <c r="D474" s="4" t="inlineStr">
         <is>
-          <t>Difference</t>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="475">
       <c r="A475" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t>A_SERIES_CATV</t>
         </is>
       </c>
       <c r="B475" s="4" t="inlineStr">
@@ -10890,19 +10890,19 @@
       </c>
       <c r="C475" s="4" t="inlineStr">
         <is>
-          <t>Objekte mit Digitalisat</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
       <c r="D475" s="4" t="inlineStr">
         <is>
-          <t>Objects with digitised media</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="476">
       <c r="A476" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
@@ -10912,19 +10912,19 @@
       </c>
       <c r="C476" s="4" t="inlineStr">
         <is>
-          <t>Daten des Statistischen Bundesamtes</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Statistical Office</t>
+          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="477">
       <c r="A477" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t>A_SERIES_COVID</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
@@ -10934,19 +10934,19 @@
       </c>
       <c r="C477" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS-Organisationen</t>
+          <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>Employees in EMAS organisations</t>
+          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="478">
       <c r="A478" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
@@ -10956,19 +10956,19 @@
       </c>
       <c r="C478" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Tonnenkilometer</t>
+          <t>Differenz</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per tonne-kilometre</t>
+          <t>Difference</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="479">
       <c r="A479" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SERIES_DIGITOBJ</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
@@ -10978,19 +10978,19 @@
       </c>
       <c r="C479" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Objekte mit Digitalisat</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Objects with digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="480">
       <c r="A480" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
@@ -11000,19 +11000,19 @@
       </c>
       <c r="C480" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Personenkilometer</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per passenger-kilometre</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="481">
       <c r="A481" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISP</t>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
@@ -11022,19 +11022,19 @@
       </c>
       <c r="C481" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
+          <t>Beschäftigte in EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="482">
       <c r="A482" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISPBE</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
@@ -11044,41 +11044,41 @@
       </c>
       <c r="C482" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
+          <t>Energieverbrauch je Tonnenkilometer</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>Energy consumption per tonne-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="483">
       <c r="A483" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ERSTAUSB</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C483" s="4" t="inlineStr">
         <is>
-          <t>Erstausbildung</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>XXXErstausbildung</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="484">
       <c r="A484" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FACHKR</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
@@ -11088,19 +11088,19 @@
       </c>
       <c r="C484" s="4" t="inlineStr">
         <is>
-          <t>Fachkräftepotenzial (insgesamt)</t>
+          <t>Energieverbrauch je Personenkilometer</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>XXXFachkräftepotenzial (insgesamt)</t>
+          <t>Energy consumption per passenger-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="485">
       <c r="A485" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_EQUALDISP</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
@@ -11110,19 +11110,19 @@
       </c>
       <c r="C485" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="486">
       <c r="A486" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_EQUALDISPBE</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
@@ -11132,41 +11132,41 @@
       </c>
       <c r="C486" s="4" t="inlineStr">
         <is>
-          <t>Ausländer</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
         </is>
       </c>
       <c r="D486" s="4" t="inlineStr">
         <is>
-          <t>Foreigns</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="487">
       <c r="A487" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_ERSTAUSB</t>
         </is>
       </c>
       <c r="B487" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C487" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>Erstausbildung</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
+          <t>XXXErstausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="488">
       <c r="A488" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_FACHKR</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
@@ -11176,19 +11176,19 @@
       </c>
       <c r="C488" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
+          <t>Fachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product (price-adjusted)</t>
+          <t>XXXFachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="489">
       <c r="A489" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
@@ -11198,19 +11198,19 @@
       </c>
       <c r="C489" s="4" t="inlineStr">
         <is>
-          <t>Deutsche</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>Germans</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="490">
       <c r="A490" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
@@ -11220,63 +11220,63 @@
       </c>
       <c r="C490" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="491">
       <c r="A491" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOCHSCHUL</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C491" s="4" t="inlineStr">
         <is>
-          <t>Hochschulabschlüsse</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulabschlüsse</t>
+          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="492">
       <c r="A492" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOEHERQUAL</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C492" s="4" t="inlineStr">
         <is>
-          <t>Höherqualifizierende Berufsausbildung</t>
+          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>XXXHöherqualifizierende Berufsausbildung</t>
+          <t>Gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="493">
       <c r="A493" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
@@ -11286,19 +11286,19 @@
       </c>
       <c r="C493" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>Imports</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="494">
       <c r="A494" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B494" s="4" t="inlineStr">
@@ -11308,63 +11308,63 @@
       </c>
       <c r="C494" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationsstandorte</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="495">
       <c r="A495" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_HOCHSCHUL</t>
         </is>
       </c>
       <c r="B495" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C495" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>Hochschulabschlüsse</t>
         </is>
       </c>
       <c r="D495" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>XXXHochschulabschlüsse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="496">
       <c r="A496" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_HOEHERQUAL</t>
         </is>
       </c>
       <c r="B496" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C496" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Höherqualifizierende Berufsausbildung</t>
         </is>
       </c>
       <c r="D496" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>XXXHöherqualifizierende Berufsausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="497">
       <c r="A497" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
@@ -11374,19 +11374,19 @@
       </c>
       <c r="C497" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Einfuhren</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Imports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="498">
       <c r="A498" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="B498" s="4" t="inlineStr">
@@ -11396,19 +11396,19 @@
       </c>
       <c r="C498" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
+          <t>EMAS-Organisationsstandorte</t>
         </is>
       </c>
       <c r="D498" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed fish stocks</t>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="499">
       <c r="A499" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
@@ -11418,19 +11418,19 @@
       </c>
       <c r="C499" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="500">
       <c r="A500" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
@@ -11440,19 +11440,19 @@
       </c>
       <c r="C500" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="501">
       <c r="A501" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
@@ -11462,19 +11462,19 @@
       </c>
       <c r="C501" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="502">
       <c r="A502" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
@@ -11484,19 +11484,19 @@
       </c>
       <c r="C502" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Share of MSY examined stocks in all managed fish stocks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="503">
       <c r="A503" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
@@ -11506,19 +11506,19 @@
       </c>
       <c r="C503" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="504">
       <c r="A504" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_POSTSEC</t>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="B504" s="4" t="inlineStr">
@@ -11528,19 +11528,19 @@
       </c>
       <c r="C504" s="4" t="inlineStr">
         <is>
-          <t>Postsekundarer nicht-tertiärer Abschluss</t>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D504" s="4" t="inlineStr">
         <is>
-          <t>With post-secondary non-tertiary qualification</t>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="505">
       <c r="A505" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREV</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B505" s="4" t="inlineStr">
@@ -11550,19 +11550,19 @@
       </c>
       <c r="C505" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D505" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="506">
       <c r="A506" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREVUNDBEH</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B506" s="4" t="inlineStr">
@@ -11572,19 +11572,19 @@
       </c>
       <c r="C506" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention und Behandlung vermeidbaren Sterblichkeit</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D506" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention and treatment</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="507">
       <c r="A507" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
@@ -11594,19 +11594,19 @@
       </c>
       <c r="C507" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="508">
       <c r="A508" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_QUALIFZIERT</t>
+          <t>A_SERIES_POSTSEC</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
@@ -11616,19 +11616,19 @@
       </c>
       <c r="C508" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Postsekundarer nicht-tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>With post-secondary non-tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="509">
       <c r="A509" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_PREV</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
@@ -11638,19 +11638,19 @@
       </c>
       <c r="C509" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Mortality avoidable through prevention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="510">
       <c r="A510" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_PREVUNDBEH</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
@@ -11660,19 +11660,19 @@
       </c>
       <c r="C510" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Durch Prävention und Behandlung vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Mortality avoidable through prevention and treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="511">
       <c r="A511" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
@@ -11682,19 +11682,19 @@
       </c>
       <c r="C511" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="512">
       <c r="A512" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_QUALIFZIERT</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
@@ -11704,19 +11704,19 @@
       </c>
       <c r="C512" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="513">
       <c r="A513" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
@@ -11726,19 +11726,19 @@
       </c>
       <c r="C513" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="514">
       <c r="A514" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
@@ -11748,19 +11748,19 @@
       </c>
       <c r="C514" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="515">
       <c r="A515" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
@@ -11770,19 +11770,19 @@
       </c>
       <c r="C515" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="516">
       <c r="A516" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
@@ -11792,19 +11792,19 @@
       </c>
       <c r="C516" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="517">
       <c r="A517" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
@@ -11814,19 +11814,19 @@
       </c>
       <c r="C517" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="518">
       <c r="A518" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
@@ -11836,19 +11836,19 @@
       </c>
       <c r="C518" s="4" t="inlineStr">
         <is>
-          <t>Objekte ohne Digitalisat</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>Objects without digitised media</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="519">
       <c r="A519" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
@@ -11858,19 +11858,19 @@
       </c>
       <c r="C519" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="520">
       <c r="A520" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
@@ -11880,217 +11880,217 @@
       </c>
       <c r="C520" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="521">
       <c r="A521" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ZWEITAUSB</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C521" s="4" t="inlineStr">
         <is>
-          <t>Zweitausbildung, Ausbildung nach Abitur</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_WITHOUTDIGI</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C522" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Objekte ohne Digitalisat</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Objects without digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="523">
       <c r="A523" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C523" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="524">
       <c r="A524" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C524" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="525">
       <c r="A525" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SERIES_ZWEITAUSB</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C525" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Zweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="526">
       <c r="A526" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C526" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="527">
       <c r="A527" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C527" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="528">
       <c r="A528" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B528" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C528" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D528" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="529">
       <c r="A529" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B529" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C529" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D529" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="530">
       <c r="A530" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B530" s="4" t="inlineStr">
@@ -12100,120 +12100,208 @@
       </c>
       <c r="C530" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D530" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="531">
       <c r="A531" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B531" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C531" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D531" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="532">
       <c r="A532" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B532" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C532" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D532" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="533">
       <c r="A533" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B533" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C533" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D533" s="4" t="inlineStr">
         <is>
-          <t>Transport area</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="534">
       <c r="A534" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B534" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C534" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D534" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="535">
       <c r="A535" s="4" t="inlineStr">
         <is>
+          <t>A_TYPEAREA_RECREATIO</t>
+        </is>
+      </c>
+      <c r="B535" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C535" s="4" t="inlineStr">
+        <is>
+          <t>Erholungsfläche, Friedhof</t>
+        </is>
+      </c>
+      <c r="D535" s="4" t="inlineStr">
+        <is>
+          <t>Recreation area, cemetery</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="536">
+      <c r="A536" s="4" t="inlineStr">
+        <is>
+          <t>A_TYPEAREA_SETTLEMEN</t>
+        </is>
+      </c>
+      <c r="B536" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C536" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsfläche (bebaut)</t>
+        </is>
+      </c>
+      <c r="D536" s="4" t="inlineStr">
+        <is>
+          <t>Settlement area (built on)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="537">
+      <c r="A537" s="4" t="inlineStr">
+        <is>
+          <t>A_TYPEAREA_TRANSPORT</t>
+        </is>
+      </c>
+      <c r="B537" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C537" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="D537" s="4" t="inlineStr">
+        <is>
+          <t>Transport area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="538">
+      <c r="A538" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_NONRURAL</t>
+        </is>
+      </c>
+      <c r="B538" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C538" s="4" t="inlineStr">
+        <is>
+          <t>Nicht-ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D538" s="4" t="inlineStr">
+        <is>
+          <t>Non-rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="539">
+      <c r="A539" s="4" t="inlineStr">
+        <is>
           <t>A_URBAN_RURAL</t>
         </is>
       </c>
-      <c r="B535" s="4" t="inlineStr">
+      <c r="B539" s="4" t="inlineStr">
         <is>
           <t>K_URBAN</t>
         </is>
       </c>
-      <c r="C535" s="4" t="inlineStr">
+      <c r="C539" s="4" t="inlineStr">
         <is>
           <t>Ländliche Gebiete</t>
         </is>
       </c>
-      <c r="D535" s="4" t="inlineStr">
+      <c r="D539" s="4" t="inlineStr">
         <is>
           <t>Rural areas</t>
         </is>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -10692,12 +10692,12 @@
       </c>
       <c r="C466" s="4" t="inlineStr">
         <is>
-          <t>Differenz zwischen "Keine Risikolage" und "Mind. eine Risikolage"</t>
+          <t>Differenz zwischen 'Keine Risikolage' und 'Mind. eine Risikolage'</t>
         </is>
       </c>
       <c r="D466" s="4" t="inlineStr">
         <is>
-          <t>XXXDifferenz zwischen "Keine Risikolage" und "Mind. eine Risikolage"</t>
+          <t>XXXDifferenz zwischen 'Keine Risikolage' und 'Mind. eine Risikolage'</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D539"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -12200,51 +12200,51 @@
     <row outlineLevel="0" r="535">
       <c r="A535" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_TARIF_FLAECHE</t>
         </is>
       </c>
       <c r="B535" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C535" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Branchen-/Flächentarifvertrag</t>
         </is>
       </c>
       <c r="D535" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>XXXBranchen-/Flächentarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="536">
       <c r="A536" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_TARIF_HAUS</t>
         </is>
       </c>
       <c r="B536" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C536" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Firmen-/Haustarifvertrag</t>
         </is>
       </c>
       <c r="D536" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>XXXFirmen-/Haustarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="537">
       <c r="A537" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B537" s="4" t="inlineStr">
@@ -12254,54 +12254,98 @@
       </c>
       <c r="C537" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D537" s="4" t="inlineStr">
         <is>
-          <t>Transport area</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="538">
       <c r="A538" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B538" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C538" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D538" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="539">
       <c r="A539" s="4" t="inlineStr">
         <is>
+          <t>A_TYPEAREA_TRANSPORT</t>
+        </is>
+      </c>
+      <c r="B539" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C539" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="D539" s="4" t="inlineStr">
+        <is>
+          <t>Transport area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="540">
+      <c r="A540" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_NONRURAL</t>
+        </is>
+      </c>
+      <c r="B540" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C540" s="4" t="inlineStr">
+        <is>
+          <t>Nicht-ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D540" s="4" t="inlineStr">
+        <is>
+          <t>Non-rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="541">
+      <c r="A541" s="4" t="inlineStr">
+        <is>
           <t>A_URBAN_RURAL</t>
         </is>
       </c>
-      <c r="B539" s="4" t="inlineStr">
+      <c r="B541" s="4" t="inlineStr">
         <is>
           <t>K_URBAN</t>
         </is>
       </c>
-      <c r="C539" s="4" t="inlineStr">
+      <c r="C541" s="4" t="inlineStr">
         <is>
           <t>Ländliche Gebiete</t>
         </is>
       </c>
-      <c r="D539" s="4" t="inlineStr">
+      <c r="D541" s="4" t="inlineStr">
         <is>
           <t>Rural areas</t>
         </is>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Zusätzliche Information: Bereinigter Gender Pay Gap</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Bereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="C474" s="4" t="inlineStr">
         <is>
-          <t>Zusätzliche Information: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D474" s="4" t="inlineStr">

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -12122,7 +12122,7 @@
       </c>
       <c r="C531" s="4" t="inlineStr">
         <is>
-          <t>Zusätzliche Information: Anteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Anteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
       <c r="D531" s="4" t="inlineStr">

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D555"/>
+  <dimension ref="A1:D558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -10880,7 +10880,7 @@
     <row outlineLevel="0" r="475">
       <c r="A475" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33</t>
+          <t>A_SERIES_123a</t>
         </is>
       </c>
       <c r="B475" s="4" t="inlineStr">
@@ -10890,19 +10890,19 @@
       </c>
       <c r="C475" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
       <c r="D475" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="476">
       <c r="A476" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33ADD</t>
+          <t>A_SERIES_123b</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
@@ -10912,19 +10912,19 @@
       </c>
       <c r="C476" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="477">
       <c r="A477" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_4YAVERAGE</t>
+          <t>A_SERIES_123c</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
@@ -10934,19 +10934,19 @@
       </c>
       <c r="C477" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Vierjahresdurchschnitt</t>
+          <t>c) Nachhaltige Textilbeschaffung</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>Moving four-year average</t>
+          <t>XXXNachhaltige Textilbeschaffung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="478">
       <c r="A478" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_5YAVERAGE</t>
+          <t>A_SERIES_33</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
@@ -10956,19 +10956,19 @@
       </c>
       <c r="C478" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>Moving five-year average shown for each middle year</t>
+          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="479">
       <c r="A479" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ALLTEC</t>
+          <t>A_SERIES_33ADD</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
@@ -10978,19 +10978,19 @@
       </c>
       <c r="C479" s="4" t="inlineStr">
         <is>
-          <t>Alle leitungsgebundenen Technologien</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>All wired technologies</t>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="480">
       <c r="A480" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ANNUALVAL</t>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
@@ -11000,19 +11000,19 @@
       </c>
       <c r="C480" s="4" t="inlineStr">
         <is>
-          <t>Berechnete jährliche Werte</t>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>Calculated annual values</t>
+          <t>Moving four-year average</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="481">
       <c r="A481" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BEH</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
@@ -11022,19 +11022,19 @@
       </c>
       <c r="C481" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung vermeidbaren Sterblichkeit</t>
+          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through treatment</t>
+          <t>Moving five-year average shown for each middle year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="482">
       <c r="A482" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BMEL</t>
+          <t>A_SERIES_ALLTEC</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
@@ -11044,19 +11044,19 @@
       </c>
       <c r="C482" s="4" t="inlineStr">
         <is>
-          <t>Daten des BMEL</t>
+          <t>Alle leitungsgebundenen Technologien</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Ministry of Food and Agriculture</t>
+          <t>All wired technologies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="483">
       <c r="A483" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_CATV</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
@@ -11066,19 +11066,19 @@
       </c>
       <c r="C483" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Calculated annual values</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="484">
       <c r="A484" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t>A_SERIES_BEH</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
@@ -11088,19 +11088,19 @@
       </c>
       <c r="C484" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
+          <t>Durch Behandlung vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
+          <t>Mortality avoidable through treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="485">
       <c r="A485" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COVID</t>
+          <t>A_SERIES_BMEL</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
@@ -11110,19 +11110,19 @@
       </c>
       <c r="C485" s="4" t="inlineStr">
         <is>
-          <t>Eindämmung der COVID-19-Pandemie</t>
+          <t>Daten des BMEL</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="486">
       <c r="A486" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t>A_SERIES_CATV</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
@@ -11132,19 +11132,19 @@
       </c>
       <c r="C486" s="4" t="inlineStr">
         <is>
-          <t>Differenz</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
       <c r="D486" s="4" t="inlineStr">
         <is>
-          <t>Difference</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="487">
       <c r="A487" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="B487" s="4" t="inlineStr">
@@ -11154,19 +11154,19 @@
       </c>
       <c r="C487" s="4" t="inlineStr">
         <is>
-          <t>Objekte mit Digitalisat</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>Objects with digitised media</t>
+          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="488">
       <c r="A488" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t>A_SERIES_COVID</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
@@ -11176,19 +11176,19 @@
       </c>
       <c r="C488" s="4" t="inlineStr">
         <is>
-          <t>Daten des Statistischen Bundesamtes</t>
+          <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Statistical Office</t>
+          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="489">
       <c r="A489" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
@@ -11198,19 +11198,19 @@
       </c>
       <c r="C489" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS-Organisationen</t>
+          <t>Differenz</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>Employees in EMAS organisations</t>
+          <t>Difference</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="490">
       <c r="A490" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SERIES_DIGITOBJ</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
@@ -11220,19 +11220,19 @@
       </c>
       <c r="C490" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Tonnenkilometer</t>
+          <t>Objekte mit Digitalisat</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per tonne-kilometre</t>
+          <t>Objects with digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="491">
       <c r="A491" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
@@ -11242,19 +11242,19 @@
       </c>
       <c r="C491" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="492">
       <c r="A492" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
@@ -11264,19 +11264,19 @@
       </c>
       <c r="C492" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Personenkilometer</t>
+          <t>Beschäftigte in EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per passenger-kilometre</t>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="493">
       <c r="A493" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISP</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
@@ -11286,19 +11286,19 @@
       </c>
       <c r="C493" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
+          <t>Energieverbrauch je Tonnenkilometer</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Energy consumption per tonne-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="494">
       <c r="A494" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISPBE</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="B494" s="4" t="inlineStr">
@@ -11308,41 +11308,41 @@
       </c>
       <c r="C494" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="495">
       <c r="A495" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ERSTAUSB</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="B495" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C495" s="4" t="inlineStr">
         <is>
-          <t>Erstausbildung</t>
+          <t>Energieverbrauch je Personenkilometer</t>
         </is>
       </c>
       <c r="D495" s="4" t="inlineStr">
         <is>
-          <t>XXXErstausbildung</t>
+          <t>Energy consumption per passenger-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="496">
       <c r="A496" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FACHKR</t>
+          <t>A_SERIES_EQUALDISP</t>
         </is>
       </c>
       <c r="B496" s="4" t="inlineStr">
@@ -11352,19 +11352,19 @@
       </c>
       <c r="C496" s="4" t="inlineStr">
         <is>
-          <t>Fachkräftepotenzial (insgesamt)</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
         </is>
       </c>
       <c r="D496" s="4" t="inlineStr">
         <is>
-          <t>XXXFachkräftepotenzial (insgesamt)</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="497">
       <c r="A497" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_EQUALDISPBE</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
@@ -11374,41 +11374,41 @@
       </c>
       <c r="C497" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="498">
       <c r="A498" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_ERSTAUSB</t>
         </is>
       </c>
       <c r="B498" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C498" s="4" t="inlineStr">
         <is>
-          <t>Ausländer</t>
+          <t>Erstausbildung</t>
         </is>
       </c>
       <c r="D498" s="4" t="inlineStr">
         <is>
-          <t>Foreigns</t>
+          <t>XXXErstausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="499">
       <c r="A499" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_FACHKR</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
@@ -11418,19 +11418,19 @@
       </c>
       <c r="C499" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>Fachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
+          <t>XXXFachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="500">
       <c r="A500" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
@@ -11440,19 +11440,19 @@
       </c>
       <c r="C500" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product (price-adjusted)</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="501">
       <c r="A501" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
@@ -11462,19 +11462,19 @@
       </c>
       <c r="C501" s="4" t="inlineStr">
         <is>
-          <t>Deutsche</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t>Germans</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="502">
       <c r="A502" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
@@ -11484,63 +11484,63 @@
       </c>
       <c r="C502" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="503">
       <c r="A503" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOCHSCHUL</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C503" s="4" t="inlineStr">
         <is>
-          <t>Hochschulabschlüsse</t>
+          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulabschlüsse</t>
+          <t>Gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="504">
       <c r="A504" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOEHERQUAL</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B504" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C504" s="4" t="inlineStr">
         <is>
-          <t>Höherqualifizierende Berufsausbildung</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D504" s="4" t="inlineStr">
         <is>
-          <t>XXXHöherqualifizierende Berufsausbildung</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="505">
       <c r="A505" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B505" s="4" t="inlineStr">
@@ -11550,63 +11550,63 @@
       </c>
       <c r="C505" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D505" s="4" t="inlineStr">
         <is>
-          <t>Imports</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="506">
       <c r="A506" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t>A_SERIES_HOCHSCHUL</t>
         </is>
       </c>
       <c r="B506" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C506" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationsstandorte</t>
+          <t>Hochschulabschlüsse</t>
         </is>
       </c>
       <c r="D506" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t>XXXHochschulabschlüsse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="507">
       <c r="A507" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_HOEHERQUAL</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C507" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>Höherqualifizierende Berufsausbildung</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>XXXHöherqualifizierende Berufsausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="508">
       <c r="A508" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
@@ -11616,19 +11616,19 @@
       </c>
       <c r="C508" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Einfuhren</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>Imports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="509">
       <c r="A509" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
@@ -11638,19 +11638,19 @@
       </c>
       <c r="C509" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>EMAS-Organisationsstandorte</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="510">
       <c r="A510" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
@@ -11660,19 +11660,19 @@
       </c>
       <c r="C510" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed fish stocks</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="511">
       <c r="A511" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MUETTER</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
@@ -11682,19 +11682,19 @@
       </c>
       <c r="C511" s="4" t="inlineStr">
         <is>
-          <t>Mütter</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>Mothers</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="512">
       <c r="A512" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
@@ -11704,19 +11704,19 @@
       </c>
       <c r="C512" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="513">
       <c r="A513" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
@@ -11726,19 +11726,19 @@
       </c>
       <c r="C513" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t>Share of MSY examined stocks in all managed fish stocks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="514">
       <c r="A514" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_MUETTER</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
@@ -11748,19 +11748,19 @@
       </c>
       <c r="C514" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>Mütter</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>Mothers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="515">
       <c r="A515" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
@@ -11770,19 +11770,19 @@
       </c>
       <c r="C515" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="516">
       <c r="A516" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
@@ -11792,19 +11792,19 @@
       </c>
       <c r="C516" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="517">
       <c r="A517" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_POSTSEC</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
@@ -11814,63 +11814,63 @@
       </c>
       <c r="C517" s="4" t="inlineStr">
         <is>
-          <t>Postsekundarer nicht-tertiärer Abschluss</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>With post-secondary non-tertiary qualification</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="518">
       <c r="A518" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREV</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C518" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="519">
       <c r="A519" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREVUNDBEH</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C519" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention und Behandlung vermeidbaren Sterblichkeit</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention and treatment</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="520">
       <c r="A520" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_POSTSEC</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
@@ -11880,63 +11880,63 @@
       </c>
       <c r="C520" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten</t>
+          <t>Postsekundarer nicht-tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products</t>
+          <t>With post-secondary non-tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="521">
       <c r="A521" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_QUALIFZIERT</t>
+          <t>A_SERIES_PREV</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_ZUORDN</t>
         </is>
       </c>
       <c r="C521" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Mortality avoidable through prevention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_PREVUNDBEH</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_ZUORDN</t>
         </is>
       </c>
       <c r="C522" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Durch Prävention und Behandlung vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Mortality avoidable through prevention and treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="523">
       <c r="A523" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
@@ -11946,19 +11946,19 @@
       </c>
       <c r="C523" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="524">
       <c r="A524" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_QUALIFZIERT</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
@@ -11968,19 +11968,19 @@
       </c>
       <c r="C524" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="525">
       <c r="A525" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
@@ -11990,19 +11990,19 @@
       </c>
       <c r="C525" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="526">
       <c r="A526" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
@@ -12012,19 +12012,19 @@
       </c>
       <c r="C526" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="527">
       <c r="A527" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
@@ -12034,19 +12034,19 @@
       </c>
       <c r="C527" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="528">
       <c r="A528" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B528" s="4" t="inlineStr">
@@ -12056,19 +12056,19 @@
       </c>
       <c r="C528" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D528" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="529">
       <c r="A529" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETER</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B529" s="4" t="inlineStr">
@@ -12078,19 +12078,19 @@
       </c>
       <c r="C529" s="4" t="inlineStr">
         <is>
-          <t>Väter</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D529" s="4" t="inlineStr">
         <is>
-          <t>Fathers</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="530">
       <c r="A530" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERGELD</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B530" s="4" t="inlineStr">
@@ -12100,19 +12100,19 @@
       </c>
       <c r="C530" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D530" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="531">
       <c r="A531" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERMONAT</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B531" s="4" t="inlineStr">
@@ -12122,19 +12122,19 @@
       </c>
       <c r="C531" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Anteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D531" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="532">
       <c r="A532" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_VAETER</t>
         </is>
       </c>
       <c r="B532" s="4" t="inlineStr">
@@ -12144,19 +12144,19 @@
       </c>
       <c r="C532" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Väter</t>
         </is>
       </c>
       <c r="D532" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>Fathers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="533">
       <c r="A533" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_VAETERGELD</t>
         </is>
       </c>
       <c r="B533" s="4" t="inlineStr">
@@ -12166,19 +12166,19 @@
       </c>
       <c r="C533" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="D533" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>XXXAnteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="534">
       <c r="A534" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_SERIES_VAETERMONAT</t>
         </is>
       </c>
       <c r="B534" s="4" t="inlineStr">
@@ -12188,19 +12188,19 @@
       </c>
       <c r="C534" s="4" t="inlineStr">
         <is>
-          <t>Objekte ohne Digitalisat</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Anteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
       <c r="D534" s="4" t="inlineStr">
         <is>
-          <t>Objects without digitised media</t>
+          <t>XXXAnteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="535">
       <c r="A535" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B535" s="4" t="inlineStr">
@@ -12210,19 +12210,19 @@
       </c>
       <c r="C535" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D535" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="536">
       <c r="A536" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B536" s="4" t="inlineStr">
@@ -12232,107 +12232,107 @@
       </c>
       <c r="C536" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D536" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="537">
       <c r="A537" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ZWEITAUSB</t>
+          <t>A_SERIES_WITHOUTDIGI</t>
         </is>
       </c>
       <c r="B537" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C537" s="4" t="inlineStr">
         <is>
-          <t>Zweitausbildung, Ausbildung nach Abitur</t>
+          <t>Objekte ohne Digitalisat</t>
         </is>
       </c>
       <c r="D537" s="4" t="inlineStr">
         <is>
-          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
+          <t>Objects without digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="538">
       <c r="A538" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B538" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C538" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D538" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="539">
       <c r="A539" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B539" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C539" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D539" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="540">
       <c r="A540" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SERIES_ZWEITAUSB</t>
         </is>
       </c>
       <c r="B540" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C540" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Zweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
       <c r="D540" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="541">
       <c r="A541" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B541" s="4" t="inlineStr">
@@ -12342,85 +12342,85 @@
       </c>
       <c r="C541" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D541" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="542">
       <c r="A542" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B542" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C542" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D542" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="543">
       <c r="A543" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B543" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C543" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D543" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="544">
       <c r="A544" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B544" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C544" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D544" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="545">
       <c r="A545" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B545" s="4" t="inlineStr">
@@ -12430,19 +12430,19 @@
       </c>
       <c r="C545" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D545" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="546">
       <c r="A546" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B546" s="4" t="inlineStr">
@@ -12452,208 +12452,274 @@
       </c>
       <c r="C546" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D546" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="547">
       <c r="A547" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_FLAECHE</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B547" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C547" s="4" t="inlineStr">
         <is>
-          <t>Branchen-/Flächentarifvertrag</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D547" s="4" t="inlineStr">
         <is>
-          <t>XXXBranchen-/Flächentarifvertrag</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="548">
       <c r="A548" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_HAUS</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B548" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C548" s="4" t="inlineStr">
         <is>
-          <t>Firmen-/Haustarifvertrag</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D548" s="4" t="inlineStr">
         <is>
-          <t>XXXFirmen-/Haustarifvertrag</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="549">
       <c r="A549" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B549" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C549" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D549" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="550">
       <c r="A550" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_TARIF_FLAECHE</t>
         </is>
       </c>
       <c r="B550" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C550" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Branchen-/Flächentarifvertrag</t>
         </is>
       </c>
       <c r="D550" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>XXXBranchen-/Flächentarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="551">
       <c r="A551" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_TARIF_HAUS</t>
         </is>
       </c>
       <c r="B551" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C551" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Firmen-/Haustarifvertrag</t>
         </is>
       </c>
       <c r="D551" s="4" t="inlineStr">
         <is>
-          <t>Transport area</t>
+          <t>XXXFirmen-/Haustarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="552">
       <c r="A552" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B552" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C552" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D552" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="553">
       <c r="A553" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B553" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C553" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D553" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="554">
       <c r="A554" s="4" t="inlineStr">
         <is>
-          <t>A_ZUORDN_ALLGEM</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B554" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C554" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion allgemein</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D554" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and responsein genaral</t>
+          <t>Transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="555">
       <c r="A555" s="4" t="inlineStr">
         <is>
+          <t>A_URBAN_NONRURAL</t>
+        </is>
+      </c>
+      <c r="B555" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C555" s="4" t="inlineStr">
+        <is>
+          <t>Nicht-ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D555" s="4" t="inlineStr">
+        <is>
+          <t>Non-rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="556">
+      <c r="A556" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_RURAL</t>
+        </is>
+      </c>
+      <c r="B556" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C556" s="4" t="inlineStr">
+        <is>
+          <t>Ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D556" s="4" t="inlineStr">
+        <is>
+          <t>Rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="557">
+      <c r="A557" s="4" t="inlineStr">
+        <is>
+          <t>A_ZUORDN_ALLGEM</t>
+        </is>
+      </c>
+      <c r="B557" s="4" t="inlineStr">
+        <is>
+          <t>K_ZUORDN</t>
+        </is>
+      </c>
+      <c r="C557" s="4" t="inlineStr">
+        <is>
+          <t>Pandemieprävention und -reaktion allgemein</t>
+        </is>
+      </c>
+      <c r="D557" s="4" t="inlineStr">
+        <is>
+          <t>Germany’s contribution to global pandemic prevention and responsein genaral</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="558">
+      <c r="A558" s="4" t="inlineStr">
+        <is>
           <t>A_ZUORDN_COVID</t>
         </is>
       </c>
-      <c r="B555" s="4" t="inlineStr">
+      <c r="B558" s="4" t="inlineStr">
         <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="C555" s="4" t="inlineStr">
+      <c r="C558" s="4" t="inlineStr">
         <is>
           <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
-      <c r="D555" s="4" t="inlineStr">
+      <c r="D558" s="4" t="inlineStr">
         <is>
           <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D562"/>
+  <dimension ref="A1:D561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -11066,12 +11066,12 @@
       </c>
       <c r="C483" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das mittlere Jahr</t>
+          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das Endjahr</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>Moving five-year average shown for each middle year</t>
+          <t>Moving five-year average shown for the last year</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="B486" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C486" s="4" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B525" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C525" s="4" t="inlineStr">
@@ -12002,29 +12002,29 @@
     <row outlineLevel="0" r="526">
       <c r="A526" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREVUNDBEH</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C526" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention und Behandlung vermeidbaren Sterblichkeit</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention and treatment</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="527">
       <c r="A527" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_QUALIFZIERT</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
@@ -12034,19 +12034,19 @@
       </c>
       <c r="C527" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products</t>
+          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="528">
       <c r="A528" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_QUALIFZIERT</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B528" s="4" t="inlineStr">
@@ -12056,19 +12056,19 @@
       </c>
       <c r="C528" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D528" s="4" t="inlineStr">
         <is>
-          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="529">
       <c r="A529" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B529" s="4" t="inlineStr">
@@ -12078,19 +12078,19 @@
       </c>
       <c r="C529" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D529" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="530">
       <c r="A530" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B530" s="4" t="inlineStr">
@@ -12100,19 +12100,19 @@
       </c>
       <c r="C530" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D530" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="531">
       <c r="A531" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B531" s="4" t="inlineStr">
@@ -12122,19 +12122,19 @@
       </c>
       <c r="C531" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D531" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="532">
       <c r="A532" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B532" s="4" t="inlineStr">
@@ -12144,19 +12144,19 @@
       </c>
       <c r="C532" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D532" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="533">
       <c r="A533" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B533" s="4" t="inlineStr">
@@ -12166,19 +12166,19 @@
       </c>
       <c r="C533" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D533" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="534">
       <c r="A534" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B534" s="4" t="inlineStr">
@@ -12188,19 +12188,19 @@
       </c>
       <c r="C534" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D534" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="535">
       <c r="A535" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_VAETER</t>
         </is>
       </c>
       <c r="B535" s="4" t="inlineStr">
@@ -12210,19 +12210,19 @@
       </c>
       <c r="C535" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Väter</t>
         </is>
       </c>
       <c r="D535" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Fathers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="536">
       <c r="A536" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETER</t>
+          <t>A_SERIES_VAETERGELD</t>
         </is>
       </c>
       <c r="B536" s="4" t="inlineStr">
@@ -12232,19 +12232,19 @@
       </c>
       <c r="C536" s="4" t="inlineStr">
         <is>
-          <t>Väter</t>
+          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="D536" s="4" t="inlineStr">
         <is>
-          <t>Fathers</t>
+          <t>XXXAnteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="537">
       <c r="A537" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERGELD</t>
+          <t>A_SERIES_VAETERMONAT</t>
         </is>
       </c>
       <c r="B537" s="4" t="inlineStr">
@@ -12254,19 +12254,19 @@
       </c>
       <c r="C537" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Anteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
       <c r="D537" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>XXXAnteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="538">
       <c r="A538" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERMONAT</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B538" s="4" t="inlineStr">
@@ -12276,19 +12276,19 @@
       </c>
       <c r="C538" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Anteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D538" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="539">
       <c r="A539" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B539" s="4" t="inlineStr">
@@ -12298,19 +12298,19 @@
       </c>
       <c r="C539" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D539" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="540">
       <c r="A540" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_WITHOUTDIGI</t>
         </is>
       </c>
       <c r="B540" s="4" t="inlineStr">
@@ -12320,19 +12320,19 @@
       </c>
       <c r="C540" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Objekte ohne Digitalisat</t>
         </is>
       </c>
       <c r="D540" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>Objects without digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="541">
       <c r="A541" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B541" s="4" t="inlineStr">
@@ -12342,19 +12342,19 @@
       </c>
       <c r="C541" s="4" t="inlineStr">
         <is>
-          <t>Objekte ohne Digitalisat</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D541" s="4" t="inlineStr">
         <is>
-          <t>Objects without digitised media</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="542">
       <c r="A542" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B542" s="4" t="inlineStr">
@@ -12364,63 +12364,63 @@
       </c>
       <c r="C542" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D542" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="543">
       <c r="A543" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_ZWEITAUSB</t>
         </is>
       </c>
       <c r="B543" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C543" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Zweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
       <c r="D543" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="544">
       <c r="A544" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ZWEITAUSB</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B544" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C544" s="4" t="inlineStr">
         <is>
-          <t>Zweitausbildung, Ausbildung nach Abitur</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D544" s="4" t="inlineStr">
         <is>
-          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="545">
       <c r="A545" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B545" s="4" t="inlineStr">
@@ -12430,19 +12430,19 @@
       </c>
       <c r="C545" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D545" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="546">
       <c r="A546" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B546" s="4" t="inlineStr">
@@ -12452,19 +12452,19 @@
       </c>
       <c r="C546" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D546" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="547">
       <c r="A547" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B547" s="4" t="inlineStr">
@@ -12474,41 +12474,41 @@
       </c>
       <c r="C547" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D547" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="548">
       <c r="A548" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B548" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C548" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D548" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="549">
       <c r="A549" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B549" s="4" t="inlineStr">
@@ -12518,19 +12518,19 @@
       </c>
       <c r="C549" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D549" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="550">
       <c r="A550" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B550" s="4" t="inlineStr">
@@ -12540,19 +12540,19 @@
       </c>
       <c r="C550" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D550" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="551">
       <c r="A551" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B551" s="4" t="inlineStr">
@@ -12562,19 +12562,19 @@
       </c>
       <c r="C551" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D551" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="552">
       <c r="A552" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B552" s="4" t="inlineStr">
@@ -12584,41 +12584,41 @@
       </c>
       <c r="C552" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D552" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="553">
       <c r="A553" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_TARIF_FLAECHE</t>
         </is>
       </c>
       <c r="B553" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C553" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Branchen-/Flächentarifvertrag</t>
         </is>
       </c>
       <c r="D553" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>XXXBranchen-/Flächentarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="554">
       <c r="A554" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_FLAECHE</t>
+          <t>A_TARIF_HAUS</t>
         </is>
       </c>
       <c r="B554" s="4" t="inlineStr">
@@ -12628,41 +12628,41 @@
       </c>
       <c r="C554" s="4" t="inlineStr">
         <is>
-          <t>Branchen-/Flächentarifvertrag</t>
+          <t>Firmen-/Haustarifvertrag</t>
         </is>
       </c>
       <c r="D554" s="4" t="inlineStr">
         <is>
-          <t>XXXBranchen-/Flächentarifvertrag</t>
+          <t>XXXFirmen-/Haustarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="555">
       <c r="A555" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_HAUS</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B555" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C555" s="4" t="inlineStr">
         <is>
-          <t>Firmen-/Haustarifvertrag</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D555" s="4" t="inlineStr">
         <is>
-          <t>XXXFirmen-/Haustarifvertrag</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="556">
       <c r="A556" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B556" s="4" t="inlineStr">
@@ -12672,19 +12672,19 @@
       </c>
       <c r="C556" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D556" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="557">
       <c r="A557" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B557" s="4" t="inlineStr">
@@ -12694,41 +12694,41 @@
       </c>
       <c r="C557" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D557" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>Transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="558">
       <c r="A558" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_URBAN_NONRURAL</t>
         </is>
       </c>
       <c r="B558" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="C558" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Nicht-ländliche Gebiete</t>
         </is>
       </c>
       <c r="D558" s="4" t="inlineStr">
         <is>
-          <t>Transport area</t>
+          <t>Non-rural areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="559">
       <c r="A559" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_URBAN_RURAL</t>
         </is>
       </c>
       <c r="B559" s="4" t="inlineStr">
@@ -12738,41 +12738,41 @@
       </c>
       <c r="C559" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Ländliche Gebiete</t>
         </is>
       </c>
       <c r="D559" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Rural areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="560">
       <c r="A560" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_ZUORDN_ALLGEM</t>
         </is>
       </c>
       <c r="B560" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_ZUORDN</t>
         </is>
       </c>
       <c r="C560" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Pandemieprävention und -reaktion allgemein</t>
         </is>
       </c>
       <c r="D560" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Germany’s contribution to global pandemic prevention and responsein genaral</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="561">
       <c r="A561" s="4" t="inlineStr">
         <is>
-          <t>A_ZUORDN_ALLGEM</t>
+          <t>A_ZUORDN_COVID</t>
         </is>
       </c>
       <c r="B561" s="4" t="inlineStr">
@@ -12782,32 +12782,10 @@
       </c>
       <c r="C561" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion allgemein</t>
+          <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
       <c r="D561" s="4" t="inlineStr">
-        <is>
-          <t>Germany’s contribution to global pandemic prevention and responsein genaral</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="562">
-      <c r="A562" s="4" t="inlineStr">
-        <is>
-          <t>A_ZUORDN_COVID</t>
-        </is>
-      </c>
-      <c r="B562" s="4" t="inlineStr">
-        <is>
-          <t>K_ZUORDN</t>
-        </is>
-      </c>
-      <c r="C562" s="4" t="inlineStr">
-        <is>
-          <t>Eindämmung der COVID-19-Pandemie</t>
-        </is>
-      </c>
-      <c r="D562" s="4" t="inlineStr">
         <is>
           <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D561"/>
+  <dimension ref="A1:D566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -10924,73 +10924,73 @@
     <row outlineLevel="0" r="477">
       <c r="A477" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123a</t>
+          <t>A_SEKTOREN_HOCHSCH</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C477" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
+          <t>Hochschulen</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
+          <t>XXXHochschulen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="478">
       <c r="A478" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123b</t>
+          <t>A_SEKTOREN_STAAT</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C478" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>Staat und private Institutionen ohne Erwerbszweck</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>XXXStaat und private Institutionen ohne Erwerbszweck</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="479">
       <c r="A479" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123c</t>
+          <t>A_SEKTOREN_WIRTSCH</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C479" s="4" t="inlineStr">
         <is>
-          <t>c) Nachhaltige Textilbeschaffung</t>
+          <t>Wirtschaft</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>XXXNachhaltige Textilbeschaffung</t>
+          <t>XXXWirtschaft</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="480">
       <c r="A480" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33</t>
+          <t>A_SERIES_123a</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
@@ -11000,19 +11000,19 @@
       </c>
       <c r="C480" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="481">
       <c r="A481" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33ADD</t>
+          <t>A_SERIES_123b</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
@@ -11022,19 +11022,19 @@
       </c>
       <c r="C481" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="482">
       <c r="A482" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_4YAVERAGE</t>
+          <t>A_SERIES_123c</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
@@ -11044,19 +11044,19 @@
       </c>
       <c r="C482" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Vierjahresdurchschnitt</t>
+          <t>c) Nachhaltige Textilbeschaffung</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>Moving four-year average</t>
+          <t>XXXNachhaltige Textilbeschaffung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="483">
       <c r="A483" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_5YAVERAGE</t>
+          <t>A_SERIES_33</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
@@ -11066,19 +11066,19 @@
       </c>
       <c r="C483" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das Endjahr</t>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>Moving five-year average shown for the last year</t>
+          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="484">
       <c r="A484" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ALLTEC</t>
+          <t>A_SERIES_33ADD</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
@@ -11088,19 +11088,19 @@
       </c>
       <c r="C484" s="4" t="inlineStr">
         <is>
-          <t>Alle leitungsgebundenen Technologien</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>All wired technologies</t>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="485">
       <c r="A485" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ANNUALVAL</t>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
@@ -11110,41 +11110,41 @@
       </c>
       <c r="C485" s="4" t="inlineStr">
         <is>
-          <t>Berechnete jährliche Werte</t>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>Calculated annual values</t>
+          <t>Moving four-year average</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="486">
       <c r="A486" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BEH</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="B486" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C486" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung vermeidbaren Sterblichkeit</t>
+          <t>Gleitender Fünfjahresdurchschnitt mit Bezug auf das Endjahr</t>
         </is>
       </c>
       <c r="D486" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through treatment</t>
+          <t>Moving five-year average shown for the last year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="487">
       <c r="A487" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BMEL</t>
+          <t>A_SERIES_ALLTEC</t>
         </is>
       </c>
       <c r="B487" s="4" t="inlineStr">
@@ -11154,19 +11154,19 @@
       </c>
       <c r="C487" s="4" t="inlineStr">
         <is>
-          <t>Daten des BMEL</t>
+          <t>Alle leitungsgebundenen Technologien</t>
         </is>
       </c>
       <c r="D487" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Ministry of Food and Agriculture</t>
+          <t>All wired technologies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="488">
       <c r="A488" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_CATV</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
@@ -11176,41 +11176,41 @@
       </c>
       <c r="C488" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Calculated annual values</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="489">
       <c r="A489" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t>A_SERIES_BEH</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C489" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
+          <t>Durch Behandlung vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
+          <t>Mortality avoidable through treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="490">
       <c r="A490" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COVID</t>
+          <t>A_SERIES_BMEL</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
@@ -11220,19 +11220,19 @@
       </c>
       <c r="C490" s="4" t="inlineStr">
         <is>
-          <t>Eindämmung der COVID-19-Pandemie</t>
+          <t>Daten des BMEL</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="491">
       <c r="A491" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t>A_SERIES_CATV</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
@@ -11242,19 +11242,19 @@
       </c>
       <c r="C491" s="4" t="inlineStr">
         <is>
-          <t>Differenz</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>Difference</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="492">
       <c r="A492" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
@@ -11264,19 +11264,19 @@
       </c>
       <c r="C492" s="4" t="inlineStr">
         <is>
-          <t>Objekte mit Digitalisat</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>Objects with digitised media</t>
+          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="493">
       <c r="A493" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t>A_SERIES_COVID</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
@@ -11286,19 +11286,19 @@
       </c>
       <c r="C493" s="4" t="inlineStr">
         <is>
-          <t>Daten des Statistischen Bundesamtes</t>
+          <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Statistical Office</t>
+          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="494">
       <c r="A494" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="B494" s="4" t="inlineStr">
@@ -11308,19 +11308,19 @@
       </c>
       <c r="C494" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force (FATF) rating effectiveness</t>
+          <t>Differenz</t>
         </is>
       </c>
       <c r="D494" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force (FATF) rating effectiveness</t>
+          <t>Difference</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="495">
       <c r="A495" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t>A_SERIES_DIGITOBJ</t>
         </is>
       </c>
       <c r="B495" s="4" t="inlineStr">
@@ -11330,19 +11330,19 @@
       </c>
       <c r="C495" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS-Organisationen</t>
+          <t>Objekte mit Digitalisat</t>
         </is>
       </c>
       <c r="D495" s="4" t="inlineStr">
         <is>
-          <t>Employees in EMAS organisations</t>
+          <t>Objects with digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="496">
       <c r="A496" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B496" s="4" t="inlineStr">
@@ -11352,19 +11352,19 @@
       </c>
       <c r="C496" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Tonnenkilometer</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D496" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per tonne-kilometre</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="497">
       <c r="A497" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
@@ -11374,19 +11374,19 @@
       </c>
       <c r="C497" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Financial Action Task Force (FATF) rating effectiveness</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Financial Action Task Force (FATF) rating effectiveness</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="498">
       <c r="A498" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="B498" s="4" t="inlineStr">
@@ -11396,19 +11396,19 @@
       </c>
       <c r="C498" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Personenkilometer</t>
+          <t>Beschäftigte in EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D498" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per passenger-kilometre</t>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="499">
       <c r="A499" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISP</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
@@ -11418,19 +11418,19 @@
       </c>
       <c r="C499" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
+          <t>Energieverbrauch je Tonnenkilometer</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Energy consumption per tonne-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="500">
       <c r="A500" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISPBE</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="B500" s="4" t="inlineStr">
@@ -11440,41 +11440,41 @@
       </c>
       <c r="C500" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="D500" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="501">
       <c r="A501" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ERSTAUSB</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="B501" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C501" s="4" t="inlineStr">
         <is>
-          <t>Erstausbildung</t>
+          <t>Energieverbrauch je Personenkilometer</t>
         </is>
       </c>
       <c r="D501" s="4" t="inlineStr">
         <is>
-          <t>XXXErstausbildung</t>
+          <t>Energy consumption per passenger-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="502">
       <c r="A502" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FACHKR</t>
+          <t>A_SERIES_EQUALDISP</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
@@ -11484,19 +11484,19 @@
       </c>
       <c r="C502" s="4" t="inlineStr">
         <is>
-          <t>Fachkräftepotenzial (insgesamt)</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>XXXFachkräftepotenzial (insgesamt)</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="503">
       <c r="A503" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t>A_SERIES_EQUALDISPBE</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
@@ -11506,41 +11506,41 @@
       </c>
       <c r="C503" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Financial Action Task Force (FATF) rating tecnical compliance</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force (FATF) rating tecnical compliance</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="504">
       <c r="A504" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_ERSTAUSB</t>
         </is>
       </c>
       <c r="B504" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C504" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Erstausbildung</t>
         </is>
       </c>
       <c r="D504" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>XXXErstausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="505">
       <c r="A505" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_FACHKR</t>
         </is>
       </c>
       <c r="B505" s="4" t="inlineStr">
@@ -11550,19 +11550,19 @@
       </c>
       <c r="C505" s="4" t="inlineStr">
         <is>
-          <t>Ausländer</t>
+          <t>Fachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
       <c r="D505" s="4" t="inlineStr">
         <is>
-          <t>Foreigns</t>
+          <t>XXXFachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="506">
       <c r="A506" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="B506" s="4" t="inlineStr">
@@ -11572,19 +11572,19 @@
       </c>
       <c r="C506" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Financial Action Task Force (FATF) rating tecnical compliance</t>
         </is>
       </c>
       <c r="D506" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
+          <t>Financial Action Task Force (FATF) rating tecnical compliance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="507">
       <c r="A507" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B507" s="4" t="inlineStr">
@@ -11594,19 +11594,19 @@
       </c>
       <c r="C507" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D507" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product (price-adjusted)</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="508">
       <c r="A508" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B508" s="4" t="inlineStr">
@@ -11616,19 +11616,19 @@
       </c>
       <c r="C508" s="4" t="inlineStr">
         <is>
-          <t>Deutsche</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D508" s="4" t="inlineStr">
         <is>
-          <t>Germans</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="509">
       <c r="A509" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B509" s="4" t="inlineStr">
@@ -11638,63 +11638,63 @@
       </c>
       <c r="C509" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D509" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="510">
       <c r="A510" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOCHSCHUL</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B510" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C510" s="4" t="inlineStr">
         <is>
-          <t>Hochschulabschlüsse</t>
+          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
         </is>
       </c>
       <c r="D510" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulabschlüsse</t>
+          <t>Gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="511">
       <c r="A511" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOEHERQUAL</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B511" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C511" s="4" t="inlineStr">
         <is>
-          <t>Höherqualifizierende Berufsausbildung</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D511" s="4" t="inlineStr">
         <is>
-          <t>XXXHöherqualifizierende Berufsausbildung</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="512">
       <c r="A512" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
@@ -11704,63 +11704,63 @@
       </c>
       <c r="C512" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>Imports</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="513">
       <c r="A513" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t>A_SERIES_HOCHSCHUL</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C513" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationsstandorte</t>
+          <t>Hochschulabschlüsse</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t>XXXHochschulabschlüsse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="514">
       <c r="A514" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_HOEHERQUAL</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C514" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>Höherqualifizierende Berufsausbildung</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>XXXHöherqualifizierende Berufsausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="515">
       <c r="A515" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
@@ -11770,19 +11770,19 @@
       </c>
       <c r="C515" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Einfuhren</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>Imports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="516">
       <c r="A516" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
@@ -11792,19 +11792,19 @@
       </c>
       <c r="C516" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>EMAS-Organisationsstandorte</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="517">
       <c r="A517" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
@@ -11814,19 +11814,19 @@
       </c>
       <c r="C517" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed fish stocks</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="518">
       <c r="A518" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MUETTER</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
@@ -11836,19 +11836,19 @@
       </c>
       <c r="C518" s="4" t="inlineStr">
         <is>
-          <t>Mütter</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>Mothers</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="519">
       <c r="A519" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
@@ -11858,19 +11858,19 @@
       </c>
       <c r="C519" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="520">
       <c r="A520" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
@@ -11880,19 +11880,19 @@
       </c>
       <c r="C520" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t>Share of MSY examined stocks in all managed fish stocks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="521">
       <c r="A521" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_MUETTER</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
@@ -11902,19 +11902,19 @@
       </c>
       <c r="C521" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>Mütter</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>Mothers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
@@ -11924,19 +11924,19 @@
       </c>
       <c r="C522" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="523">
       <c r="A523" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
@@ -11946,19 +11946,19 @@
       </c>
       <c r="C523" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="524">
       <c r="A524" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_POSTSEC</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
@@ -11968,41 +11968,41 @@
       </c>
       <c r="C524" s="4" t="inlineStr">
         <is>
-          <t>Postsekundarer nicht-tertiärer Abschluss</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>With post-secondary non-tertiary qualification</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="525">
       <c r="A525" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREV</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B525" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C525" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D525" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="526">
       <c r="A526" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B526" s="4" t="inlineStr">
@@ -12012,19 +12012,19 @@
       </c>
       <c r="C526" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D526" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="527">
       <c r="A527" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_QUALIFZIERT</t>
+          <t>A_SERIES_POSTSEC</t>
         </is>
       </c>
       <c r="B527" s="4" t="inlineStr">
@@ -12034,41 +12034,41 @@
       </c>
       <c r="C527" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Postsekundarer nicht-tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
         <is>
-          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>With post-secondary non-tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="528">
       <c r="A528" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_PREV</t>
         </is>
       </c>
       <c r="B528" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C528" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
         </is>
       </c>
       <c r="D528" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Mortality avoidable through prevention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="529">
       <c r="A529" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B529" s="4" t="inlineStr">
@@ -12078,19 +12078,19 @@
       </c>
       <c r="C529" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D529" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="530">
       <c r="A530" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_QUALIFZIERT</t>
         </is>
       </c>
       <c r="B530" s="4" t="inlineStr">
@@ -12100,19 +12100,19 @@
       </c>
       <c r="C530" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="D530" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="531">
       <c r="A531" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B531" s="4" t="inlineStr">
@@ -12122,19 +12122,19 @@
       </c>
       <c r="C531" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D531" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="532">
       <c r="A532" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B532" s="4" t="inlineStr">
@@ -12144,19 +12144,19 @@
       </c>
       <c r="C532" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D532" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="533">
       <c r="A533" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_RMC</t>
         </is>
       </c>
       <c r="B533" s="4" t="inlineStr">
@@ -12166,19 +12166,19 @@
       </c>
       <c r="C533" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
       <c r="D533" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="534">
       <c r="A534" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_RMI</t>
         </is>
       </c>
       <c r="B534" s="4" t="inlineStr">
@@ -12188,19 +12188,19 @@
       </c>
       <c r="C534" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
       <c r="D534" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="535">
       <c r="A535" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETER</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B535" s="4" t="inlineStr">
@@ -12210,19 +12210,19 @@
       </c>
       <c r="C535" s="4" t="inlineStr">
         <is>
-          <t>Väter</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D535" s="4" t="inlineStr">
         <is>
-          <t>Fathers</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="536">
       <c r="A536" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERGELD</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B536" s="4" t="inlineStr">
@@ -12232,19 +12232,19 @@
       </c>
       <c r="C536" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D536" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="537">
       <c r="A537" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERMONAT</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B537" s="4" t="inlineStr">
@@ -12254,19 +12254,19 @@
       </c>
       <c r="C537" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Anteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D537" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="538">
       <c r="A538" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B538" s="4" t="inlineStr">
@@ -12276,19 +12276,19 @@
       </c>
       <c r="C538" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D538" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="539">
       <c r="A539" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B539" s="4" t="inlineStr">
@@ -12298,19 +12298,19 @@
       </c>
       <c r="C539" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D539" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="540">
       <c r="A540" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_SERIES_VAETER</t>
         </is>
       </c>
       <c r="B540" s="4" t="inlineStr">
@@ -12320,19 +12320,19 @@
       </c>
       <c r="C540" s="4" t="inlineStr">
         <is>
-          <t>Objekte ohne Digitalisat</t>
+          <t>Väter</t>
         </is>
       </c>
       <c r="D540" s="4" t="inlineStr">
         <is>
-          <t>Objects without digitised media</t>
+          <t>Fathers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="541">
       <c r="A541" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_VAETERGELD</t>
         </is>
       </c>
       <c r="B541" s="4" t="inlineStr">
@@ -12342,19 +12342,19 @@
       </c>
       <c r="C541" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="D541" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>XXXAnteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="542">
       <c r="A542" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_VAETERMONAT</t>
         </is>
       </c>
       <c r="B542" s="4" t="inlineStr">
@@ -12364,428 +12364,538 @@
       </c>
       <c r="C542" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Anteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
       <c r="D542" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>XXXAnteil der männlichen Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="543">
       <c r="A543" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ZWEITAUSB</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B543" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C543" s="4" t="inlineStr">
         <is>
-          <t>Zweitausbildung, Ausbildung nach Abitur</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D543" s="4" t="inlineStr">
         <is>
-          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="544">
       <c r="A544" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B544" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C544" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D544" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="545">
       <c r="A545" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SERIES_WITHOUTDIGI</t>
         </is>
       </c>
       <c r="B545" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C545" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Objekte ohne Digitalisat</t>
         </is>
       </c>
       <c r="D545" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Objects without digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="546">
       <c r="A546" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B546" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C546" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D546" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="547">
       <c r="A547" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B547" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C547" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D547" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="548">
       <c r="A548" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SERIES_ZWEITAUSB</t>
         </is>
       </c>
       <c r="B548" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C548" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Zweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
       <c r="D548" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="549">
       <c r="A549" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B549" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C549" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D549" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="550">
       <c r="A550" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B550" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C550" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D550" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="551">
       <c r="A551" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B551" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C551" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D551" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="552">
       <c r="A552" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B552" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C552" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D552" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="553">
       <c r="A553" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_FLAECHE</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B553" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C553" s="4" t="inlineStr">
         <is>
-          <t>Branchen-/Flächentarifvertrag</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D553" s="4" t="inlineStr">
         <is>
-          <t>XXXBranchen-/Flächentarifvertrag</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="554">
       <c r="A554" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_HAUS</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B554" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C554" s="4" t="inlineStr">
         <is>
-          <t>Firmen-/Haustarifvertrag</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D554" s="4" t="inlineStr">
         <is>
-          <t>XXXFirmen-/Haustarifvertrag</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="555">
       <c r="A555" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B555" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C555" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D555" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="556">
       <c r="A556" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B556" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C556" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D556" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="557">
       <c r="A557" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B557" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C557" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D557" s="4" t="inlineStr">
         <is>
-          <t>Transport area</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="558">
       <c r="A558" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_TARIF_FLAECHE</t>
         </is>
       </c>
       <c r="B558" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C558" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Branchen-/Flächentarifvertrag</t>
         </is>
       </c>
       <c r="D558" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>XXXBranchen-/Flächentarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="559">
       <c r="A559" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_TARIF_HAUS</t>
         </is>
       </c>
       <c r="B559" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C559" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Firmen-/Haustarifvertrag</t>
         </is>
       </c>
       <c r="D559" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>XXXFirmen-/Haustarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="560">
       <c r="A560" s="4" t="inlineStr">
         <is>
-          <t>A_ZUORDN_ALLGEM</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B560" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C560" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion allgemein</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D560" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and responsein genaral</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="561">
       <c r="A561" s="4" t="inlineStr">
         <is>
+          <t>A_TYPEAREA_SETTLEMEN</t>
+        </is>
+      </c>
+      <c r="B561" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C561" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsfläche (bebaut)</t>
+        </is>
+      </c>
+      <c r="D561" s="4" t="inlineStr">
+        <is>
+          <t>Settlement area (built on)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="562">
+      <c r="A562" s="4" t="inlineStr">
+        <is>
+          <t>A_TYPEAREA_TRANSPORT</t>
+        </is>
+      </c>
+      <c r="B562" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="C562" s="4" t="inlineStr">
+        <is>
+          <t>Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="D562" s="4" t="inlineStr">
+        <is>
+          <t>Transport area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="563">
+      <c r="A563" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_NONRURAL</t>
+        </is>
+      </c>
+      <c r="B563" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C563" s="4" t="inlineStr">
+        <is>
+          <t>Nicht-ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D563" s="4" t="inlineStr">
+        <is>
+          <t>Non-rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="564">
+      <c r="A564" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_RURAL</t>
+        </is>
+      </c>
+      <c r="B564" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C564" s="4" t="inlineStr">
+        <is>
+          <t>Ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D564" s="4" t="inlineStr">
+        <is>
+          <t>Rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="565">
+      <c r="A565" s="4" t="inlineStr">
+        <is>
+          <t>A_ZUORDN_ALLGEM</t>
+        </is>
+      </c>
+      <c r="B565" s="4" t="inlineStr">
+        <is>
+          <t>K_ZUORDN</t>
+        </is>
+      </c>
+      <c r="C565" s="4" t="inlineStr">
+        <is>
+          <t>Pandemieprävention und -reaktion allgemein</t>
+        </is>
+      </c>
+      <c r="D565" s="4" t="inlineStr">
+        <is>
+          <t>Germany’s contribution to global pandemic prevention and responsein genaral</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="566">
+      <c r="A566" s="4" t="inlineStr">
+        <is>
           <t>A_ZUORDN_COVID</t>
         </is>
       </c>
-      <c r="B561" s="4" t="inlineStr">
+      <c r="B566" s="4" t="inlineStr">
         <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="C561" s="4" t="inlineStr">
+      <c r="C566" s="4" t="inlineStr">
         <is>
           <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
-      <c r="D561" s="4" t="inlineStr">
+      <c r="D566" s="4" t="inlineStr">
         <is>
           <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -1210,12 +1210,12 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Tecnical compliance = Non-compliant oder partially compliant</t>
+          <t>Technical compliance = Non-compliant oder partially compliant</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Tecnical compliance = Non-compliant or partially compliant</t>
+          <t>Technical compliance = Non-compliant or partially compliant</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Tecnical compliance =  Largely compliant oder compliant</t>
+          <t>Technical compliance =  Largely compliant oder compliant</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Tecnical compliance = Largely compliant or compliant</t>
+          <t>Technical compliance = Largely compliant or compliant</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -2249,7 +2249,7 @@
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>XXXInfolinie - Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Effectiveness = Low or moderate</t>
+          <t>Niedrig oder moderat</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Technical compliance = Non-compliant oder partially compliant</t>
+          <t>Nicht konform oder teilweise konform mit den Vorschriften</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Effectiveness = Substantial or high</t>
+          <t>Weitgehend oder hoch</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Technical compliance =  Largely compliant oder compliant</t>
+          <t>Weitgehend konform oder konform mit den Vorschriften</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_BEREIN</t>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1276,19 +1276,19 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Bereinigter Gender Pay Gap</t>
+          <t>Berechnung in Zuschussäquivalenten</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>XXXBereinigter Gender Pay Gap</t>
+          <t>Calculated in grant equivalents</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t>A_CALCMETH_NETEXP</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1298,63 +1298,63 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Berechnung in Zuschussäquivalenten</t>
+          <t>Berechnung als Netto-Ausgabe</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Calculated in grant equivalents</t>
+          <t>Calculated as net expenditure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_NETEXP</t>
+          <t>A_CRIM_BURGLERY</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Berechnung als Netto-Ausgabe</t>
+          <t>Wohnungseinbruchsdiebstahl</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Calculated as net expenditure</t>
+          <t>Domestic burglary</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_UNBEREIN</t>
+          <t>A_CRIM_FRAUD</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Betrug</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>XXXUnbereinigter Gender Pay Gap</t>
+          <t>Fraud</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_BURGLERY</t>
+          <t>A_CRIM_HARM</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1364,19 +1364,19 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Wohnungseinbruchsdiebstahl</t>
+          <t>Gefährliche und schwere Körperverletzung</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Domestic burglary</t>
+          <t>Dangerous and serious bodily injury</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_FRAUD</t>
+          <t>A_CRIM_OTHER</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1386,24 +1386,24 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Betrug</t>
+          <t>Sonstige Straftaten</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Fraud</t>
+          <t>Other offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_HARM</t>
+          <t>A_CRIMOFF_BODYINJ</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
@@ -1420,29 +1420,29 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_OTHER</t>
+          <t>A_CRIMOFF_BURGL</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Sonstige Straftaten</t>
+          <t>Wohnungseinbruchsdiebstahl</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Other offences</t>
+          <t>Domestic burglary</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BODYINJ</t>
+          <t>A_CRIMOFF_FRAUD</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1452,19 +1452,19 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Gefährliche und schwere Körperverletzung</t>
+          <t>Betrug</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Dangerous and serious bodily injury</t>
+          <t>Fraud</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BURGL</t>
+          <t>A_CRIMOFF_OTHER</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1474,107 +1474,107 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Wohnungseinbruchsdiebstahl</t>
+          <t>Sonstige Straftaten</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Domestic burglary</t>
+          <t>Other offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_FRAUD</t>
+          <t>A_EU</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Betrug</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Fraud</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_OTHER</t>
+          <t>A_GERMANY</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Sonstige Straftaten</t>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Other offences</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>A_EU</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Brandenburg</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Brandenburg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>A_GERMANY</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -1584,19 +1584,19 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Brandenburg</t>
+          <t>Baden-Württemberg</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Brandenburg</t>
+          <t>Baden-Wuerttemberg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bavaria</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -1628,19 +1628,19 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Baden-Württemberg</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Baden-Wuerttemberg</t>
+          <t>Bremen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -1650,19 +1650,19 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Bayern</t>
+          <t>Hessen</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Bavaria</t>
+          <t>Hesse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -1672,19 +1672,19 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -1694,19 +1694,19 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Hessen</t>
+          <t>Mecklenburg-Vorpommern</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Hesse</t>
+          <t>Mecklenburg Western Pomerania</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -1716,19 +1716,19 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Niedersachsen</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Lower Saxony</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Mecklenburg Western Pomerania</t>
+          <t>North Rhine-Westphalia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -1760,19 +1760,19 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Niedersachsen</t>
+          <t>Rheinland-Pfalz</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Lower Saxony</t>
+          <t>Rhineland Palatinate</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t>A_LAENDER_SH</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -1782,19 +1782,19 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>Schleswig-Holstein</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>North Rhine-Westphalia</t>
+          <t>Schleswig-Holstein</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -1804,19 +1804,19 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz</t>
+          <t>Saarland</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Rhineland Palatinate</t>
+          <t>Saarland</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -1826,19 +1826,19 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein</t>
+          <t>Saxony</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t>A_LAENDER_ST</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -1848,19 +1848,19 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Saarland</t>
+          <t>Sachsen-Anhalt</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Saarland</t>
+          <t>Saxony-Anhalt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t>A_LAENDER_TH</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -1870,85 +1870,85 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Thüringen</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Saxony</t>
+          <t>Thuringia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t>A_PM2.5</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Saxony-Anhalt</t>
+          <t>PM2.5</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t>A_RISIKO_0</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Thüringen</t>
+          <t>Keine Risikolage</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Thuringia</t>
+          <t>XXXKeine Risikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>A_PM2.5</t>
+          <t>A_RISIKO_1</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Mindestens eine Risikolage</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>XXXMindestens eine Risikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_0</t>
+          <t>A_RISIKO_ALL</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -1958,19 +1958,19 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Keine Risikolage</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>XXXKeine Risikolage</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_1</t>
+          <t>A_RISIKO_DIFF</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -1980,107 +1980,107 @@
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Mindestens eine Risikolage</t>
+          <t>Differenz zwischen 'Keine Risikolage' und 'Mindestens eine Risikolage'</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>XXXMindestens eine Risikolage</t>
+          <t>XXXDifferenz zwischen 'Keine Risikolage' und 'Mind. eine Risikolage'</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_ALL</t>
+          <t>A_SEA_B</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>K_RISIKO</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Ostsee</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_DIFF</t>
+          <t>A_SEA_N</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>K_RISIKO</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Differenz zwischen 'Keine Risikolage' und 'Mind. eine Risikolage'</t>
+          <t>Nordsee</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>XXXDifferenz zwischen 'Keine Risikolage' und 'Mind. eine Risikolage'</t>
+          <t>North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_B</t>
+          <t>A_SEKTOREN_HOCHSCH</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Ostsee</t>
+          <t>Hochschulen</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Baltic Sea</t>
+          <t>XXXHochschulen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_N</t>
+          <t>A_SEKTOREN_STAAT</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Nordsee</t>
+          <t>Staat und private Institutionen ohne Erwerbszweck</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>North Sea</t>
+          <t>XXXStaat und private Institutionen ohne Erwerbszweck</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_HOCHSCH</t>
+          <t>A_SEKTOREN_WIRTSCH</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2090,63 +2090,63 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Hochschulen</t>
+          <t>Wirtschaft</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulen</t>
+          <t>XXXWirtschaft</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_STAAT</t>
+          <t>A_SERIES_123a</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>K_SEKTOREN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Staat und private Institutionen ohne Erwerbszweck</t>
+          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>XXXStaat und private Institutionen ohne Erwerbszweck</t>
+          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_WIRTSCH</t>
+          <t>A_SERIES_123b</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>K_SEKTOREN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaft</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>XXXWirtschaft</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123a</t>
+          <t>A_SERIES_123c</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -2156,19 +2156,19 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
+          <t>c) Nachhaltige Textilbeschaffung</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
+          <t>XXXNachhaltige Textilbeschaffung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123b</t>
+          <t>A_SERIES_33</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -2178,19 +2178,19 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123c</t>
+          <t>A_SERIES_33ADD</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -2200,19 +2200,19 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>c) Nachhaltige Textilbeschaffung</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>XXXNachhaltige Textilbeschaffung</t>
+          <t>XXXInfolinie - Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33</t>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -2222,19 +2222,19 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>Moving four-year average</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33ADD</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -2244,19 +2244,19 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>Gleitender Fünfjahresdurchschnitt bezogen auf das Endjahr</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>XXXInfolinie - Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>Moving five-year average shown for the last year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_4YAVERAGE</t>
+          <t>A_SERIES_ALLTEC</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -2266,19 +2266,19 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Vierjahresdurchschnitt</t>
+          <t>Alle leitungsgebundenen Technologien</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>Moving four-year average</t>
+          <t>All wired technologies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_5YAVERAGE</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -2288,41 +2288,41 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Fünfjahresdurchschnitt bezogen auf das Endjahr</t>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Moving five-year average shown for the last year</t>
+          <t>Calculated annual values</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ALLTEC</t>
+          <t>A_SERIES_BEH</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Alle leitungsgebundenen Technologien</t>
+          <t>Durch Behandlung vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>All wired technologies</t>
+          <t>Mortality avoidable through treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ANNUALVAL</t>
+          <t>A_SERIES_BEREIN</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -2332,41 +2332,41 @@
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Berechnete jährliche Werte</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Bereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>Calculated annual values</t>
+          <t>XXXBereinigter Gender Pay Gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BEH</t>
+          <t>A_SERIES_BMEL</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung vermeidbaren Sterblichkeit</t>
+          <t>Daten des BMEL</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through treatment</t>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BMEL</t>
+          <t>A_SERIES_CATV</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -2376,19 +2376,19 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Daten des BMEL</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Ministry of Food and Agriculture</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_CATV</t>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t>A_SERIES_COVID</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -2420,19 +2420,19 @@
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
+          <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
+          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COVID</t>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -2442,19 +2442,19 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Eindämmung der COVID-19-Pandemie</t>
+          <t>Differenz</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
+          <t>Difference</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t>A_SERIES_DIGITOBJ</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -2464,19 +2464,19 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Differenz</t>
+          <t>Objekte mit Digitalisat</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>Difference</t>
+          <t>Objects with digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -2486,19 +2486,19 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Objekte mit Digitalisat</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>Objects with digitised media</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -2508,19 +2508,19 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Daten des Statistischen Bundesamtes</t>
+          <t>Effectiveness</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Statistical Office</t>
+          <t>Effectiveness</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -2530,19 +2530,19 @@
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force (FATF) rating effectiveness</t>
+          <t>Beschäftigte in EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force (FATF) rating effectiveness</t>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -2552,19 +2552,19 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS-Organisationen</t>
+          <t>Energieverbrauch je Tonnenkilometer</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>Employees in EMAS organisations</t>
+          <t>Energy consumption per tonne-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -2574,19 +2574,19 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Tonnenkilometer</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per tonne-kilometre</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -2596,19 +2596,19 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Energieverbrauch je Personenkilometer</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Energy consumption per passenger-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t>A_SERIES_EQUALDISP</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -2618,19 +2618,19 @@
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Personenkilometer</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per passenger-kilometre</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISP</t>
+          <t>A_SERIES_EQUALDISPBE</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -2640,63 +2640,63 @@
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISPBE</t>
+          <t>A_SERIES_ERSTAUSB</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
+          <t>Erstausbildung</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>XXXErstausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ERSTAUSB</t>
+          <t>A_SERIES_FACHKR</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>Erstausbildung</t>
+          <t>Fachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>XXXErstausbildung</t>
+          <t>XXXFachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FACHKR</t>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -2706,19 +2706,19 @@
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>Fachkräftepotenzial (insgesamt)</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Technical compliance</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>XXXFachkräftepotenzial (insgesamt)</t>
+          <t>XXXTechnical compliance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
@@ -2728,19 +2728,19 @@
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Financial Action Task Force (FATF) rating technical compliance</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>Financial Action Task Force (FATF) rating technical compliance</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -2750,19 +2750,19 @@
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
@@ -2772,19 +2772,19 @@
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>Ausländer</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>Foreigns</t>
+          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
@@ -2794,19 +2794,19 @@
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
+          <t>Gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
@@ -2816,19 +2816,19 @@
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product (price-adjusted)</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -2838,41 +2838,41 @@
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>Deutsche</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>Germans</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_HOCHSCHUL</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Hochschulabschluss</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>XXXHochschulabschlüsse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOCHSCHUL</t>
+          <t>A_SERIES_HOEHERQUAL</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
@@ -2882,41 +2882,41 @@
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>Hochschulabschluss</t>
+          <t>Höherqualifizierende Berufsausbildung</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulabschlüsse</t>
+          <t>XXXHöherqualifizierende Berufsausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOEHERQUAL</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>Höherqualifizierende Berufsausbildung</t>
+          <t>Einfuhren</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
-          <t>XXXHöherqualifizierende Berufsausbildung</t>
+          <t>Imports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
@@ -2926,19 +2926,19 @@
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren</t>
+          <t>EMAS-Standorte</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>Imports</t>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
@@ -2948,19 +2948,19 @@
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Standorte</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
@@ -2992,19 +2992,19 @@
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -3014,19 +3014,19 @@
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of MSY examined stocks in all managed fish stocks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_MUETTER</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -3036,19 +3036,19 @@
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
+          <t>Mütter</t>
         </is>
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed fish stocks</t>
+          <t>Mothers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MUETTER</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -3058,19 +3058,19 @@
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>Mütter</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>Mothers</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
@@ -3080,19 +3080,19 @@
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
@@ -3102,19 +3102,19 @@
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -3124,19 +3124,19 @@
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -3146,19 +3146,19 @@
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_POSTSEC</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
@@ -3168,63 +3168,63 @@
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>Postsekundarer nicht-tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>With post-secondary non-tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_POSTSEC</t>
+          <t>A_SERIES_PREV</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>Postsekundarer nicht-tertiärer Abschluss</t>
+          <t>Durch Prävention vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>With post-secondary non-tertiary qualification</t>
+          <t>Mortality avoidable through prevention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREV</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention vermeidbaren Sterblichkeit</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_QUALIFZIERT</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -3234,19 +3234,19 @@
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products</t>
+          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_QUALIFZIERT</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
@@ -3256,19 +3256,19 @@
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_RMC</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
@@ -3300,19 +3300,19 @@
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RMC</t>
+          <t>A_SERIES_RMI</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
@@ -3322,19 +3322,19 @@
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
+          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RMI</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
@@ -3344,19 +3344,19 @@
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -3366,19 +3366,19 @@
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
@@ -3388,19 +3388,19 @@
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
@@ -3410,19 +3410,19 @@
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
@@ -3432,19 +3432,19 @@
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_UNBEREIN</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>XXXUnbereinigter Gender Pay Gap</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Niedrig oder moderat</t>
+          <t>Gering oder moderat</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Nicht konform oder teilweise konform mit den Vorschriften</t>
+          <t>Nicht umgesetzt oder teilweise umgesetzt</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -1227,12 +1227,12 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t>K_BEWERTUNGTEC</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Weitgehend oder hoch</t>
+          <t>Solide oder hoch</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Weitgehend konform oder konform mit den Vorschriften</t>
+          <t>Größtenteils umgesetzt oder umgesetzt</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNGTEC</t>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2036,7 +2036,7 @@
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_HOCHSCH</t>
+          <t>A_SEKTOREN_25</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Hochschulen</t>
+          <t>Nachhaltige bewirtschaftete Fläche</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulen</t>
+          <t>XXXNachhaltige bewirtschaftete Fläche</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_STAAT</t>
+          <t>A_SEKTOREN_51</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2068,19 +2068,19 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Staat und private Institutionen ohne Erwerbszweck</t>
+          <t>Terrestrische Schutzgebiete und Mangrovenwälder in marinen Schutzgebieten</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>XXXStaat und private Institutionen ohne Erwerbszweck</t>
+          <t>XXXTerrestrische Schutzgebiete und Mangrovenwälder in marinen Schutzgebieten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_WIRTSCH</t>
+          <t>A_SEKTOREN_55bc</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2090,85 +2090,85 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaft</t>
+          <t>Waldfläche nachhaltige Bewirtschaftung und Wiederherstellung</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>XXXWirtschaft</t>
+          <t>XXXWaldfläche nachhaltige Bewirtschaftung und Wiederherstellung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123a</t>
+          <t>A_SEKTOREN_HOCHSCH</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
+          <t>Hochschulen</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
+          <t>XXXHochschulen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123b</t>
+          <t>A_SEKTOREN_STAAT</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>Staat und private Institutionen ohne Erwerbszweck</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>XXXStaat und private Institutionen ohne Erwerbszweck</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123c</t>
+          <t>A_SEKTOREN_WIRTSCH</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>c) Nachhaltige Textilbeschaffung</t>
+          <t>Wirtschaft</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>XXXNachhaltige Textilbeschaffung</t>
+          <t>XXXWirtschaft</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33</t>
+          <t>A_SERIES_123a</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -2178,19 +2178,19 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33ADD</t>
+          <t>A_SERIES_123b</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -2200,19 +2200,19 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>XXXInfolinie - Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_4YAVERAGE</t>
+          <t>A_SERIES_123c</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -2222,19 +2222,19 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Vierjahresdurchschnitt</t>
+          <t>c) Nachhaltige Textilbeschaffung</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>Moving four-year average</t>
+          <t>XXXNachhaltige Textilbeschaffung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_5YAVERAGE</t>
+          <t>A_SERIES_33</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -2244,19 +2244,19 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Fünfjahresdurchschnitt bezogen auf das Endjahr</t>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Moving five-year average shown for the last year</t>
+          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ALLTEC</t>
+          <t>A_SERIES_33ADD</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -2266,19 +2266,19 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>Alle leitungsgebundenen Technologien</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>All wired technologies</t>
+          <t>XXXInfolinie - Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ANNUALVAL</t>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -2288,41 +2288,41 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Berechnete jährliche Werte</t>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Calculated annual values</t>
+          <t>Moving four-year average</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BEH</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung vermeidbare Sterblichkeit</t>
+          <t>Gleitender Fünfjahresdurchschnitt bezogen auf das Endjahr</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through treatment</t>
+          <t>Moving five-year average shown for the last year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BEREIN</t>
+          <t>A_SERIES_ALLTEC</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -2332,19 +2332,19 @@
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Bereinigter Gender Pay Gap</t>
+          <t>Alle leitungsgebundenen Technologien</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>XXXBereinigter Gender Pay Gap</t>
+          <t>All wired technologies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BMEL</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -2354,41 +2354,41 @@
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Daten des BMEL</t>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Ministry of Food and Agriculture</t>
+          <t>Calculated annual values</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_CATV</t>
+          <t>A_SERIES_BEH</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Durch Behandlung vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>Mortality avoidable through treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t>A_SERIES_BEREIN</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Bereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
+          <t>XXXBereinigter Gender Pay Gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COVID</t>
+          <t>A_SERIES_BMEL</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -2420,19 +2420,19 @@
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Eindämmung der COVID-19-Pandemie</t>
+          <t>Daten des BMEL</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t>A_SERIES_CATV</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -2442,19 +2442,19 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Differenz</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Difference</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -2464,19 +2464,19 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Objekte mit Digitalisat</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>Objects with digitised media</t>
+          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t>A_SERIES_COVID</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -2486,19 +2486,19 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Daten des Statistischen Bundesamtes</t>
+          <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Statistical Office</t>
+          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -2508,19 +2508,19 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Effectiveness</t>
+          <t>Differenz</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>Effectiveness</t>
+          <t>Difference</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t>A_SERIES_DIGITOBJ</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -2530,19 +2530,19 @@
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS-Organisationen</t>
+          <t>Objekte mit Digitalisat</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>Employees in EMAS organisations</t>
+          <t>Objects with digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -2552,19 +2552,19 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Tonnenkilometer</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per tonne-kilometre</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -2574,19 +2574,19 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Effectiveness</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Effectiveness</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -2596,19 +2596,19 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Personenkilometer</t>
+          <t>Beschäftigte in EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per passenger-kilometre</t>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISP</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -2618,19 +2618,19 @@
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
+          <t>Energieverbrauch je Tonnenkilometer</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Energy consumption per tonne-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISPBE</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -2640,41 +2640,41 @@
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ERSTAUSB</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>Erstausbildung</t>
+          <t>Energieverbrauch je Personenkilometer</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>XXXErstausbildung</t>
+          <t>Energy consumption per passenger-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FACHKR</t>
+          <t>A_SERIES_EQUALDISP</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -2684,19 +2684,19 @@
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>Fachkräftepotenzial (insgesamt)</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>XXXFachkräftepotenzial (insgesamt)</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t>A_SERIES_EQUALDISPBE</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -2706,41 +2706,41 @@
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Technical compliance</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>XXXTechnical compliance</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_ERSTAUSB</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Erstausbildung</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>XXXErstausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_FACHKR</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -2750,19 +2750,19 @@
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Ausländer</t>
+          <t>Fachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>Foreigns</t>
+          <t>XXXFachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
@@ -2772,19 +2772,19 @@
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Technical Compliance</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
+          <t>XXXTechnical compliance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
@@ -2794,19 +2794,19 @@
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product (price-adjusted)</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
@@ -2816,19 +2816,19 @@
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>Deutsche</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>Germans</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -2838,63 +2838,63 @@
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOCHSCHUL</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>Hochschulabschluss</t>
+          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulabschlüsse</t>
+          <t>Gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOEHERQUAL</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>Höherqualifizierende Berufsausbildung</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>XXXHöherqualifizierende Berufsausbildung</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -2904,63 +2904,63 @@
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
-          <t>Imports</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t>A_SERIES_HOCHSCHUL</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Standorte</t>
+          <t>Hochschulabschluss</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t>XXXHochschulabschlüsse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_HOEHERQUAL</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>Höherqualifizierende Berufsausbildung</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>XXXHöherqualifizierende Berufsausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Einfuhren</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>Imports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
@@ -2992,19 +2992,19 @@
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>EMAS-Standorte</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -3014,19 +3014,19 @@
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed fish stocks</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MUETTER</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -3036,19 +3036,19 @@
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>Mütter</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>Mothers</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -3058,19 +3058,19 @@
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
@@ -3080,19 +3080,19 @@
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t>Share of MSY examined stocks in all managed fish stocks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_MUETTER</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
@@ -3102,19 +3102,19 @@
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>Mütter</t>
         </is>
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>Mothers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -3124,19 +3124,19 @@
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -3146,19 +3146,19 @@
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_POSTSEC</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
@@ -3168,41 +3168,41 @@
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>Postsekundarer nicht-tertiärer Abschluss</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>With post-secondary non-tertiary qualification</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREV</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention vermeidbare Sterblichkeit</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
@@ -3212,19 +3212,19 @@
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_QUALIFZIERT</t>
+          <t>A_SERIES_POSTSEC</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -3234,41 +3234,41 @@
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Postsekundarer nicht-tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>With post-secondary non-tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_PREV</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Durch Prävention vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Mortality avoidable through prevention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RMC</t>
+          <t>A_SERIES_QUALIFZIERT</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
@@ -3300,19 +3300,19 @@
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
+          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RMI</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
@@ -3322,19 +3322,19 @@
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
@@ -3344,19 +3344,19 @@
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_RMC</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -3366,19 +3366,19 @@
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_RMI</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
@@ -3388,19 +3388,19 @@
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
@@ -3410,19 +3410,19 @@
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
@@ -3432,19 +3432,19 @@
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_UNBEREIN</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
@@ -3454,19 +3454,19 @@
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>XXXUnbereinigter Gender Pay Gap</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETER</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
@@ -3476,19 +3476,19 @@
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>Väter</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>Fathers</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERGELD</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
@@ -3498,19 +3498,19 @@
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>XXXKinder, deren Väter Elterngeld bezogen haben</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERMONAT</t>
+          <t>A_SERIES_UNBEREIN</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
@@ -3520,19 +3520,19 @@
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Männliche Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>XXXMännliche Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>XXXUnbereinigter Gender Pay Gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_VAETER</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
@@ -3542,19 +3542,19 @@
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Väter</t>
         </is>
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>Fathers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_VAETERGELD</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
@@ -3564,19 +3564,19 @@
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>XXXKinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_SERIES_VAETERMONAT</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>Objekte ohne Digitalisat</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Männliche Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>Objects without digitised media</t>
+          <t>XXXMännliche Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
@@ -3608,19 +3608,19 @@
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
@@ -3630,107 +3630,107 @@
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ZWEITAUSB</t>
+          <t>A_SERIES_WITHOUTDIGI</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>Zweitausbildung, Ausbildung nach Abitur</t>
+          <t>Objekte ohne Digitalisat</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
         <is>
-          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
+          <t>Objects without digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SERIES_ZWEITAUSB</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Zweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
@@ -3740,85 +3740,85 @@
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D150" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
@@ -3828,19 +3828,19 @@
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D154" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
@@ -3850,208 +3850,274 @@
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_FLAECHE</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>Branchen-/Flächentarifvertrag</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>XXXBranchen-/Flächentarifvertrag</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_HAUS</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Firmen-/Haustarifvertrag</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>XXXFirmen-/Haustarifvertrag</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_TARIF_FLAECHE</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Branchen-/Flächentarifvertrag</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>XXXBranchen-/Flächentarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_TARIF_HAUS</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Firmen-/Haustarifvertrag</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
         <is>
-          <t>Transport area</t>
+          <t>XXXFirmen-/Haustarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D162" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>A_ZUORDN_ALLGEM</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>Transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
+          <t>A_URBAN_NONRURAL</t>
+        </is>
+      </c>
+      <c r="B164" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>Nicht-ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D164" s="4" t="inlineStr">
+        <is>
+          <t>Non-rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_RURAL</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>Ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>Rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>A_ZUORDN_ALLGEM</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>K_ZUORDN</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>Pandemieprävention und -reaktion</t>
+        </is>
+      </c>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="4" t="inlineStr">
+        <is>
           <t>A_ZUORDN_COVID</t>
         </is>
       </c>
-      <c r="B164" s="4" t="inlineStr">
+      <c r="B167" s="4" t="inlineStr">
         <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="C164" s="4" t="inlineStr">
+      <c r="C167" s="4" t="inlineStr">
         <is>
           <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
-      <c r="D164" s="4" t="inlineStr">
+      <c r="D167" s="4" t="inlineStr">
         <is>
           <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1024,29 +1024,29 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EU</t>
+          <t>A_AIRPOLL_TOTAL</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_AIRPOLL</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>XXXInsgesamt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EU27</t>
+          <t>A_AREA_EU</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1056,19 +1056,19 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>EU-27</t>
+          <t>EU</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EU28</t>
+          <t>A_AREA_EU27</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>EU-27</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EURZ</t>
+          <t>A_AREA_EU28</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1100,19 +1100,19 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Eurozone</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Eurozone</t>
+          <t>EU-28</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_GMN</t>
+          <t>A_AREA_EURZ</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1122,41 +1122,41 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t>Eurozone</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Eurozone</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>A_BETREU_EINRICHT</t>
+          <t>A_AREA_GMN</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>K_BETREU</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Kindertageseinrichtungen</t>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>XXXKindertageseinrichtungen</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>A_BETREU_PFLEGE</t>
+          <t>A_BETREU_EINRICHT</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1166,41 +1166,41 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Kindertagespflege</t>
+          <t>Kindertageseinrichtungen</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>XXXTagespflege</t>
+          <t>XXXKindertageseinrichtungen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_CON</t>
+          <t>A_BETREU_PFLEGE</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t>K_BETREU</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Gering oder moderat</t>
+          <t>Kindertagespflege</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Effectiveness = Low or moderate</t>
+          <t>XXXTagespflege</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_CONTEC</t>
+          <t>A_BEWERTUNG_CON</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1210,19 +1210,19 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Nicht umgesetzt oder teilweise umgesetzt</t>
+          <t>Gering oder moderat</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Technical compliance = Non-compliant or partially compliant</t>
+          <t>Effectiveness = Low or moderate</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PRO</t>
+          <t>A_BEWERTUNG_CONTEC</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1232,19 +1232,19 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Solide oder hoch</t>
+          <t>Nicht umgesetzt oder teilweise umgesetzt</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Effectiveness = Substantial or high</t>
+          <t>Technical compliance = Non-compliant or partially compliant</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PROTEC</t>
+          <t>A_BEWERTUNG_PRO</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1254,41 +1254,41 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Größtenteils umgesetzt oder umgesetzt</t>
+          <t>Solide oder hoch</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Technical compliance = Largely compliant or compliant</t>
+          <t>Effectiveness = Substantial or high</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t>A_BEWERTUNG_PROTEC</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Berechnung in Zuschussäquivalenten</t>
+          <t>Größtenteils umgesetzt oder umgesetzt</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Calculated in grant equivalents</t>
+          <t>Technical compliance = Largely compliant or compliant</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_NETEXP</t>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1298,41 +1298,41 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Berechnung als Netto-Ausgabe</t>
+          <t>Berechnung in Zuschussäquivalenten</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Calculated as net expenditure</t>
+          <t>Calculated in grant equivalents</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_BURGLERY</t>
+          <t>A_CALCMETH_NETEXP</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Wohnungseinbruchsdiebstahl</t>
+          <t>Berechnung als Netto-Ausgabe</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Domestic burglary</t>
+          <t>Calculated as net expenditure</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_FRAUD</t>
+          <t>A_CRIM_BURGLERY</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1342,19 +1342,19 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Betrug</t>
+          <t>Wohnungseinbruchsdiebstahl</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Fraud</t>
+          <t>Domestic burglary</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_HARM</t>
+          <t>A_CRIM_FRAUD</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1364,19 +1364,19 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Gefährliche und schwere Körperverletzung</t>
+          <t>Betrug</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Dangerous and serious bodily injury</t>
+          <t>Fraud</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>A_CRIM_OTHER</t>
+          <t>A_CRIM_HARM</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1386,41 +1386,41 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Sonstige Straftaten</t>
+          <t>Gefährliche und schwere Körperverletzung</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Other offences</t>
+          <t>Dangerous and serious bodily injury</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BODYINJ</t>
+          <t>A_CRIM_OTHER</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>Gefährliche und schwere Körperverletzung</t>
+          <t>Sonstige Straftaten</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Dangerous and serious bodily injury</t>
+          <t>Other offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BURGL</t>
+          <t>A_CRIMOFF_BODYINJ</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>Wohnungseinbruchsdiebstahl</t>
+          <t>Gefährliche und schwere Körperverletzung</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Domestic burglary</t>
+          <t>Dangerous and serious bodily injury</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_FRAUD</t>
+          <t>A_CRIMOFF_BURGL</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1452,19 +1452,19 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>Betrug</t>
+          <t>Wohnungseinbruchsdiebstahl</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Fraud</t>
+          <t>Domestic burglary</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_OTHER</t>
+          <t>A_CRIMOFF_FRAUD</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1474,41 +1474,41 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>Sonstige Straftaten</t>
+          <t>Betrug</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Other offences</t>
+          <t>Fraud</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>A_EU</t>
+          <t>A_CRIMOFF_OTHER</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>Europäische Union</t>
+          <t>Sonstige Straftaten</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>Other offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>A_GERMANY</t>
+          <t>A_EU</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -1518,41 +1518,41 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t>Europäische Union</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t>A_GERMANY</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>Brandenburg</t>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Brandenburg</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -1562,19 +1562,19 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Brandenburg</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Brandenburg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -1584,19 +1584,19 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>Baden-Württemberg</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Baden-Wuerttemberg</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>Bayern</t>
+          <t>Baden-Württemberg</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Bavaria</t>
+          <t>Baden-Wuerttemberg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -1628,19 +1628,19 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Bavaria</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -1650,19 +1650,19 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>Hessen</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Hesse</t>
+          <t>Bremen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -1672,19 +1672,19 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Hessen</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Hesse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -1694,19 +1694,19 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>Mecklenburg-Vorpommern</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Mecklenburg Western Pomerania</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -1716,19 +1716,19 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>Niedersachsen</t>
+          <t>Mecklenburg-Vorpommern</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Lower Saxony</t>
+          <t>Mecklenburg Western Pomerania</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>Niedersachsen</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>North Rhine-Westphalia</t>
+          <t>Lower Saxony</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -1760,19 +1760,19 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz</t>
+          <t>Nordrhein-Westfalen</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Rhineland Palatinate</t>
+          <t>North Rhine-Westphalia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -1782,19 +1782,19 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein</t>
+          <t>Rheinland-Pfalz</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Schleswig-Holstein</t>
+          <t>Rhineland Palatinate</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t>A_LAENDER_SH</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -1804,19 +1804,19 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>Saarland</t>
+          <t>Schleswig-Holstein</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Saarland</t>
+          <t>Schleswig-Holstein</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -1826,19 +1826,19 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Saarland</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Saxony</t>
+          <t>Saarland</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -1848,19 +1848,19 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Saxony-Anhalt</t>
+          <t>Saxony</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t>A_LAENDER_ST</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -1870,63 +1870,63 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>Thüringen</t>
+          <t>Sachsen-Anhalt</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Thuringia</t>
+          <t>Saxony-Anhalt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>A_PM2.5</t>
+          <t>A_LAENDER_TH</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Thüringen</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Thuringia</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_0</t>
+          <t>A_PM2.5</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>K_RISIKO</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>Keine Risikolage</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>XXXKeine Risikolage</t>
+          <t>PM2.5</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_1</t>
+          <t>A_RISIKO_0</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -1936,19 +1936,19 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>Mindestens eine Risikolage</t>
+          <t>Keine Risikolage</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>XXXMindestens eine Risikolage</t>
+          <t>XXXKeine Risikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_ALL</t>
+          <t>A_RISIKO_1</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -1958,19 +1958,19 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Mindestens eine Risikolage</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>XXXMindestens eine Risikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_DIFF</t>
+          <t>A_RISIKO_ALL</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -1980,41 +1980,41 @@
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>Differenz zwischen 'Keine Risikolage' und 'Mindestens eine Risikolage'</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>XXXDifferenz zwischen 'Keine Risikolage' und 'Mind. eine Risikolage'</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_B</t>
+          <t>A_RISIKO_DIFF</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>Ostsee</t>
+          <t>Differenz zwischen 'Keine Risikolage' und 'Mindestens eine Risikolage'</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Baltic Sea</t>
+          <t>XXXDifferenz zwischen 'Keine Risikolage' und 'Mind. eine Risikolage'</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_N</t>
+          <t>A_SEA_B</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -2024,41 +2024,41 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>Nordsee</t>
+          <t>Ostsee</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>North Sea</t>
+          <t>Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_25</t>
+          <t>A_SEA_N</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>K_SEKTOREN</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige bewirtschaftete Fläche</t>
+          <t>Nordsee</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>XXXNachhaltige bewirtschaftete Fläche</t>
+          <t>North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_51</t>
+          <t>A_SEKTOREN_25</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2068,19 +2068,19 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>Terrestrische Schutzgebiete und Mangrovenwälder in marinen Schutzgebieten</t>
+          <t>Nachhaltige bewirtschaftete Fläche</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>XXXTerrestrische Schutzgebiete und Mangrovenwälder in marinen Schutzgebieten</t>
+          <t>XXXNachhaltige bewirtschaftete Fläche</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_55bc</t>
+          <t>A_SEKTOREN_51</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2090,19 +2090,19 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Waldfläche nachhaltige Bewirtschaftung und Wiederherstellung</t>
+          <t>Terrestrische Schutzgebiete und Mangrovenwälder in marinen Schutzgebieten</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>XXXWaldfläche nachhaltige Bewirtschaftung und Wiederherstellung</t>
+          <t>XXXTerrestrische Schutzgebiete und Mangrovenwälder in marinen Schutzgebieten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_HOCHSCH</t>
+          <t>A_SEKTOREN_55bc</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -2112,19 +2112,19 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Hochschulen</t>
+          <t>Waldfläche nachhaltige Bewirtschaftung und Wiederherstellung</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulen</t>
+          <t>XXXWaldfläche nachhaltige Bewirtschaftung und Wiederherstellung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_STAAT</t>
+          <t>A_SEKTOREN_HOCHSCH</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -2134,19 +2134,19 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>Staat und private Institutionen ohne Erwerbszweck</t>
+          <t>Hochschulen</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>XXXStaat und private Institutionen ohne Erwerbszweck</t>
+          <t>XXXHochschulen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_WIRTSCH</t>
+          <t>A_SEKTOREN_STAAT</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -2156,41 +2156,41 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaft</t>
+          <t>Staat und private Institutionen ohne Erwerbszweck</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>XXXWirtschaft</t>
+          <t>XXXStaat und private Institutionen ohne Erwerbszweck</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123a</t>
+          <t>A_SEKTOREN_WIRTSCH</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
+          <t>Wirtschaft</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
+          <t>XXXWirtschaft</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123b</t>
+          <t>A_SERIES_123a</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -2200,19 +2200,19 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>a) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>XXXa) Anteil nachhaltiger Vergabeverfahren</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123c</t>
+          <t>A_SERIES_123b</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -2222,19 +2222,19 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>c) Nachhaltige Textilbeschaffung</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>XXXNachhaltige Textilbeschaffung</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33</t>
+          <t>A_SERIES_123c</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -2244,19 +2244,19 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>c) Nachhaltige Textilbeschaffung</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>XXXNachhaltige Textilbeschaffung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_33ADD</t>
+          <t>A_SERIES_33</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -2266,19 +2266,19 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>XXXInfolinie - Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>XXXAnteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_4YAVERAGE</t>
+          <t>A_SERIES_33ADD</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -2288,19 +2288,19 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Vierjahresdurchschnitt</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>Moving four-year average</t>
+          <t>XXXInfolinie - Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_5YAVERAGE</t>
+          <t>A_SERIES_4YAVERAGE</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -2310,19 +2310,19 @@
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>Gleitender Fünfjahresdurchschnitt bezogen auf das Endjahr</t>
+          <t>Gleitender Vierjahresdurchschnitt</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>Moving five-year average shown for the last year</t>
+          <t>Moving four-year average</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ALLTEC</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -2332,19 +2332,19 @@
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>Alle leitungsgebundenen Technologien</t>
+          <t>Gleitender Fünfjahresdurchschnitt bezogen auf das Endjahr</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>All wired technologies</t>
+          <t>Moving five-year average shown for the last year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ANNUALVAL</t>
+          <t>A_SERIES_ALLTEC</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -2354,41 +2354,41 @@
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>Berechnete jährliche Werte</t>
+          <t>Alle leitungsgebundenen Technologien</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>Calculated annual values</t>
+          <t>All wired technologies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BEH</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>Durch Behandlung vermeidbare Sterblichkeit</t>
+          <t>Berechnete jährliche Werte</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through treatment</t>
+          <t>Calculated annual values</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BEREIN</t>
+          <t>A_SERIES_AUDIOVIS</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -2398,41 +2398,41 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Bereinigter Gender Pay Gap</t>
+          <t>Produktionen audiovisueller Medien, bei denen ökologische Standards eingehalten wurden</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>XXXBereinigter Gender Pay Gap</t>
+          <t>XXXProduktionen audiovisueller Medien, bei denen ökologische Standards eingehalten wurden</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_BMEL</t>
+          <t>A_SERIES_BEH</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>Daten des BMEL</t>
+          <t>Durch Behandlung vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Ministry of Food and Agriculture</t>
+          <t>Mortality avoidable through treatment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_CATV</t>
+          <t>A_SERIES_BEREIN</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -2442,19 +2442,19 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Bereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>Hybrid Fiber Coax (HFC)</t>
+          <t>XXXBereinigter Gender Pay Gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t>A_SERIES_BMEL</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -2464,19 +2464,19 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
+          <t>Daten des BMEL</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
+          <t>Data from the Federal Ministry of Food and Agriculture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COVID</t>
+          <t>A_SERIES_CATV</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -2486,19 +2486,19 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>Eindämmung der COVID-19-Pandemie</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
+          <t>Hybrid Fiber Coax (HFC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -2508,19 +2508,19 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>Differenz</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>Difference</t>
+          <t>Commercial exploited fish stocks assessed for MSY that is fished sustainably</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t>A_SERIES_COVID</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -2530,19 +2530,19 @@
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>Objekte mit Digitalisat</t>
+          <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>Objects with digitised media</t>
+          <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -2552,19 +2552,19 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>Daten des Statistischen Bundesamtes</t>
+          <t>Differenz</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>Data from the Federal Statistical Office</t>
+          <t>Difference</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t>A_SERIES_DIGITOBJ</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -2574,19 +2574,19 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>Effectiveness</t>
+          <t>Objekte mit Digitalisat</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>Effectiveness</t>
+          <t>Objects with digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t>A_SERIES_DSTTS</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -2596,19 +2596,19 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS-Organisationen</t>
+          <t>Daten des Statistischen Bundesamtes</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>Employees in EMAS organisations</t>
+          <t>Data from the Federal Statistical Office</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -2618,19 +2618,19 @@
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Tonnenkilometer</t>
+          <t>Effectiveness</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per tonne-kilometre</t>
+          <t>Effectiveness</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -2640,19 +2640,19 @@
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Beschäftigte in EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch je Personenkilometer</t>
+          <t>Energieverbrauch je Tonnenkilometer</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption per passenger-kilometre</t>
+          <t>Energy consumption per tonne-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISP</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -2684,19 +2684,19 @@
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EQUALDISPBE</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -2706,41 +2706,41 @@
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
+          <t>Energieverbrauch je Personenkilometer</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of equivalised disposable income before social transfers</t>
+          <t>Energy consumption per passenger-kilometre</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ERSTAUSB</t>
+          <t>A_SERIES_EQUALDISP</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>Erstausbildung</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>XXXErstausbildung</t>
+          <t>Gini coefficient of equivalised disposable income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FACHKR</t>
+          <t>A_SERIES_EQUALDISPBE</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -2750,41 +2750,41 @@
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>Fachkräftepotenzial (insgesamt)</t>
+          <t>Gini-Koeffizient des verfügbaren Äquivalenzeinkommens vor Sozialleistungen</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>XXXFachkräftepotenzial (insgesamt)</t>
+          <t>Gini coefficient of equivalised disposable income before social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t>A_SERIES_ERSTAUSB</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Technical Compliance</t>
+          <t>Erstausbildung</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>XXXTechnical compliance</t>
+          <t>XXXErstausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_FACHKR</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
@@ -2794,19 +2794,19 @@
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch durch Güterbeförderung</t>
+          <t>Fachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption for the transport of goods</t>
+          <t>XXXFachkräftepotenzial (insgesamt)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FOREIGN</t>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
@@ -2816,19 +2816,19 @@
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>Ausländer</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Technical Compliance</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>Foreigns</t>
+          <t>XXXTechnical compliance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FTTB</t>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -2838,19 +2838,19 @@
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>Reine Glasfasernetze (FTTB/H)</t>
+          <t>Endenergieverbrauch durch Güterbeförderung</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
+          <t>Final energy consumption for the transport of goods</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GDP</t>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
@@ -2860,19 +2860,19 @@
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
+          <t>Ausländer</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product (price-adjusted)</t>
+          <t>Foreigns</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GERMAN</t>
+          <t>A_SERIES_FTTB</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
@@ -2882,19 +2882,19 @@
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>Deutsche</t>
+          <t>Reine Glasfasernetze (FTTB/H)</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>Germans</t>
+          <t>Fibre-to-the-Building/Home (FTTB/H)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_GDP</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -2904,107 +2904,107 @@
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>Güterbeförderungsleistung</t>
+          <t>Bruttoinlandsprodukt (preisbereinigt)</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
-          <t>Goods transport performance</t>
+          <t>Gross domestic product (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOCHSCHUL</t>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>Hochschulabschluss</t>
+          <t>Deutsche</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>XXXHochschulabschlüsse</t>
+          <t>Germans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_HOEHERQUAL</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>Höherqualifizierende Berufsausbildung</t>
+          <t>Güterbeförderungsleistung</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>XXXHöherqualifizierende Berufsausbildung</t>
+          <t>Goods transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_HOCHSCHUL</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren</t>
+          <t>Hochschulabschluss</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>Imports</t>
+          <t>XXXHochschulabschlüsse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t>A_SERIES_HOEHERQUAL</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Standorte</t>
+          <t>Höherqualifizierende Berufsausbildung</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t>XXXHöherqualifizierende Berufsausbildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MARKETINC</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -3014,19 +3014,19 @@
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Markteinkommens</t>
+          <t>Einfuhren</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of market income</t>
+          <t>Imports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTCON</t>
+          <t>A_SERIES_KULTUR</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -3036,19 +3036,19 @@
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
+          <t>Nachhaltigkeitszertifizierte Kultur- und Medieneinrichtungen</t>
         </is>
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>Raw material input for consumption, investment and exports</t>
+          <t>XXXNachhaltigkeitszertifizierte Kultur- und Medieneinrichtungen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MATINPTPROD</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -3058,19 +3058,19 @@
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>EMAS-Standorte</t>
         </is>
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_MARKETINC</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
@@ -3080,19 +3080,19 @@
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
+          <t>Gini-Koeffizient des Markteinkommens</t>
         </is>
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>Share of MSY examined stocks in all managed fish stocks</t>
+          <t>Gini coefficient of market income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MUETTER</t>
+          <t>A_SERIES_MATINPTCON</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
@@ -3102,19 +3102,19 @@
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>Mütter</t>
+          <t>Rohstoffeinsatz für Konsum, Investitionen und Exporte</t>
         </is>
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>Mothers</t>
+          <t>Raw material input for consumption, investment and exports</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OBESE</t>
+          <t>A_SERIES_MATINPTPROD</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -3124,19 +3124,19 @@
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>Obese</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -3146,19 +3146,19 @@
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t>MSY-untersuchte Fischbestände an allen bewirtschafteten Beständen</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t>Share of MSY examined stocks in all managed fish stocks</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_OVERWEIGHT</t>
+          <t>A_SERIES_MUETTER</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
@@ -3168,19 +3168,19 @@
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>Übergewicht ohne Adipositas</t>
+          <t>Mütter</t>
         </is>
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>Overweight without obese</t>
+          <t>Mothers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PANDEMIC</t>
+          <t>A_SERIES_OBESE</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
@@ -3190,19 +3190,19 @@
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
@@ -3212,19 +3212,19 @@
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>Personenbeförderungsleistung</t>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>Passenger transport performance</t>
+          <t>EMAS organisations</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_POSTSEC</t>
+          <t>A_SERIES_OVERWEIGHT</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -3234,41 +3234,41 @@
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>Postsekundarer nicht-tertiärer Abschluss</t>
+          <t>Übergewicht ohne Adipositas</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>With post-secondary non-tertiary qualification</t>
+          <t>Overweight without obese</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PREV</t>
+          <t>A_SERIES_PANDEMIC</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>Durch Prävention vermeidbare Sterblichkeit</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>Mortality avoidable through prevention</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PROCIMP</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren von weiterverarbeiteten Produkten</t>
+          <t>Personenbeförderungsleistung</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>Imports of processed products</t>
+          <t>Passenger transport performance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_QUALIFZIERT</t>
+          <t>A_SERIES_POSTSEC</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
@@ -3300,41 +3300,41 @@
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>Postsekundarer nicht-tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
+          <t>With post-secondary non-tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_PREV</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus LDCs</t>
+          <t>Durch Prävention vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>Researchers from LDCs</t>
+          <t>Mortality avoidable through prevention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
@@ -3344,19 +3344,19 @@
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>Einfuhren von weiterverarbeiteten Produkten</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>Researchers from other developing and emerging countries</t>
+          <t>Imports of processed products</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RMC</t>
+          <t>A_SERIES_QUALIFZIERT</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -3366,19 +3366,19 @@
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
+          <t>XXXAkademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RMI</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
@@ -3388,19 +3388,19 @@
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
+          <t>Forschende aus LDCs</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
+          <t>Researchers from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
@@ -3410,19 +3410,19 @@
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus LDCs</t>
+          <t>Forschende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>Students from LDCs</t>
+          <t>Researchers from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_RMC</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
@@ -3432,19 +3432,19 @@
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>Students from other developing and emerging countries</t>
+          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TERTIARY</t>
+          <t>A_SERIES_RMI</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
@@ -3454,19 +3454,19 @@
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>Tertiärer Abschluss</t>
+          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>With tertiary qualification</t>
+          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTAL</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
@@ -3476,19 +3476,19 @@
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>Insgesamt</t>
+          <t>Studierende aus LDCs</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Students from LDCs</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_TOTALOBJ</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
@@ -3498,19 +3498,19 @@
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>Objekte insgesamt</t>
+          <t>Studierende aus den übrigen Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>All objects</t>
+          <t>Students from other developing and emerging countries</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_UNBEREIN</t>
+          <t>A_SERIES_TERTIARY</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
@@ -3520,19 +3520,19 @@
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>Unbereinigter Gender Pay Gap</t>
+          <t>Tertiärer Abschluss</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>XXXUnbereinigter Gender Pay Gap</t>
+          <t>With tertiary qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETER</t>
+          <t>A_SERIES_TOTAL</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
@@ -3542,19 +3542,19 @@
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>Väter</t>
+          <t>Insgesamt</t>
         </is>
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>Fathers</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERGELD</t>
+          <t>A_SERIES_TOTALOBJ</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
@@ -3564,19 +3564,19 @@
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Objekte insgesamt</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>XXXKinder, deren Väter Elterngeld bezogen haben</t>
+          <t>All objects</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETERMONAT</t>
+          <t>A_SERIES_UNBEREIN</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Männliche Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>Unbereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>XXXMännliche Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>XXXUnbereinigter Gender Pay Gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VALUECONSUM</t>
+          <t>A_SERIES_VAETER</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
@@ -3608,19 +3608,19 @@
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
+          <t>Väter</t>
         </is>
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
-          <t>Value of consumption, investment and exports (price-adjusted)</t>
+          <t>Fathers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WEALTH</t>
+          <t>A_SERIES_VAETERGELD</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
@@ -3630,19 +3630,19 @@
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Vermögens</t>
+          <t>Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of wealth</t>
+          <t>XXXKinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_SERIES_VAETERMONAT</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
@@ -3652,19 +3652,19 @@
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>Objekte ohne Digitalisat</t>
+          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Männliche Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
         <is>
-          <t>Objects without digitised media</t>
+          <t>XXXMännliche Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SERIES_VALUECONSUM</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
@@ -3674,19 +3674,19 @@
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
+          <t>Wert von Konsum, Investitionen und Exporten (preisbereinigt)</t>
         </is>
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of 2012</t>
+          <t>Value of consumption, investment and exports (price-adjusted)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SERIES_WEALTH</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
@@ -3696,107 +3696,107 @@
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
+          <t>Gini-Koeffizient des Vermögens</t>
         </is>
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>For the medium-sized and major cities of the year in question</t>
+          <t>Gini coefficient of wealth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ZWEITAUSB</t>
+          <t>A_SERIES_WITHOUTDIGI</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>Zweitausbildung, Ausbildung nach Abitur</t>
+          <t>Objekte ohne Digitalisat</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
+          <t>Objects without digitised media</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_D</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des Jahres 2012</t>
         </is>
       </c>
       <c r="D150" s="4" t="inlineStr">
         <is>
-          <t>Divers</t>
+          <t>For the medium-sized and major cities of 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>Weiblich</t>
+          <t>Bezogen auf die Mittel- und Oberzentren des jeweiligen Jahres</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>For the medium-sized and major cities of the year in question</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SERIES_ZWEITAUSB</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>Männlich</t>
+          <t>Zweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>XXXZweitausbildung, Ausbildung nach Abitur</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_U</t>
+          <t>A_SEX_D</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
@@ -3806,85 +3806,85 @@
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>Unbekannt</t>
+          <t>Divers</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Divers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Küsten/Meere</t>
+          <t>Weiblich</t>
         </is>
       </c>
       <c r="D154" s="4" t="inlineStr">
         <is>
-          <t>Coasts and seas sub-index</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Agrarland</t>
+          <t>Männlich</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>Farmland sub-index</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SEX_U</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Wälder</t>
+          <t>Unbekannt</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>Forest sub-index</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Siedlungen</t>
+          <t>Teilindex Küsten/Meere</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>Settlements sub-index</t>
+          <t>Coasts and seas sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
@@ -3916,208 +3916,274 @@
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>Teilindex Binnengewässer</t>
+          <t>Teilindex Agrarland</t>
         </is>
       </c>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>Inland waters sub-index</t>
+          <t>Farmland sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_FLAECHE</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>Branchen-/Flächentarifvertrag</t>
+          <t>Teilindex Wälder</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>XXXBranchen-/Flächentarifvertrag</t>
+          <t>Forest sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>A_TARIF_HAUS</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>Firmen-/Haustarifvertrag</t>
+          <t>Teilindex Siedlungen</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
         <is>
-          <t>XXXFirmen-/Haustarifvertrag</t>
+          <t>Settlements sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_RECREATIO</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>Erholungsfläche, Friedhof</t>
+          <t>Teilindex Binnengewässer</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>Recreation area, cemetery</t>
+          <t>Inland waters sub-index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_SETTLEMEN</t>
+          <t>A_TARIF_FLAECHE</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsfläche (bebaut)</t>
+          <t>Branchen-/Flächentarifvertrag</t>
         </is>
       </c>
       <c r="D162" s="4" t="inlineStr">
         <is>
-          <t>Settlement area (built on)</t>
+          <t>XXXBranchen-/Flächentarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>A_TYPEAREA_TRANSPORT</t>
+          <t>A_TARIF_HAUS</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>Verkehrsfläche</t>
+          <t>Firmen-/Haustarifvertrag</t>
         </is>
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>Transport area</t>
+          <t>XXXFirmen-/Haustarifvertrag</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_TYPEAREA_RECREATIO</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C164" s="4" t="inlineStr">
         <is>
-          <t>Nicht-ländliche Gebiete</t>
+          <t>Erholungsfläche, Friedhof</t>
         </is>
       </c>
       <c r="D164" s="4" t="inlineStr">
         <is>
-          <t>Non-rural areas</t>
+          <t>Recreation area, cemetery</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_TYPEAREA_SETTLEMEN</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>Ländliche Gebiete</t>
+          <t>Siedlungsfläche (bebaut)</t>
         </is>
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>Rural areas</t>
+          <t>Settlement area (built on)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>A_ZUORDN_ALLGEM</t>
+          <t>A_TYPEAREA_TRANSPORT</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Verkehrsfläche</t>
         </is>
       </c>
       <c r="D166" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>Transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
+          <t>A_URBAN_NONRURAL</t>
+        </is>
+      </c>
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t>Nicht-ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D167" s="4" t="inlineStr">
+        <is>
+          <t>Non-rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="4" t="inlineStr">
+        <is>
+          <t>A_URBAN_RURAL</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>Ländliche Gebiete</t>
+        </is>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>Rural areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>A_ZUORDN_ALLGEM</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>K_ZUORDN</t>
+        </is>
+      </c>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t>Pandemieprävention und -reaktion</t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="4" t="inlineStr">
+        <is>
           <t>A_ZUORDN_COVID</t>
         </is>
       </c>
-      <c r="B167" s="4" t="inlineStr">
+      <c r="B170" s="4" t="inlineStr">
         <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="C167" s="4" t="inlineStr">
+      <c r="C170" s="4" t="inlineStr">
         <is>
           <t>Eindämmung der COVID-19-Pandemie</t>
         </is>
       </c>
-      <c r="D167" s="4" t="inlineStr">
+      <c r="D170" s="4" t="inlineStr">
         <is>
           <t>Separate amount devoted to curbing the COVID-19 pandemic</t>
         </is>

--- a/Dic_Disagg_Ausprägungen.xlsx
+++ b/Dic_Disagg_Ausprägungen.xlsx
@@ -2288,12 +2288,12 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>XXXInfolinie - Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>XXXBeitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Bereinigter Gender Pay Gap</t>
+          <t>Bereinigter Gender Pay Gap</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Technical Compliance</t>
+          <t>Technical Compliance</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
+          <t>Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Konsum und Investitionen (RMC)</t>
+          <t>XXXRohstoffeinsatz für Konsum und Investitionen (RMC)</t>
         </is>
       </c>
     </row>
@@ -3454,12 +3454,12 @@
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
+          <t>Rohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>XXX&lt;u&gt;Infolinie:&lt;/u&gt; Rohstoffeinsatz für Exporte (RMC)</t>
+          <t>XXXRohstoffeinsatz für Exporte (RMC)</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>&lt;u&gt;Infolinie&lt;/u&gt;: Männliche Bezieher an allen genommenen Elterngeldmonaten</t>
+          <t>Männliche Bezieher an allen genommenen Elterngeldmonaten</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
